--- a/Summer_Data_Study/naver_news.xlsx
+++ b/Summer_Data_Study/naver_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,8 +495,8 @@
 응원수
 -
 데일리게임 이원희 기자입니다.
+김병만이 선택한 '노아의 심장', 양대 마켓 인기 1위 등극
 EA, '피파23' 커버 모델로 킬리언 음바페 3년 연속 발탁
-마블 스파이더맨 리마스터, PC 버전 상세 정보 공개
 Copyright ⓒ 데일리e스포츠. All rights reserved. 무단 전재 및 재배포 금지.
 기사 섹션 분류 가이드
 기사 섹션 분류 안내
@@ -867,8 +867,8 @@
 응원수
 -
 데일리게임 이원희 기자입니다.
+김병만이 선택한 '노아의 심장', 양대 마켓 인기 1위 등극
 EA, '피파23' 커버 모델로 킬리언 음바페 3년 연속 발탁
-마블 스파이더맨 리마스터, PC 버전 상세 정보 공개
 Copyright ⓒ 데일리e스포츠. All rights reserved. 무단 전재 및 재배포 금지.
 기사 섹션 분류 가이드
 기사 섹션 분류 안내
@@ -913,6 +913,3251 @@
         <is>
           <t>직업간 격차 완화하고 레벨 제한도 삭제 “함께 즐기는 사냥터”
  넥슨(대표 이정헌)은 슈퍼캣(대표 김영을)과 공동개발한 모바일 MMORPG ‘바람의나라: 연’에 신규 지역 ‘환상의 섬’을 비롯한 신규 콘텐츠를 오는 14일 추가한다. 신규 지역은 직업간 사냥 격차를 완화하기 위한 각종 요소들이 탑재된 것이 특징이다.넥슨은 지난 6월 30일 ‘바람의나라: 연’ 2주년 기념 방송 ‘개발자의 서신’을 개최하고 올 여름 2주년 업데이트 계획을 발표했다고 1일 밝혔다.이날 방송에는 ‘바람의나라: 연’ 개발을 총괄하는 슈퍼캣 이태성 디렉터와 조승모 기획팀장이 출연해 오는 14일 예정된 2주년 업데이트 콘텐츠인 신규 지역 ‘환상의 섬’을 소개했다.넥슨에 따르면 ‘환상의 섬’은 원작 ‘바람의나라’를 기반으로 제작된 지역으로 ‘가릉도’, ‘고균도’, ‘폭염도’로 구성된다. 원하는 장비 획득과 효율 좋은 사냥터 선택 등 이용자의 플레이 목적에 따라 새로운 지역을 찾는 재미를 제공한다.특히 직업과 스펙에 최적화된 사냥터를 제공해 직업간 사냥 격차를 완화하며 입장 레벨 제한 삭제, 그룹 구성원간 레벨 페널티 삭제, 몬스터 및 이용자간 레벨 페널티 삭제 등 이용자들이 다 함께 사냥할 수 있는 환경을 구축한 것이 특징이다.또 ‘착’ 시스템을 도입해 ‘환상의 섬’에서 얻은 ‘요력(재화)’으로 각종 추가 옵션 획득이 가능하며 최상위 장비를 파밍할 수 있는 ‘환상의 섬 유적지’도 추후 추가될 예정이다.이외에도 하반기 최우선 과제로 전투공식 개선, 장비지도 시스템 추가, 그룹 기억하기 시스템 추가, 오색장비 가방문제 개선, 거래소 편의성 개선 등의 작업을 공개했다.넥슨은 올 여름 두 번에 걸쳐 혜택을 제공하는 ‘T.S 쿠폰 더 레전드’도 발표했다. 이번 ‘T.S 쿠폰’은 보물 환수 합성을 통해 전설 환수 획득을 시도할 수 있도록 ‘진 자희산달 소환석’, ‘얼음꽃 눈깨비 소환석’, ‘환수소환석’, ‘변신 환수쿠폰’ ‘수호·탑승 환수쿠폰’ 등으로 구성됐다.넥슨은 오는 7월 13일까지 사전등록 이벤트도 실시한다. 사전등록자에게는 기간제 아이템 ‘백사도 +10’, ‘몽연의갑옷 +10’ 등을 제공한다.슈퍼캣 이태성 디렉터는 “오랫동안 사랑받는 ‘바람의나라: 연’이 되고자 많은 개발자들이 노력하고 있다”며 “공개한 콘텐츠와 앞으로 있을 신규 콘텐츠를 빠르게 선보여 더욱 재미있는 ‘바람의나라: 연’이 되도록 최선을 다하겠다”고 말했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>스마일게이트 ‘스토브 핫위크’…인기 인디게임 할인 쏟아진다</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 4:56</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[디지털데일리 이나연 기자] 스마일게이트 스토브가 운영하는 인디게임 플랫폼 ‘스토브인디’에서 매달 1일부터 일주일간 최대 80% 할인된 가격에 게임을 구매할 수 있는 행사를 진행한다. 스마일게이트 스토브는 인기 인디게임을 저렴하게 구입하고 다양한 혜택을 받을 수 있는 ‘스토브 핫위크’를 진행한다고 1일 밝혔다. 해당 기간 이용자는 핫 세일·핫 딜·핫 배틀 세 가지 코너에서 다양한 게임을 만날 수 있다.   먼저 핫 세일은 인디 게임 할인 행사다. 이달엔 ALTF4·노베나 디아볼로스·트러블슈터·레전드 오브 키퍼 등을 최대 80% 할인된 가격에 구매할 수 있다. 일일 타임세일 행사인 핫 딜은 매일 한정 수량 쿠폰을 공개해 인기 인디게임을 하루에 한 개씩 최대 80% 할인된 가격에 판매한다.   핫 배틀은 게임 2종이 판매 배틀을 벌이는 코너로, 행사 기간 더 많이 판매되거나 먼저 매진된 게임에 한해 구매자는 1000원 캐시백 리워드를 추가로 받을 수 있다. 이달엔 공포 게임 ‘이카이’와 ‘닉토포비아’가 맞붙는다.    ‘싸-다-구’ 행사도 함께 열린다. 싸-다-구는 ‘싸게 해줘’, ‘다시 해줘’, ‘구해줘’ 약자로, 할인을 희망하는 게임이나 다시 진행하길 원하는 행사, 입점 희망 게임 등을 댓글로 작성하는 코너다. 스토브인디는 이곳에서 모여진 이용자들 의견을 적극 수렴해 다음달 스토브 핫위크에 반영할 계획이다.  여승환 스마일게이트 스토브 이사는 “이용자 성원에 보답하기 위해 강력한 혜택과 할인을 준비했다”며 “스토브 핫위크가 스토브는 물론 인디게임 대표 월간 행사로 자리 잡길 바란다”고 전했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>'배그' 인도 진출 통했다…"1년간 누적이용자 1억명"</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 4:55</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>/사진=크래프톤크래프톤은 '배틀그라운드 모바일 인도'(BGMI)가 출시 1년 만에 누적 이용자 1억명을 돌파했다고 1일 밝혔다.지난해 7월 2일 인도에 출시된 BGMI는 △인도 명절 기념 이벤트 △현지 이용자 구매 패턴을 고려한 가격 정책 등 맞춤형 콘텐츠를 제공하고 있다. 인도 유명 연예인 및 인플루언서와의 협업으로 인지도를 확대해 지난 4월 인도 구글플레이 매출 1위를 기록했다.지난해 11월 시작된 BGMI e스포츠도 순항 중이다. 3주간 치러진 '배틀그라운드 모바일 프로 시리즈'(BMPS) 시즌1은 인도 e스포츠 역사상 가장 큰 규모의 상금인 2천만루피(약 3억3000만원)를 내걸어 화제가 됐다. 누적 시청횟수도 1억7500만건을 달성했다. 올해는 BMPS 시즌1을 포함해 4개의 프로 및 아마추어 대회를 연다. 모든 대회 총상금은 6000만루피(약 10억원)에 달한다.김창한 크래프톤 대표는 "인도는 중요한 시장으로, 더욱 강력한 시장으로 성장시키기 위해 적극 기여할 것"이라며 "앞으로도 BGMI로 인도 모바일 게임 경험을 한 단계 향상시키는 동시에, 디지털 생태계의 발전을 위한 투자 기회도 꾸준히 물색할 것"이라고 말했다. 크래프톤은 2021년부터 인도를 비롯한 신흥시장 IT·게임기업에 총 8차례 투자했다. 누적 투자금액은 총 1000억원 규모다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>펄어비스, 3년만에 이용자 직접 만난다...‘VOA서울’ 개최</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 4:55</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[디지털데일리 오병훈 기자] 펄어비스가 3년만에 검은사막 이용자 목소리를 듣기 위한 오프라인 소통행사를 연다.   펄어비스는 오는 16일 오후 6시 서울 웨이브 아트센터에서 이용자 행사 ‘VOS(Voice Of Adventurers) 서울’을 개최한다고 1일 밝혔다.    VOA는 펄어비스가 전 세계 이용자를 직접 만나는 행사다. 펄어비스가 세계 각국 이용자를 만나 목소리를 듣기 위해 마련했다. VOA서울은 지난 2019년 12월에 열린 ‘칼페온 연회’ 이후 한국에서 처음으로 열리는 오프라인 행사다.  참가를 원하는 이용자는 검은사막 공식 홈페이지를 통해 오는 3일까지 접수 가능하다. 단, 검은사막 PC·콘솔 계정을 보유하고 있어야 한다. 펄어비스는 신청자 중 100명을 선정해 행사에 초대할 계획이다.   앞서, 펄어비스는 올해 미국과 일본에서도 VOA를 개최한 바 있다. 북미에서는 이용자와 검은사막 운영진이 펍(PUB)에서 진행된 바 있다. 펄어비스는 앞으로도 북미·일본·한국 등에서 VOA를 계속 진행할 계획이다.   펄어비스는 “매년 두 차례 열리는 연회 외에도 ‘미팅앤그릿(meet&amp;greet)’, ‘검팡맨’, ‘심야토크’ 등 소통행사를 진행하고 있다”며 “지속적인 소통행사를 통해 이용자들의 목소리에 귀 기울이도록 하겠다”고 전했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>위메이드플레이 '애니팡' 시리즈 장수 비결은?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 04:52</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>'애니팡' 시리즈.  모바일게임 '애니팡'이 출시된지 올해로 10년을 맞았다. 모바일게임 대중화의 시작을 알린 '애니팡'은 누적 다운로드 3700만, 최고 일일사용자(DAU) 1000만 명, 동시접속자 300만 명 등 전무후무한 기록을 세우며 '국민 게임'이라는 타이틀을 얻은 게임이다.위메이드플레이는 이후 2014년 '애니팡2', 2016년 '애니팡3', 2020년 '애니팡4'를 출시했다. '애니팡' 시리즈는 같은 모양의 블록을 가로나 세로로 3개 이상 연달아 배치하는 3매치 방식을 기본으로 하면서, 시리즈마다 차별점을 둬 비슷한 것 같지만 다른 게임을 하는 듯한 재미로 꾸준히 인기를 얻고 있다.'애니팡'이 10년, '애니팡2'가 8년, '애니팡3'가 6년 등 서비스 장기화에도 불구, 위메이드플레이는 리마스터를 비롯한 다양한 업데이트로 제품 수명 주기(PLC)를 늘려 나가고 있다.◆리마스터 버전으로 장기 서비스 발판 마련위메이드플레이는 자원 사용 최적화, 엔진 교체 등을 골자로 한 리마스터 버전을 내놓으면서 최신 트렌드를 반영, 게임에 새 생명을 불어넣었다.가장 먼저 리마스터 버전 업데이트를 진행한 게임은 '애니팡3'다. 2019년 3월에 선보인 '애니팡3' 리마스터 버전은 6개월 동안 기획, 개발, 테스트를 거쳤으며 메뉴와 시스템 간결화에 중점을 뒀다. 이를 통해 스마트폰 자원 사용 최적화로 로딩과 플레이 속도가 최대 30%가량 단축됐고, 블록 격파 시 연출되는 이펙트를 개선해 보다 역동적인 그래픽 효과와 짜릿한 손맛을 배가했다. 또 이용자 의견을 반영해 보유 캐릭터를 최고 등급으로 만들기, 특수 캐릭터 조작 등의 기능을 추가하면서 호평을 받았다.'애니팡2' 리마스터 전(왼쪽)과 후의 이펙트 비교.'애니팡2'는 두 차례에 걸쳐 리마스터 업데이트를 진행, 완성도를 높인 케이스다. 2020년 1월 리마스터 업데이트가 적용된 '애니팡2'는 기존 플래시 기반의 에어 엔진을 유니티 엔진으로 바꾸고, 프레임을 개선해 화려하고 다채로운 연출 등 시각적인 재미를 업그레이드했다. 또 2021년에는 리마스터 2.0이라는 이름으로 게임의 그래픽과 디자인 요소들을 전면 개편했다. 게임 화면을 확대하고, 직관적인 조작을 통한 편의성 제공, 다양한 애니메이션과 같은 볼거리를 추가해 마치 최신 게임처럼 탈바꿈했다.◆퍼즐 외에도 즐길거리 多多'애니팡' 시리즈는 퍼즐 본연의 재미에 집중하면서도, 퍼즐 플레이와 연계한 색다른 서브 콘텐츠를 운영하면서 다양한 즐길거리를 제공한다. '애니팡2'는 사탕공장, 스피드 그랑프리 등 주간 이벤트 5개와 과일농장, 그림일기 등 주말 이벤트 2개로 총 7개의 이벤트를 정기적으로 열고 있다. 또 '애니팡3'는 10개, '애니팡4'는 9개로 수수께끼, 빙고, 별자리, 운동회, 낚시 등 다양한 소재로 미니 게임 형태의 이벤트를 선보이고 있다.'애니팡3'는 퍼즐 블록을 격파하면서 보스를 사냥하는 '로켓 보스'를 새롭게 선보여 좋은 반응을 얻었다. 보스를 향해 날아가는 로켓의 비행과 타격 모션은 손맛에 보는 재미까지 더했다는 평가를 받았다. 더불어 '애니팡4'는 실시간 대전 콘텐츠인 '로얄'에 1대1 대전을 추가, 대전에 다양성을 더했으며 올해에는 자신의 아바타로 실시간 소통하는 공간인 '소셜 스퀘어'를 오픈했다.'애니팡3; 로켓보스(왼쪽)와 '애니팡4' 소셜 스퀘어.또한 위메이드플레이는 '애니팡' 시리즈에서 새로운 콘텐츠를 선보이는 것 외에 기존 이벤트를 대대적으로 개편해 더 나은 재미를 전하기 위해 노력하고 있다. 그 예로 '애니팡2'는 '낚시왕' 콘텐츠의 포획 어종을 12종으로 확대하고 특히 한국 바다에서 서식하는 어종을 조사, 반영해 사실감을 높이는 한편 계절, 날씨 등 환경 요소에 따라 바뀌는 배경과 화면의 직관성을 높여 호응을 얻었다.◆앞으로의 '애니팡'은시리즈 첫 번째 게임을 선보이고 10년이 흐르는 동안 4개의 작품을 선보였지만 모바일게임 시장 경쟁 심화, 인기 장르 쏠림 현상 등 앞으로의 10년을 고민할 수밖에 없다. 위메이드플레이의 해답은 NFT다.지난 5월 위메이드플레이는 '애니팡' IP를 활용한 NFT 사업 진출 소식을 전했다. 국내 모바일 게임 시장에서 장수 인기 게임이자 '국민 게임' 타이틀을 지켜온 '애니팡'이 NFT 옷을 입고 맞이할 새로운 계획이 발표되면서 많은 이들의 이목이 집중됐다. 특히 NFT 보유에 따른 멤버십 서비스인 '애니팡 클럽(가칭)'은 소유자와 다양한 디지털 콘텐츠, 서비스를 연결하는 플랫폼을 목표로 하고 있다.위메이드플레이는 NFT 사업과 함께 '애니팡 매치', '애니팡 블라스트' 등 '애니팡' 시리즈에 블록체인 기술을 결합한 다양한 신작을 준비하고 있다. 위메이드플레이가 새롭게 선보일 블록체인 기반 신작들과 그 안에서 소유와 유통, 다양한 혜택 등을 제공할 '애니팡 클럽'이 어떤 시너지를 낼지도 관전 포인트다. 위메이드플레이의 향후 행보에 관심이 쏠린다.
+						기사제공 데일리e스포츠
+이원희 cleanrap@dailygame.co.kr
+이원희 기자
+구독
+이원희 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+데일리게임 이원희 기자입니다.
+김병만이 선택한 '노아의 심장', 양대 마켓 인기 1위 등극
+EA, '피파23' 커버 모델로 킬리언 음바페 3년 연속 발탁
+Copyright ⓒ 데일리e스포츠. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기
+웹에서 즐기는 캐쥬얼게임 50종
+유튜브 핫뉴스 &amp; 화제 영상 보기</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>'Made by BTS' 인더섬 with BTS, 글로벌 흥행 본격시작…한미일 앱스토어 1위</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 4:52</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>기획단계부터 방탄소년단이 참여하며 화제를 모은 모바일게임 ‘인더섬 with BTS’이 출시 초반부터 글로벌 흥행돌풍을 일으키고 있다.1일 하이브(HYBE) 측에 따르면 ‘인더섬 with BTS’는 출시 3일만인 지난달 30일 일일 이용자 수(DAU) 200만명 돌파와 함께, 한미일 3국의 애플 앱스토어 무료게임 1위를 차지하는 등 쾌조의 성적을 거두고 있다.
+사진=하이브(HYBE) 제공이같은 ‘인더섬 with BTS’ 흥행성적은 게임 자체의 매력과 함께, 유튜브 공개된 바 있는 게임 상의 방탄소년단 표 아이디어가 집중적으로 비쳐진 덕분으로 볼 수 있다.특히 게임 출시 직후 멤버 정국의 플레이 장면과 함께 유입된 대중이 아기자기한 그래픽으로 구현된 촘촘한 스토리라인에 집중하면서, AI 최적화의 난이도 조정으로 비쳐지는 1000개의 매치3 퍼즐들을 풀어나가는 기본적인 재미를 자연스럽게 느끼게 됐다는 점이 주효한 것으로 보여진다.‘인더섬 with BTS’는 한국어·일본어·영어·중국어(간체, 번체)·스페인어 등 6개언어 구성과 함께, 애플 앱스토어 및 구글 플레이를 통해 다운로드해 즐길 수 있다.
+사진=하이브(HYBE) 제공보다 자세한 내용은 ‘인더섬 with BTS’의 브랜드 사이트와 공식 SNS 계정인 트위터와 인스타그램, 유튜브 등을 통해 확인할 수 있다.한편 하이브는 ‘인더섬 with BTS’의 정식출시를 기념, 게임 내 캐릭터들의 액션과 방탄소년단 음악을 다채롭게 즐길 수 있는 인게임 아이템 '아미밤스탠드'를 지급하는 특별 출석보상 이벤트를 진행하고 있다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>[콘텐츠 핫&amp;뉴] 컴투스프로야구 팬들이 선정한 올스타전 가상 라인업 공개</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 4:49</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>컴투스(대표 송재준, 이주환)는 ‘컴투스프로야구2022’ 이용자들이 선정한 올스타전 가상 베스트 라인업을 공개했다.컴투스는 ‘컴투스프로야구2022’ 공식 카페 이용자들을 대상으로 지난 2주간 설문을 진행해 드림과 나눔으로 구분된 올스타 팀 각 포지션별 총 24명의 가상 베스트 라인업을 선정했다.이용자들은 SSG랜더스의 김광현을 이번 올스타전에 합류할 가장 유력한 후보로 점쳤다. 총 87%의 득표로 드림과 나눔 올스타를 통틀어 가장 높은 지지를 얻은 김광현은 KBO에서 진행 중인 드림 올스타 선발 투수 팬투표 부문에서도 1위를 기록하고 있다. 나눔 올스타의 선발 투수 예측에는 KIA 타이거즈의 양현종이 1위를 기록했다. 이용자들의 전망이 현살화될 경우 KBO리그를 대표하는 좌완 투수들의 선발 맞대결을 기대해 볼 수 있다. 타자 부문에서는 롯데 자이언츠의 주전 2루수로 활약 중인 안치홍이 가장 높은 득표를 기록했으며 SSG랜더스의 최정과 KT위즈의 박병호 등 베테랑급 선수들도 뒤이어 이름을 올리며 별들의 잔치 단골손님으로서 입지를 굳혔다.외야수 부문에서는 양 팀 모두에서 주전 후보들이 근소한 득표차를 기록하며 치열한 각축전이 벌어졌다. 삼성 라이온스의 호세 피렐라, SSG랜더스 한유섬, 삼성 라이온즈 구자욱이 드림팀의 외야수 자리를 차지하고 나눔팀에는 컴프야2022의 모델로 활약 중인 이정후와 KIA타이거즈 소속 나성범, 소크라테스 브리토가 올스타전 무대에 설 것으로 전망됐다.이외에도 양현종, 정해영, 최형우, 황대인, 김선빈, 류지혁, 나성범, 소크라테스 브리토, 김광현, 서진용, 박성한, 최정, 한유섬 등 KIA 타이거즈와 SSG 랜더스의 선수 총 13명이 주전 후보에 이름을 올렸다.컴투스는 최근 KBO와 ‘2022 KBO 올스타전’의 공식 스폰서 계약을 체결하고 메인 이벤트로 진행되는 홈런 레이스의 네이밍 권리를 획득했다. ‘컴투스프로야구 홈런레이스’라는 공식 타이틀로 오는 7월 15일 올스타전 중계 방송사를 통해 생중계될 예정이다.◆카카오게임즈 ‘월드 플리퍼’에 신규 한정 캐릭터 추가카카오게임즈(대표 조계현)는 1일 사이게임즈(대표 와타나베 코우이치)와 사이게임즈의 자회사인 시테일이 공동 개발한 신작 모바일 액션 RPG ‘월드 플리퍼’에 신규 한정 캐릭터를 추가했다고 밝혔다.이번에 등장한 캐릭터는 ‘5성 강철의 소악마 가희 디어’를 포함한 한정 캐릭터 4종이다. 카카오게임즈는 오는 8일까지 해당 캐릭터들이 대거 등장하는 ‘픽업 이벤트’도 실시한다.‘강철의 소악마 가희 디어’는 노래의 힘으로 파티 전체에 공격력을 높일 수 있는 능력을 보유했다. 함께 추가된 ‘4성 고양이 귀와 꼬리의 수호자 파르체’는 잔류사념을 둘러서 닿은 적에게 암속성 피해를 입힐 수 있다. 전방에 프로톤 입자포를 발사해 적에게 뇌속성 피해를 주는 ‘4성 황혼시의 미소를 머금은 과학자 루나르’, 과자를 나눠주며 참전자 전원의 체력을 회복시키는 ‘3성 장난스러운 성직자 코리나’도 만날 수 있다.오는 8일까지 신규 콘텐츠 강림토벌 ‘너에게 보내는 진혼가’도 운영한다. ‘잭 오 랜턴’을 토벌하고 얻은 이벤트 재화를 활용해 기간 한정 장비와 성장 재화를 받을 수 있다. 오는 9일까지는 타임어택 배틀 ‘일광의 시련’도 개최한다. 오는 3일까지 접속자에게 ‘성도석 1000개’, ‘마나 3만개’, ‘경험치 3만개’도 선물한다. 
+ ◆스마일게이트 ‘에픽세븐 월드아레나 챔피언십’ 영상 공개스마일게이트 메가포트(대표 장인아)는 슈퍼크리에이티브(공동대표 김형석, 강기현)가 개발한 모바일 RPG ‘에픽세븐’의 e스포츠 축제 ‘에픽세븐 월드 아레나 챔피언십 2022’ 영상을 공개했다고 1일 밝혔다.이번 PV영상은 지난달 28일 공개된 YB밴드의 ‘E7WC 2022’ 메인 테마곡 ‘INVINCIBLE’을 배경 음악으로 활용해 에픽세븐 세계관 속 헤비메탈 밴드인 ‘카오스교 밴드’가 주인공으로 등장한다. 카오스교 밴드는 드럼의 ‘카오스교 도끼 대장군’, 베이스와 보컬을 담당하는 ‘카오스교 도살부대원’, 기타를 담당하는 ‘전도사 카마인로즈’로 구성됐다. ‘INVINCIBLE’의 보컬인 윤도현의 목소리와 잘 어울리는 웅장한 밴드 공연과 화려한 전투씬을 완성도 높은 애니메이션으로 만나볼 수 있다. PV영상은 에픽세븐 공식 유튜브 채널과 트위치 채널을 통해 누구나 감상할 수 있다.이번 테마곡의 주인공인 ‘E7WC’는 총상금 10만달러 규모로 전세계 에픽세븐 이용자들 중 실시간 아레나 최강자를 가리는 글로벌 e스포츠 대회다. 이번 대회부터는 선수들과 경기의 정보를 한눈에 확인할 수 있는 옵저버 시스템을 도입했다.◆블리자드, 리치왕의 분노 개발 비화 영상 시리즈 1편 공개블리자드는 ‘월드오브워크래프트: 리치왕의 분노 클래식’ 베타 테스트 시작과 함께 오리지널 ‘리치 왕의 분노’ 제작 비화를 다룬 영상 시리즈의 첫 편 ‘아제로스 세우기: 노스렌드’를 공개했다.월드오브워크래프트 팀의 아트 디렉터 일라이 캐논과 수석 레벨 디자이너 사라 볼리안 베랄, 오버워치의 게임 디렉터 아론 켈러 등 총 세 명의 베테랑 블리자드 개발자들이 ‘리치 왕의 분노’를 개발하던 시절을 추억한다.이번 영상을 통해 월드오브워크래프트의 세계관을 완성하는 중요한 장소이자 아서스 메네실과 같은 걸출한 캐릭터가 탄생한 곳이기도 한 노스렌드의 디자인 방식과 다양한 구성 요소, 당시의 기술적 도전 등을 살펴볼 수 있다.◆네오위즈 ‘브라운더스트’, 신규 용병 그룹 ‘퍼스트 뱅가드’ 등장네오위즈(공동대표 김승철, 배태근)는 모바일 전략 RPG ‘브라운더스트’에 신규 용병 그룹 ‘퍼스트 뱅가드’ 6인을 업데이트했다고 1일 밝혔다.신규 용병은 퍼스트 뱅가드 소속의 검사인 5성 마법형 ‘미누아’와 5성 방어형 용병 ‘캉’, 4성 마법형 용병 ‘케이케’ 등이다. 이들의 조력자로 각각 ‘미카렌’, ‘리타’, ‘페스트리아’ 등도 추가됐다.네오위즈는 용병의 특정 능력치를 강화할 수 있는 세트 효과 ‘외면’과 ‘리안 공화국’도 새로 선보였다. 용병 ‘미누아’, ‘뮤즈’, ‘케이케’가 함께 전투에 출전하면 공격력이 증가하고 ‘캉’, ‘아이작’, ‘유리아’의 경우 생명력이 높아진다.네오위즈는 오는 7월 14일까지 각성 수정 동굴 입장 비용을 다이아 10개에서 골드 1개로 할인한다. 캠페인, 결투장, 월드아레나 등에서 획득 가능한 ‘썸머 칵테일’을 사용해 슈타인 잉크, 레드 슬라임, 룬 조각 등을 얻을 수 있는 이벤트도 연다.또 신비의 섬 약탈 승리, 월드 아레나 참여 등의 미션을 수행하고 빙고를 완성해 전설 스킬 전수권, 5성 스킬북, 5성 조력자 선물 등의 보상을 받는 ‘썸머 빙고 이벤트’도 오는 28일까지 운영한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>위메이드, '미르M' 구글플레이 인기 1위 기록</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 4:43</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>이용자 지속 유입…매출 순위는 4위 올라
+[사진=위메이드]신작 '미르M: 뱅가드 앤 배가본드(이하 미르M)'가 구글플레이 인기 순위 1위를 기록했다.1일 게임업계에 따르면 위메이드(대표 장현국)가 지난달 23일 출시한 미르M이 구글플레이 인기 1위에 올랐다. 앞서 매출 순위 4위에 오른데 이어 신규 이용자가 지속 유입된 결과로 풀이된다.미르M은 위메이드가 '미르의전설2' 지식재산권(IP)을 기반으로 개발한 대규모다중접속역할수행게임(MMORPG)이다. 8방향 그리드 전투와 쿼터뷰를 통해 전략과 전술의 중요도를 강화했으며, 위메이드가 쌓아온 게임 서비스 노하우를 담아냈다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>하이브 '인더섬 with BTS', DAU 200만 돌파…출시 사흘 만</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 4:25</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>한·미·일 등 주요 국가 애플 앱 스토어 인기 무료 게임 1위 차지하이브(대표 박지원)는 신규 모바일 게임 '인더섬 with BTS'가 지난 6월 28일 출시 3일 만에 일일 이용자 수(DAU) 200만을 돌파했다고 1일 발표했다.
+ 인더섬 with BTS 앱스토어 순위[사진=하이브]방탄소년단이 기획 및 개발에 참여한 인더섬 위드(with) BTS는 앞서 사전 예약 3일 만에 100만 명을 돌파하기도 했다. 당시 방탄소년단 특징을 그대로 반영한 캐릭터로 눈을 사로잡은 한편, 멤버들이 게임 타이틀과 퍼즐 레벨 등 곳곳에 참여한 모습들이 공개됐다.출시 직후 한국과 미국, 일본 애플 앱 스토어에서는 무료 게임 인기 순위 1위를 차지하는 한편, 일본에서는 구글 플레이 및 애플 앱 스토어 양대 마켓 인기 무료 게임 1위를 달성하기도 했다. 특히 방탄소년단 멤버 정국은 팬들과 게임을 즐기는 모습으로 온라인 상에서 화제가 됐다.인더섬 with BTS는 매치 3 퍼즐 장르로, 아름다운 섬과 귀여운 방탄소년단 캐릭터를 표현한 아기자기한 그래픽을 특징으로 한다. 인공지능(AI) 기반으로 최적화된 1천 개의 퍼즐 구성과 화려한 이펙트 연출 및 타격감을 보이며, 아울러 스토리 구성과 꾸미기 및 수집 요소, 이용자 소셜 시스템 등의 콘텐츠를 제공한다.한편, 인더섬 with BTS는 정식 출시를 기념해 특별 출석 보상 이벤트를 진행하며, 게임 내에서 섬을 꾸밀 수 있는 아이템 '아미밤 스탠드'를 지급한다. 방탄소년단 캐릭터를 아미밤 스탠드 주변에 배치하면 방탄소년단의 음악과 함께 캐릭터들의 특별한 액션을 감상할 수 있다.이 게임은 한국어, 일본어, 영어, 중국어(간체, 번체), 스페인어 등 총 6개 언어로 제공된다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>크래프톤 '배그 모바일 인도' 누적 이용자수 1억명 돌파</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 4:25</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>인도 중심 콘텐츠·e스포츠 생태계 조성이 주효크래프톤(대표 김창한)이 '배틀그라운드 모바일 인도(BGMI)'가 출시 1년 만에 누적 이용자 수 1억 명을 돌파했다고 1일 발표했다.
+ [사진=크래프톤]크래프톤은 지난해 7월 2일 인도 지역에 BGMI를 출시하고 인도 이용자만을 위한 차별화된 콘텐츠를 제공하고 e스포츠 생태계를 조성해 '보는 이용자'층까지 확장하고 있다.BGMI는 4월 인도 구글 플레이 매출 순위 1위를 기록했다. 앞서 크래프톤은 인도 명절 기념 이벤트, 현지 이용자들의 구매 패턴을 고려한 가격 정책 등 인도 중심의 콘텐츠 및 상품을 제공하고, 인도의 유명 연예인 및 인플루언서들과의 다양한 컬래버레이션을 진행했다.지난해 11월 '배틀그라운드 모바일 인도 시리즈 2021'로 첫 시작을 알린 BGMI e스포츠 대회도 순항 중이다. 6월 12일 3주 간의 대회를 마친 배틀그라운드 모바일 프로 시리즈(BMPS) 시즌1은 총상금 2천만 루피(약 3억3천만원)로, 인도 e스포츠 역사상 가장 큰 규모의 상금을 제공하며 주목 받았다. 누적 시청 횟수로는 총 1억7천500만 건을 달성했다.올해는 BMPS 시즌1을 포함해 4개의 프로 및 아마추어 대회를 개최한다. 올해 모든 대회의 총상금은 6천만 루피(약10억원)에 달한다.김창한 크래프톤 대표는 "인도는 크래프톤에게 중요한 시장이며, 인도 게임 산업에 큰 기대를 갖고 있는 만큼 더욱 강력한 시장으로 성장시키기 위해 적극 기여할 것"이라고 말했다. 이어 "크래프톤은 앞으로도 BGMI를 통해 인도 모바일 게임 경험을 한 단계 향상시키는데 노력할 것이며, 디지털 생태계의 발전을 위한 투자 기회도 꾸준히 물색할 것"이라고 말했다.한편 크래프톤은 지난해부터 인도를 비롯한 신흥시장의 플랫폼, e스포츠 및 게임 스트리밍 기업과 스타트업에 총 8차례 투자를 단행했으며, 현재까지 누적 총 투자 금액은 약 1천억원에 달한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>위메이드, ‘이카루스M’ 위믹스 플랫폼 온보딩</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 4:15</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>위메이드, 위믹스 플랫폼으로글로벌 P&amp;E 게임 시장 공략 
+위메이드가 밸로프의 ‘이카루스M’을 위믹스 플랫폼에 온보딩하는 계약을 체결했다고 1일 밝혔다. 위메이드 제공 [파이낸셜뉴스] 위메이드가 밸로프의 ‘이카루스M’을 위믹스 플랫폼에 온보딩하는 계약을 체결했다고 1일 밝혔다.   밸로프는 PC온라인·모바일 게임을 개발 및 퍼블리싱 하는 게임사다. 자체 플랫폼인 VFUN을 통해 20여 개 이상의 게임을 글로벌 시장에서 서비스하고 있다.   이번에 온보딩하는 ‘이카루스M’은 창공에서 펼쳐지는 대규모 전투와 다양한 종류의 펠로우 시스템이 핵심인 모바일 다중접속역할수행게임(MMORPG)이다.   iOS 및 AOS 두 가지 환경에서 모두 플레이할 수 있다. 국내를 포함 일본·북미·베트남을 비롯한 전 세계 유저들로부터 꾸준한 인기를 이어가고 있다.   한편 위메이드는 게임을 즐기며 재화를 얻는 ‘플레이 앤 언’(P&amp;E)의 패러다임 아래 여러 개발사와 협력 관계를 구축하고 있다. 올해 말까지 위믹스를 기축통화로 사용하는 게임을 100개 서비스하는 것이 목표다.   신재명 밸로프 대표는 “‘이카루스M’은 세계 각국에서 꾸준히 사랑받고 있는 글로벌 모바일 게임"이라며 ”위믹스 플랫폼을 통해 모바일 P&amp;E 게임 시장 공략을 본격화할 예정”이라고 전했다.   장현국 위메이드 대표는 "위메이드는 유틸리티 코인 위믹스와 100% 완전 담보 스테이블 코인 위믹스 달러를 기반으로 메인넷 위믹스3.0을 출시, 게임, 탈중앙자율조직(DAO)와 결합된 대체불가능한 토큰(NFT), 디파이(DeFi) 등 모든 것을 갖춘 플랫폼으로 확장시킬 것”이라고 전했다. #위메이드 #위믹스 #이카루스M</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>바람의나라: 연, 2주년 기념 방송에서 신규 업데이트 '환상의 섬' 공개</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 04:11</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>넥슨은 모바일 MMORPG '바람의나라: 연'의 2주년 기념 방송 '개발자의 서신'을 통해 올 여름 2주년 업데이트 계획을 발표했다. 방송은 '바람의나라: 연' 개발을 총괄하는 슈퍼캣 이태성 디렉터, 조승모 기획팀장이 출연한 가운데 공식 유튜브 채널에 공개됐다.먼저, 7월 14일 예정된 2주년 업데이트로 신규 지역 '환상의 섬'을 소개했다. '환상의 섬'은 원작 바람의나라를 기반으로 하며 가릉도, 고균도, 폭염도로 구성돼 원하는 장비 획득, 효율 좋은 사냥터 선택 등 플레이 목적에 따라 새로운 지역을 찾는 재미를 제공한다.또, '환상의 섬' 지역은 직업과 스펙에 최적화된 사냥터를 제공해 직업간 사냥 격차를 완화하며, 입장 레벨 제한 삭제, 그룹 구성원간 레벨 페널티 삭제, 몬스터/유저간 레벨 페널티 삭제 등을 통해 다 함께 사냥하는 환경을 조성한다.이 밖에 '착' 시스템을 도입해 '환상의 섬'에서 얻은 '요력(재화)'으로 각종 추가 옵션 획득이 가능하며 최상위 장비를 파밍할 수 있는 '환상의 섬 유적지'가 추가될 예정이다.하반기 최우선 과제로는 전투공식 개선, 장비지도 시스템 추가, 그룹 기억하기 시스템 추가, 오색장비 가방문제 개선, 거래소 편의성 개선 등을 언급했다.방송에서는 올 여름 두 번에 걸쳐 혜택을 제공하는 'T.S 쿠폰 더 레전드'도 소개했다. 이번 T.S 쿠폰은 보물 환수 합성을 통해 전설 환수 획득을 시도할 수 있도록 [보물] 진 자희산달 소환석(5개), [보물] 얼음꽃 눈깨비 소환석(5개), [2주년][희귀] 환수소환석(8개), [2주년] 환수소환석(456개), [T.S] 변신 환수쿠폰(1개), [T.S] 수호/탑승 환수쿠폰(1개) 등을 제공할 계획이다.넥슨은 2주년 업데이트에 앞서 7월 13일까지 사전등록 이벤트를 실시한다. 이 기간 사전등록 시 [기간제]백사도 +10', [기간제]몽연의갑옷 +10 등이 담긴 사전등록 장비 지원 상자, 그리고 강화안정제(10개), 강화촉진제(20개), 최상급 강화비급(20개) 등으로 구성된 사전등록 강화 지원상자를 제공한다.이태성 슈퍼캣 디렉터는 "수행자 분들에게 오랫동안 사랑받는 '바람의나라: 연'이 되고자 많은 개발자들이 노력하고 있다"면서 "이번 방송에서 공개한 콘텐츠와 앞으로 있을 신규 콘텐츠를 빠르게 선보여 더욱 재미있는 '바람의나라: 연'이 되도록 최선을 다하겠다"고 말했다.
+						기사제공 포모스
+최종봉 konako12@fomos.co.kr
+최종봉 기자
+구독
+최종봉 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종봉 기자입니다.
+3on3 프리스타일, 신규 캐릭터 '우마왕' 선봬
+대항해시대 오리진, 김영하 작가와 슈카월드 홍보 영상 공개
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>월드 플리퍼, '강철의 소악마 가희 디어' 등 한정 캐릭터 4종 등장</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 04:10</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>카카오게임즈는 모바일 액션RPG '월드 플리퍼'에 ★5 [강철의 소악마 가희 디어]를 포함한 한정 캐릭터 4종을 추가했다. 먼저, ★5 [강철의 소악마 가희 디어]는 이세계로 활약의 장을 넓힌 안드로이드 가희로, 노래의 힘으로 파티 전체에 공격력을 상승시킨다. 또, ★4 [고양이 귀와 꼬리의 수호자 파르체]는 미궁에서 유품을 회수하는 일을 하는 소녀로, 잔류사념을 둘러서 닿은 적에게 암속성 대미지를 입힌다.이 외에도 전방에 프로톤 입자포를 발사해 적에게 뇌속성 대미지를 입히는 ★4 [황혼시의 미소를 머금은 과학자 루나르], 과자를 나눠주며 참전자 전원의 체력을 회복시키는 ★3 [장난스러운 성직자 코리나’가 함께 등장한다.이와 함께 오는 8일까지강림토벌 너에게 보내는 진혼가 콘텐츠가 열렸다. 게이머는 기간 한정으로 출현하는 잭 오 랜턴을 토벌하고 얻을 수 있는 이벤트 재화를 활용해 기간 한정 장비 및 성장 재화를 받을 수 있다. 
+						기사제공 포모스
+최종배 jovia@fomos.co.kr
+최종배 기자
+구독
+최종배 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종배 기자입니다.
+모바일 RPG '판타지 삼국', 사전등록 시작
+'포켓몬 고', 피카츄 대량 발생 오프라인 이벤트 열려
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>넷마블, 브랜드스탁이 발표한 2022년 2분기 대한민국 100대 브랜드 선정</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 04:10</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>넷마블은 브랜드가치 평가 회사 브랜드스탁에서 발표한 2022년 2분기 대한민국 100대 브랜드에 선정됐다고 1일 밝혔다.대한민국 100대 브랜드는 특허 받은 브랜드 가치 평가 모델 BSTI를 기반으로 국내 230여 개 주요 산업 부문의 1000여 개 브랜드 중 가장 점수가 높은 상위 100개 브랜드를 선정한다.브랜드스탁 회원 17만 명이 참여한 이번 조사에서 넷마블은 BSTI 총 849.3점을 얻어 전 분기 대비 한 계단 상승한 46위를 기록했다. 브랜드주가지수는 608.3점(700점 만점), 소비자 조사지수는 241.0점(300점 만점)을 받았다.브랜드스탁은 '넷마블 프로야구 2022'에 이어 2분기에는 '제2의 나라(글로벌)'와 '머지 쿵야 아일랜드'를 시장에 순차적으로 선보이며 비교적 안정적인 운영을 펼쳐온 것이 넷마블 브랜드 가치 상승의 요인이라고 평가했다.넷마블 관계자는 "오는 28일 자체 IP 강화 전략의 최전선에 있는 기대작 '세븐나이츠 레볼루션'을 출시할 예정이고, 블록체인과 메타버스 등 신사업 부문에서도 선전을 기대하고 있다"며 "하반기에는 '모두의 마블:메타월드'와 '오버프라임' 등 신작으로 브랜드 가치 향상에 집중하겠다"고 밝혔다.한편, 이번 조사에서 넷마블 계열사인 코웨이도 전체 34위를 기록, 넷마블과 코웨이 양사가 나란히 톱50 자리를 지켰다.
+						기사제공 포모스
+최종배 jovia@fomos.co.kr
+최종배 기자
+구독
+최종배 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종배 기자입니다.
+모바일 RPG '판타지 삼국', 사전등록 시작
+'포켓몬 고', 피카츄 대량 발생 오프라인 이벤트 열려
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>'컴프야2022', 2022 KBO 올스타전 가상 베스트 라인업 선정</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 04:09</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>컴투스는 3년 만에 찾아온 2022 KBO 올스타전을 앞두고, '컴투스프로야구2022(이하 컴프야2022)' 공식 카페 유저들을 대상으로 베스트 라인업 설문조사를 지난 2주간 진행했다. 이번 설문조사 결과 드림과 나눔으로 구분된 올스타 팀 각 포지션별 총 24명의 가상 베스트 라인업이 선정됐다. 먼저, 컴프야2022 유저들은 SSG랜더스의 김광현을 이번 올스타전에 합류할 가장 유력한 후보로 점쳤다. 총 87%의 득표로 드림과 나눔 올스타를 통틀어 가장 높은 지지를 얻은 김광현은 KBO에서 진행 중인 드림 올스타 선발 투수 팬투표 부문에서도 1위를 기록하고 있다. 나눔 올스타의 선발 투수 예측에는 KIA 타이거즈의 양현종이 1위를 기록했다. 컴프야 유저들의 전망이 현실화될 경우 KBO리그를 대표하는 좌완 투수들의 선발 맞대결을 기대해 볼 수 있다.타자 부문에서는 롯데 자이언츠의 주전 2루수로 활약 중인 안치홍이 가장 높은 득표를 기록했으며, SSG랜더스의 최정과, KT 위즈의 박병호 등 베테랑급 선수들도 뒤이어 이름을 올리며 별들의 잔치 단골손님으로서 입지를 굳혔다.외야수 부문에서는 양 팀 모두에서 주전 후보들이 근소한 득표차를 기록하며 치열한 각축전이 벌어졌다. 삼성 라이온스의 호세 피렐라, SSG랜더스 한유섬, 삼성 라이온즈 구자욱이 드림팀의 외야수 자리를 차지하고, 나눔팀에는 컴프야2022의 모델로 활약 중인 이정후와 KIA타이거즈 소속 나성범, 소크라테스 브리토가 올스타전 무대에 설 것으로 전망했다. 이 밖에도 '컴프야2022' 유저들이 선정한 베스트 라인업에는 KIA 타이거즈와 SSG 랜더스의 강세가 이어졌다. 양현종, 정해영, 최형우, 황대인, 김선빈, 류지혁, 나성범, 소크라테스 브리토, 김광현, 서진용, 박성한, 최정, 한유섬 등 양 팀 통틀어 총 13명의 선수들이 주전 후보에 이름을 올리며 강팀으로서 면모를 과시했다.한편, 컴투스는 최근 KBO와 2022 KBO 올스타전의 공식 스폰서 계약을 체결하고, 메인 이벤트로 진행되는 홈런 레이스의 네이밍 권리를 획득했다. 컴투스프로야구 홈런레이스라는 공식 타이틀로 오는 15일 올스타전 중계 방송사를 통해 생중계될 예정이다.
+						기사제공 포모스
+최종배 jovia@fomos.co.kr
+최종배 기자
+구독
+최종배 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종배 기자입니다.
+모바일 RPG '판타지 삼국', 사전등록 시작
+'포켓몬 고', 피카츄 대량 발생 오프라인 이벤트 열려
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>"롤링 스톤스 60주년 기념 '레고 아트 롤링 스톤스' 출시"</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 04:01</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>레고그룹이 레고 아트 시리즈의 신제품 '레고 아트 롤링 스톤스'를 출시했다.이번 신제품은 영국의 전설적인 록 밴드 '롤링 스톤스'의 결성 60주년을 기념해 밴드의 상징적인 '혀와 입술' 로고를 총 1998개의 브릭으로 재현했다.'혀와 입술'은 1971년 발표된 롤링 스톤스의 대표작 '스티키 핑거스'에 공식 등장한 이후 50년이 넘도록 20세기 대중문화의 아이콘으로 각광받고 있는 로고다.이번 제품은 로고의 생동감을 재현하기 위해 레고 아트 시리즈 최초로 사각 프레임이 아닌 로고 형태에 맞춘 프레임이 적용됐다.기본 로고 외에 커스텀 디자인이 가능한 여분 브릭과 롤링 스톤스 서명 타일, 걸이용 부품까지 더욱 창의적인 조립과 전시를 위한 디테일도 모두 갖췄다.완성품 크기는 가로 47cm, 세로 57cm이며 가격은 19만9900원이다. 전국 온오프라인 레고 매장에서 구매할 수 있다.조립과 동시에 즐길 수 있는 특별 사운드 트랙도 제공한다. 조립 설명서에 인쇄된 QR 코드를 통해 접속하면 로고의 창시자이자 세계적인 그래픽 디자이너 존 파셰의 단독 인터뷰가 포함된 맞춤형 콘텐츠를 감상할 수 있다.피오렐라 그로브스 레고그룹 디자인 매니저는 "밴드의 로큰롤 열정이 그대로 전해질 수 있도록 세심하게 디자인했다"며 "기존의 1x1 원형 타일에서 벗어나 다양한 형태의 브릭을 활용해 로고 특유의 곡선미를 살렸다"고 말했다.
+						기사제공 포모스
+최종봉 konako12@fomos.co.kr
+최종봉 기자
+구독
+최종봉 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종봉 기자입니다.
+3on3 프리스타일, 신규 캐릭터 '우마왕' 선봬
+대항해시대 오리진, 김영하 작가와 슈카월드 홍보 영상 공개
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>웹젠, 모바일 MMRPG 'R2M' 대만 CBT 실시</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 03:58</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>웹젠이 대만에서 모바일 MMORPG 'R2M'의 비공개테스트(CBT)를 시작했다.'R2M'의 대만서비스 게임 명칭은 'R2M:重燃戰火(중연전화)'다. 이번 CBT 기간 중에는 안드로이드 운영체제만 제공하지만, 이후 정식서비스에서는 iOS 버전도 동시 제공할 계획이다.웹젠은 올해 하반기 내로 중국어(번체)를 사용하는 홍콩, 마카오 등의 중화권으로 서비스 지역도 더욱 넓힐 계획이다.이번 대만 CBT에서는 현지 이용자의 서버 안정성과 현지화 완성도를 점검하는 데 중점을 둔다. 테스트 참가자들로부터 얻은 의견을 바탕으로 이후 정식서비스까지 개발 완성도도 더욱 높인다.이외에도 대만서비스 접속자들을 위해 '대만 전용 반달곰 서번트'를 준비하는 등 현지화 작업에 많은 노력을 기울여 왔다.웹젠은 대만서비스의 CBT참가자와 사전 예약자들에게 게임 내 아이템과 뽑기권을 제공하는 등의 이벤트를 준비하고, 출시 전까지 대만 현지에서 마케팅을 펼칠 계획이다.
+						기사제공 포모스
+최종봉 konako12@fomos.co.kr
+최종봉 기자
+구독
+최종봉 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종봉 기자입니다.
+3on3 프리스타일, 신규 캐릭터 '우마왕' 선봬
+대항해시대 오리진, 김영하 작가와 슈카월드 홍보 영상 공개
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>라그나로크, 20주년 기념 '라그나로크 페스티벌' 페이지 오픈</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 03:58</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>그라비티가 온라인 PC 게임 '라그나로크 온라인'의 20주년 기념 '스무살의 라그나로크 페스티벌' 특별 홈페이지를 오픈했다.이번 특별 홈페이지에서는 31일 논현동에 위치한 SJ쿤스트할레에서 오후 3시부터 7시까지 진행 예정인 라그나로크 온라인 20주년 기념행사 '스무살의 라그나로크 페스티벌'의 일정, 사전 참가신청, 이벤트, 행사 프로그램 등을 공개했다.행사 당일 오후 3시부터 5시까지는 20주년 축하 나무, 레이진을 찾아라 등 사전 이벤트를 만날 수 있다. 또한 라운지 바, 포토존, 오락실, 인형 뽑기, 코스튬 캐리커처 등 유저들이 직접 체험할 수 있는 이벤트 부스를 마련할 예정이다.메인 프로그램은 오후 5시부터 7시까지 진행하며 라그나로크 IP를 활용한 비보잉 공연, 장학 퀴즈, K-POP 공연 등 무대 프로그램을 준비할 예정이다.이와 함께 그라비티는 20일까지 20주년 기념 특별 홈페이지에서 페스티벌 참가 신청을 진행한다. 신청자 이름과 연락처를 기입해 신청 가능하며 혼자 또는 동반 1인 참석을 선택할 수 있다.당첨자 발표는 25일 홈페이지에 공지 및 개별 안내되며 1차 당첨자 중 결원이 발생할 경우 7월 28일 2차 당첨자를 추가 발표한다. 참가자로 선정되면 '피씨 파워진 재발간 한정판', 타이틀별 5만 원 상당의 아이템 쿠폰, 20주년 기념 라그나로크 굿즈를 증정한다.
+						기사제공 포모스
+최종봉 konako12@fomos.co.kr
+최종봉 기자
+구독
+최종봉 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종봉 기자입니다.
+3on3 프리스타일, 신규 캐릭터 '우마왕' 선봬
+대항해시대 오리진, 김영하 작가와 슈카월드 홍보 영상 공개
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>[머니S포토] 문화체육관광부 장관 게임업계 소통 간담회</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 3:53</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>박보균 문화체육관광부 장관이 1일 서울 강남구 역삼동 한국게임산업협회에서 열린 게임업계 간담회에 참석, 발언하고 있다. 이날 간담회에는 박 장관을 비롯해 이정헌 넥슨 대표, 도기욱 넷마블 대표, 장현국 위메이드 대표 등이 참석, 선택적 근로시간제 및 P2E 규제, 중국 판호(중국 내 게임 서비스 허가) 문제 등 게임업계 현안을 논의했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>[머니S포토] 박보균 문체부 장관 '게임업계와 함께'</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 3:50</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>박보균 문화체육관광부 장관과 강신철 한국게임산업협회장이 1일 오후 서울 강남구 한국게임산업협회에서 열린 게임업계와의 간담회에서 참석자들과 기념촬영을 하고 있다. 이날 간담회에는 박 장관을 비롯해 이정헌 넥슨 대표, 도기욱 넷마블 대표, 장현국 위메이드 대표 등이 참석, 선택적 근로시간제 및 P2E 규제, 중국 판호(중국 내 게임 서비스 허가) 문제 등 게임업계 현안을 논의했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>[머니S포토] 게임업계 대표들 만난 박보균 장관</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 3:48</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>박보균 문화체육관광부 장관과 강신철 한국게임산업협회장이 1일 오후 서울 강남구 한국게임산업협회에서 열린 게임업계와의 간담회에서 참석자들과 기념촬영을 하고 있다. 이날 간담회에는 박 장관을 비롯해 이정헌 넥슨 대표, 도기욱 넷마블 대표, 장현국 위메이드 대표 등이 참석, 선택적 근로시간제 및 P2E 규제, 중국 판호(중국 내 게임 서비스 허가) 문제 등 게임업계 현안을 논의했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>'서머너즈 워: 백년전쟁', 협동전에 보스 미후왕 추가</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 03:48</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>컴투스는 실시간 전략대전 게임 '서머너즈 워: 백년전쟁(이하 백년전쟁)'의 협동전에 보스 몬스터 미후왕을 추가했다.협동전은 '백년전쟁'의 PVE 콘텐츠로, 2명의 유저가 함께 힘을 합쳐 게임상의 특정 보스를 공략하는 협동 대전 모드다. 다수의 보스가 주 단위로 번갈아 등장하며 실버 5등급 이상 소환사 누구나 자유롭게 보스 공략에 참여할 수 있다.이번에 선보이는 보스 미후왕은 서유기의 손오공을 형상화한 불 속성의 몬스터다. 동일한 불 속성 분신을 거느리며 화염을 연상시키는 붉은 갑옷과 여의봉을 장착했다. 주요 스킬은 공격력 강화 버프를 건 분신을 소환하고 적 선봉에 피해 확산을 거는 여의봉이다. 치명타를 증가시키고 적 전열을 공격하는 건곤일척, 적의 면역과 무적을 무효화하는 먹구름 소환 스킬도 사용한다. 행동 불가, 망각, 마나 코스트 증가, 침묵, 이로운 효과 불가에 면역되는 강화된 금고아 패시브도 적용돼, 공략을 위해서는 소환사들의 치밀한 전략이 요구된다.또, 이번 업데이트에서는 고대 룬의 강화 재료로 사용할 수 있는 강화석이 추가됐다. 고대 룬 강화석은 2, 4, 6번 슬롯의 고대 룬 강화에만 사용 가능하며 희귀, 영웅, 전설 등급으로 구분돼 등급이 높을수록 더 많은 강화 경험치를 제공한다. 이 밖에도 장착된 룬의 일괄 해제, 일괄 장착 기능 및 선택한 두 몬스터 간 장착 중인 룬을 교환할 수 있는 기능을 추가하는 등 유저 편의성 향상을 위한 시스템 업데이트가 이뤄졌다.
+						기사제공 포모스
+최종배 jovia@fomos.co.kr
+최종배 기자
+구독
+최종배 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종배 기자입니다.
+모바일 RPG '판타지 삼국', 사전등록 시작
+'포켓몬 고', 피카츄 대량 발생 오프라인 이벤트 열려
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>'에픽세븐', e스포츠 대회 프로모션 영상 공개</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 03:47</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>스마일게이트메가포트는 모바일 RPG '에픽세븐'의 e스포츠 대회 에픽세븐 월드 아레나 챔피언십 2022(이하 E7WC 2022) 프로모션 영상을 공개했다. 이번 영상은 지난 28일 공개된 YB밴드의 E7WC 2022 메인 테마곡 '인빈시블(INVINCIBLE)'을 배경 음악으로 활용해 게임 내 헤비메탈 밴드인 카오스교 밴드가 주인공으로 등장한다. 카오스교 밴드는 드럼의 카오스교 도끼 대장군, 베이스와 보컬을 담당하는 카오스교 도살부대원, 기타를 담당하는 전도사 카마인로즈로 구성되며 시작은 악한 신 카오스신을 숭배하는 악당들이었으나 특유의 저항 정신과 멤버간의 의리를 통해 자아를 찾아가는 영웅들이다.영상 속에서는 보컬인 윤도현의 목소리와 잘 어울리는 밴드 공연과 전투씬을 완성도 높은 애니메이션으로 만나볼 수 있다. 한편, E7WC 2022는 총상금 10만 달러(약 1억 3000만 원) 규모로 전세계 '에픽세븐' 유저 중 실시간 아레나 최강자를 가리는 글로벌 e스포츠 대회다.
+기사제공 포모스
+최종배 jovia@fomos.co.kr
+최종배 기자
+구독
+최종배 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종배 기자입니다.
+모바일 RPG '판타지 삼국', 사전등록 시작
+'포켓몬 고', 피카츄 대량 발생 오프라인 이벤트 열려
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>'브라운더스트' 용병 그룹 '퍼스트 뱅가드' 6인 추가</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 03:47</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>네오위즈는 서비스 중인 모바일 전략 RPG '브라운더스트'가 신규 용병 그룹 '퍼스트 뱅가드' 6인을 업데이트했다. 먼저 퍼스트 뱅가드 소속의 검사 '미누아'는 부모님에게 가문 특유의 검술을 물려받았으며 매우 뛰어난 재능을 가진 5성 마법형 용병이다. 미누아의 조력자 '미카렌'은 미누아의 친동생이다.5성 방어형 용병 '캉'은 예거 출신으로 엄청난 괴력을 자랑하는 전사이다. 실리온과의 비무에서 패한 후, 그를 동경해 스스로 퍼스트 뱅가드에 입단한다. 조력자 '리타'는 캉의 친누나이며 호탕한 성격의 전사다. '케이케'는 4성 마법형 용병으로 퍼스트 뱅가드의 과학자이다. 공감 능력이 크게 결여된 인물이다. 그의 조력자 '페스트리아'는 황혼 교단의 마을 폭파 실험에서 살아남은 생존자로, 저주받은 힘을 가지고 있는 마법사다. 이와 함께 용병의 특정 능력치를 더 강화시킬 수 있는 세트 효과 '외면'과 '리안 공화국' 2종도 새롭게 추가됐다. 용병 '미누아' '뮤즈' '케이케'가 함께 전투에 출전 시 공격력이 증가하며 '캉' '아이작' '유리아'의 경우 생명력이 높아진다. 보상을 제공하는 이벤트도 진행된다. 먼저, 오는 7월 14일까지 각성 수정 동굴에 들어가기 위해 필요한 비용이 다이아 10개에서 골드 1개로 할인되고 캠페인, 결투장, 월드아레나 등 콘텐츠에서 획득 가능한 '썸머 칵테일'을 사용해 슈타인 잉크, 레드 슬라임, 룬 조각 등 아이템을 획득할 수 있다.또, 신비의 섬 약탈 승리, 월드 아레나 참여 등 주어진 미션을 완료하고 빙고를 달성할 경우 전설 스킬 전수권, 5성 스킬북, 5성 조력자 선물 등 다양한 보상을 받을 수 있는 '썸머 빙고 이벤트'가 오는 7월 28일까지 진행된다.
+						기사제공 포모스
+강미화 redigo@fomos.co.kr
+강미화 기자
+구독
+강미화 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+확률형 아이템 자율규제 미준수 게임물 19종 공개
+'고양이와 스프', 새로운 고양이 '카우' 등장
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>'붕괴3rd', 5.8버전 별들의 그림 업데이트</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 03:46</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>호요버스는 액션RPG '붕괴3rd'에 5.8 버전 별들의 그림을 업데이트했다.이번 업데이트에서는 SP 캐릭터 그리세오 번성·세상을 그리는 별이 등장하며 메인 스토리 30장이 추가됐다.번성·세상을 그리는 별은 이능 속성 SP 근접 캐릭터로, 십자가를 무기로 사용하며 그림을 그리듯 물감을 뿌리며 공격하고 기사가 곁에서 함께 싸운다.특히 필살기 버튼을 눌러 적을 공격하면 물감 색깔을 교체하는 동시에 해당 색깔을 획득하고, 다양한 색깔로 공격에 성공하면 그에 맞는 버프 효과를 발동한다.이와 함께 신규 메인 스토리 30장 영웅들의 장례가 업데이트되면서 놀이공원 구역에 도착 후 보물 상자와 장치 등 새로운 콘텐츠를 탐사할 수 있다.탐사 과정에서 반짝이는 골드를 획득하면 상점에서 수정, 성흔 아포니아·죄의 심연(상), 번성·세상을 그리는 별 캐릭터 조각 등으로 교환 가능하다.아울러 기간 테마 이벤트 별을 그리는 여정이 열려 스토리 내 전투나 상점 모집 등으로 카드 동료 그림 카드를 모아 전투를 진행하고, 수정, 재료 선택 상자 및 월하초옹 코스튬 날이 밝기 전을 획득할 수 있다.
+						기사제공 포모스
+최종배 jovia@fomos.co.kr
+최종배 기자
+구독
+최종배 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종배 기자입니다.
+모바일 RPG '판타지 삼국', 사전등록 시작
+'포켓몬 고', 피카츄 대량 발생 오프라인 이벤트 열려
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>'마구마구2022' 모바일 2주년 기념 업데이트 실시</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 03:46</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>넷마블은 야구게임 '마구마구2022 모바일'에서 2주년 기념 업데이트를 실시했다.이번 업데이트에서는 유니폼 세트 완성 시 두 가지 스탯의 능력치를 최대 +3까지 강화할 수 있도록 유니폼 시스템을 개편했다. 또 단일 유니폼의 능력치 스탯을 최대 +2까지 올릴 수 있는 고급 유니폼도 새롭게 선보였다.이와 함께 플레이어가 보유한 장비를 한 눈에 확인할 수 있도록 장비도감 개선을 진행했으며 장비 세트별 도감을 완성할 경우 각각의 보상을 받는다. 넷마블은 업데이트를 기념해 오는 7월 28일까지 다양한 이벤트를 진행한다. 먼저 특정 미션 완료 시 팀 전력을 강화할 수 있도록 원하는 포지션의 타이틀 홀더 +5 강화 선수카드를 지급하고, 일일 미션을 완료할 경우 골든 글러브 선수 +10 강화 카드를 제공한다.또 4주 동안 출석만 해도 보석 3500개, 강화행운권(+5%) 2개, 2억 2222만 거니, 다이아 야구카드팩 2개 등을 증정하는 이벤트를 개최한다. 오는 7월 7일부터는 2차 이벤트를 통해 추가 혜택을 제공할 예정이다.
+						기사제공 포모스
+강미화 redigo@fomos.co.kr
+강미화 기자
+구독
+강미화 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+확률형 아이템 자율규제 미준수 게임물 19종 공개
+'고양이와 스프', 새로운 고양이 '카우' 등장
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>'엑소스 히어로즈', 시즌6 알파와 오메가 공개</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 03:46</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>라인게임즈는 모바일 RPG '엑소스 히어로즈'의 여섯 번째 정규 시즌 알파와 오메가를 공개하고, 업데이트를 진행했다.이번 시즌 알파와 오메가에서는 부활한 용제 아코르와 그를 대적하는 영웅들에 대한 이야기가 펼쳐진다. 신규 챕터 만회의 언약 스토리를 감상할 수 있으며 이번 업데이트부터 적용된 스토리 멀티 루트 시스템으로 플레이어의 선택에 따라 변하는 결말 또한 경험할 수 있다.이와 함께 테마 스페이드의 질서 첫 번째 페이트코어(캐릭터 능력 및 외형 변경 의상) 제머나이-미네아가 공개됐다. 이 페이트코어는 착용 시 자신을 피격한 적군의 명중률을 감소시키는 한편, 회피한 아군의 치명 저항력을 증가시키는 능력을 갖췄다. 스페이드의 질서 테마의 스토리를 확인할 수 있는 코어레이드도 오는 14일까지 진행된다. 이번 이벤트에서 얻는 쿠폰은 페이트코어 영웅 영입권과 국가 영입 티켓 등 상품으로 교환이 가능하다.이외에도 계정 레벨이 최대 80까지 증가했으며 시그니쳐 포스 및 영웅의 잠재력 개방 단계가 확장됐다. 영웅 밸런스 조정, 신규 아티팩트 추가, 편의성 개선 및 버그 수정 등도 이뤄졌다.
+						기사제공 포모스
+최종배 jovia@fomos.co.kr
+최종배 기자
+구독
+최종배 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종배 기자입니다.
+모바일 RPG '판타지 삼국', 사전등록 시작
+'포켓몬 고', 피카츄 대량 발생 오프라인 이벤트 열려
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>[머니S포토] 게임업계 만난 박보균 "세계 게임 시장 무한 경쟁 격전지"</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 3:45</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>박보균 문화체육관광부 장관이 1일 서울 강남구 역삼동 한국게임산업협회에서 열린 게임업계 간담회에 참석, 발언하고 있다. 이날 간담회에는 박 장관을 비롯해 이정헌 넥슨 대표, 도기욱 넷마블 대표, 장현국 위메이드 대표 등이 참석, 선택적 근로시간제 및 P2E 규제, 중국 판호(중국 내 게임 서비스 허가) 문제 등 게임업계 현안을 논의했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>스토브인디, 인디 게임 프로모션 '스토브 핫위크' 진행</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 03:45</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>스마일게이트스토브의 인디 게임 플랫폼 스토브인디가 매월 인디 게임을 보다 저렴하게 구입하고 혜택을 받을 수 있는 '스토브 핫위크' 프로모션을 선보인다.매월 1일부터 7일까지 일주일간 인기 인디 게임을 보다 저렴하게 제공하고 유저들의 참여로 만들어지는 이벤트를 운영한다는 계획이다.'스토브 핫위크'에는 핫 세일, 핫 딜, 핫 배틀 등 세 가지 코너에서 게임을 만나볼 수 있다. '핫 세일'은 인디 게임 할인 프로모션으로, 이번달에는 ALTF4, 노베나 디아볼로스, 트러블슈터, 레전드 오브 키퍼 등을 최대 80% 할인된 가격에 구입할 수 있다.'핫 딜'은 일일 타임세일 이벤트다. 매일 한정 수량 쿠폰을 공개, 인디 인기 게임을 하루에 1개씩 최대 80% 할인된 가격에 판매한다. 첫 '스토브 핫딜'에는 러브 딜리버리, 브란테경의 삶과 고난, ATOM RPG, 더스트 투 디 엔드 등 스토브인디 인기작이 올랐다.마지막으로 '핫 배틀'은 게임 2종이 판매 배틀을 벌이는 코너로 기간 내 더 많이 판매되거나 먼저 매진된 게임의 구매자들은 추가 천원 캐시백 리워드를 받을 수 있다. 7월의 '핫 배틀'에는 더위를 날릴 수 있는 공포 게임 '이카이'와 '닉토포비아'가 맞붙는다.스토브인디는 할인을 희망하는 게임이나 다시 진행을 원하는 이벤트/프로모션, 입점되길 원하는 게임 등의 의견을 댓글로 게시하는 이벤트도 진행한다. 
+						기사제공 포모스
+최종봉 konako12@fomos.co.kr
+최종봉 기자
+구독
+최종봉 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종봉 기자입니다.
+3on3 프리스타일, 신규 캐릭터 '우마왕' 선봬
+대항해시대 오리진, 김영하 작가와 슈카월드 홍보 영상 공개
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>반다이남코엔터테인먼트, ILCA와 협력해 '반다이남코에이시즈' 설립</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 03:44</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>반다이남코엔터테인먼트와 ILCA는 가정용 게임, 네트워크 콘텐츠, PC 콘텐츠 등의 개발 운영하는 새 회사 반다이남코에이시즈를 설립했다.반다이남코에이시즈는 전 세계 팬들의 기대를 뛰어넘을 게임을 만드는 한편 포토리얼한 표현을 추구하는 게임 개발력을 강화하기 위해 설립됐다. 특히, 반다이남코엔터테인먼트와 ILCA 양사의 강점 노하우를 살리면서 '에이스 컴뱃' 시리즈를 비롯해 전 세계의 팬들이 오랫동안 깊이 즐길 수 있는 양질의 콘텐츠를 만들어 갈 계획이다.
+						기사제공 포모스
+최종봉 konako12@fomos.co.kr
+최종봉 기자
+구독
+최종봉 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종봉 기자입니다.
+3on3 프리스타일, 신규 캐릭터 '우마왕' 선봬
+대항해시대 오리진, 김영하 작가와 슈카월드 홍보 영상 공개
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>[머니S포토] 게임업계 간담회서 발언하는 박보균 문체부 장관</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 3:42</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>박보균 문화체육관광부 장관이 1일 서울 강남구 역삼동 한국게임산업협회에서 열린 게임업계 간담회에 참석, 발언하고 있다. 이날 간담회에는 박 장관을 비롯해 이정헌 넥슨 대표, 도기욱 넷마블 대표, 장현국 위메이드 대표 등이 참석, 선택적 근로시간제 및 P2E 규제, 중국 판호(중국 내 게임 서비스 허가) 문제 등 게임업계 현안을 논의했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>[토픽]해외게임통신 372호, "나만의 괴수 육성...'울트라 카이쥬 몬스터 팜' 발표"</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 03:42</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>한 주간의 해외 게임 소식을 전달하는 [토픽]입니다. 이번 주는 나만의 괴수를 육성하는 독특한 게임 소식부터 무료화로 좋은 반응을 얻고 있는 '폴가이즈' 소식 등을 모아봤습니다.1. 괴수 육성 게임 '울트라 카이쥬 몬스터 팜' 공개발탄 성인, 고모라 등 '울트라맨' 속 괴수를 육성하는 시뮬레이션 게임 '울트라 카이쥬 몬스터 팜'이 공개됐습니다.각종 괴수를 육성해 대회에 나가 다른 괴수들과 대전을 펼칠 수도 있는데요. 육성을 통해 새로운 기술을 익히는 한편 괴수끼리 합성해 새로운 괴수를 만드는 것도 가능합니다.아울러 교통카드 같은 IC 카드의 정보를 NFC로 읽어 들여 새로운 괴수를 불러올 수 있습니다.'울트라 카이쥬 몬스터 팜'은 오는 2022년 닌텐도 스위치로 출시됩니다.2. '짱구는 못말려! 나와 박사의 여름 방학' PS4로 출시닌텐도 스위치로 출시됐던 '짱구는 못말려! 나와 박사의 여름 방학'이 PS4로 오는 8월 출시됩니다.이 게임은 짱구 가족이 여름 방학 동안 향수를 자극하는 시골 마을로 내려가면서 벌어지는 이야기를 담았는데요.곤충을 채집하고 일기를 쓰는 등 여름 방학 동안 마주하게 되는 잔잔한 일상을 감성적으로 표현했다는 평가를 받았습니다.3. 유비소프트 게임스컴 2022 참가유비소프트가 오는 8월 24일부터 진행되는 독일 최대 규모 게임쇼 '게임스컴 2022'에 참가한다고 밝혔습니다.세계 3대 게임쇼로 알려진 '게임스컴 2022'는 지난해와 달리 오프라인과 온라인 동시 개최됩니다.유비소프트는 게임스컴 2022 기간 자사의 신작 및 서비스 게임의 주요 업데이트 소식을 공개할 것으로 보입니다.한편, 소니와 닌텐도는 '게임스컴 2022'의 불참을 알렸습니다.4. '록맨 에그제 컬렉션' 발표캡콤이 게임보이 어드밴스로 출시됐던 '록맨 에그제'의 메인 넘버링 시리즈를 총망라한 '록맨 에그제 컬렉션'을 PS4, 닌텐도 스위치, PC로 오는 2023년 출시합니다.이 게임은 액션 게임 '록맨'을 새롭게 해석하며 인기를 얻은 시리즈인데요. 액션이 중심이었던 '록맨' 시리즈와 달리 캐주얼한 RPG로 제작된 것이 특징입니다.이번 컬렉션에는 원작에 없던 고화질 필터 기능과 함께 아트와 BGM을 감상할 수 있는 기능도 추가됐습니다.'록맨 에그제 컬렉션'은 영어와 일어를 지원하며 한글은 지원하지 않습니다.5. 폴가이즈, 무료 전환과 함께 2000만 유저 달성에픽게임즈의 '폴가이즈'가 무료화 전환과 함께 이틀 만에 2000만 유저를 달성했습니다.PC, PS4, 엑스박스 원, 닌텐도 스위치로 출시된 '폴가이즈'는 다수의 인원이 장애물을 피해 살아남으며 최후의 1인을 가리는 배틀로얄 방식의 게임인데요.기존 배틀로얄 장르의 게임과 달리 캐주얼한 게임성과 장애물을 피하는 재미로 입소문을 타며 화제를 모은 바 있습니다.이번 무료화 전환으로 더욱 많은 유저가 '폴가이즈'의 경기에 뛰어들었습니다.에픽게임즈는 '어쌔신 크리드'의 에지오, 메카 고질라, 어몽 어스 등 코스튬과 감정 표현을 얻을 수 있는 시즌 패스를 공개했습니다.6. '메가 드라이브 미니 2' 수록 타이틀 발표세가가 미니 게임기 '메가 드라이브 미니 2'를 오는 10월 27일 10978엔(약 10만원)에 출시합니다.수록 타이틀은 '애프터버너 2' '신비한 바다의 나디아' '아웃런' '닌자 워리어즈' 등 약 50가지이며 메가 CD로 출시됐던 '샤이닝 포스 CD'와 '소닉 더 헤지혹 CD'도 포함됐습니다.세가는 '메가 드라이브 미니 2'와 함께 비행 게임에 최적화된 컨트롤러 '사이버 스틱'도 19800엔(약 19만원)에 출시하는데요. '애프터 버너 2' 등의 게임을 즐길 때 사용할 수 있습니다.7. 원피스 데이 통해 '원피스' 게임 정보 공개일본의 인기 만화 '원피스'의 애니메이션, 극장판, 게임, 굿즈 소식 등을 전하는 '원피스 데이'가 오는 22일부터 23일까지 온라인 생중계로 진행됩니다.이날 행사에는 '원피스' 게임에 관한 신규 정보도 공개될 예정인데요.현재 반다이남코에서 '원피스' 출간 25주년 기념으로 제작 중인 RPG '원피스 오디세이'에 관한 정보가 등장할 가능성이 높습니다.한편, '원피스 데이'는 유튜브 채널에서 감상할 수 있습니다.
+						기사제공 포모스
+최종봉 konako12@fomos.co.kr
+최종봉 기자
+구독
+최종봉 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종봉 기자입니다.
+3on3 프리스타일, 신규 캐릭터 '우마왕' 선봬
+대항해시대 오리진, 김영하 작가와 슈카월드 홍보 영상 공개
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>[머니S포토] 박보균 문체부 장관 발언 경청하는 이정헌 넥슨코리아 대표이사</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 3:40</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>이정헌 넥슨코리아 대표이사가 1일 오후 서울 강남구 한국게임산업협회에서 열린 '문화체육관광부 장관-게임업계 소통 간담회'에서 박보균 문체부 장관의 모두발언을 경청하고 있다.이날 간담회에는 박 장관을 비롯해 이정헌 넥슨 대표, 도기욱 넷마블 대표, 장현국 위메이드 대표 등이 참석, 선택적 근로시간제 및 P2E 규제, 중국 판호(중국 내 게임 서비스 허가) 문제 등 게임업계 현안을 논의했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>[한주의 게임소식] 리니지의 아성을 넘보는 우마무스메</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 3:37</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>카카오게임즈에서 출시한 신작 '우마무스메 프리티더비'(이하 '우마무스메')의 질주가 이어지고 있다.지난 20일 한국 시장에 상륙한 '우마무스메'는 출시 직후 앱스토어(iOS) 인기 &amp; 매출 1위를 달성한 것에 이어 출시 6일 만에 구글플레이 매출 2위에 올라서는 기염을 토했다.특히, 국내 모바일 게임 시장에서 막강한 영향력을 지닌 리니지 IP(지식 재산권) 작품들을 제치고 매출 상위권에 올랐다는 점에서 큰 이슈로 떠올랐으며, 현재는 매출 3위로 내려갔지만, 캐릭터 및 신규 콘텐츠 업데이트가 예고된 7월 여름 방학 시즌에 다시 매출 최상위를 차지할 수 있을지 관심이 집중되고 있다.
+우마무스메‘우마무스메’와 함께 지난주 일제히 출격한 게임들의 성과도 주목할 만한 부분이다. 지난 23일 출시된 위메이드의 '미르M: 뱅가드 앤 배가본드(이하 미르M)'은 출시 후 꾸준히 매출이 상승해 구글플레이 매출 4위까지 올랐으며, 레벨 인피니트에서 출시한 ‘천애명월도M’ 역시 낮은 과금 요소에도 불구 상위권에 안착한 모습이다.PC방 상황을 살펴보면 여름 업데이트 경쟁 서막을 알리듯 PC방 순위권에 오른 게임들 상당수의 사용량이 증가했고, 이중 신규 업데이트를 진행한 ‘발로란트’의 사용 시간이 크게 늘었다.해외 모바일 시장은 기존 인기작들의 자리 바꾸기가 심화되어 순위가 크게 변동되었고, 일본의 경우 엔씨소프트의 ‘리니지W’가 앱스토어 매출 14위에 다시 오르는 등 상승세를 타는 중이다.
+6월 4주 PC방 순위(자료 출처-게임트릭스)[PC 온라인 게임 소식] 사용량 증가세 뚜렷한 PC방 시장과 하락 중인 디아블로’s게임트릭스에서 공개한 '6월 4주 PC방 순위'를 살펴보면, 전반적인 사용량 증가세가 눈에 띈다. 여름 시즌 업데이트 및 이벤트가 본격적으로 시작된 게임 상당수의 사용량이 10% 가까이 증가한 모습. 이중 가장 높은 상승률을 기록한 게임은 라이엇 게임즈의 ‘발로란트’였다.지난 6월 22일 ‘에피소드 5’ 업데이트에 돌입한 발로란트는 5.0 패치를 통해 신규 맵 ‘펄’이 추가됐고, ‘초월자 랭크’, 신규 스킨 시리즈 ‘혼돈의 서막’을 포함한 다양한 이벤트에 힘입어 전주 대비 사용량이 14% 상승했고, 순위 역시 크게 올라 9위를 달성했다.이와 함께 ‘사이퍼즈’, ‘카트라이더’, ‘피파온라인4’, ‘메이플스토리’ 등 넥슨의 온라인 게임이 일제히 사용량이 증가하며, 여름 시즌의 제왕으로 불리는 자신들의 명성을 또다시 보여주는 모습이다.이에 비해 PC방 순위권에 오른 ‘디아블로 이모탈’과 ‘디아블로2: 레저렉션’의 경우 사용량 하락세가 여전히 이어지고 있으며, 이중 ‘디아블로 이모탈’은 무려 20% 이상 감소해 20위를 간신히 유지하고 있다.
+구글플레이 매출 순위(자료 출처-구글플레이)[국내 모바일 게임 소식] 선두 ‘리니지’를 바짝 쫓는 ‘우마무스메’국내 모바일 게임 시장은 대형 신작들의 등장으로 순위권에 상당한 변동이 일어났다. 먼저 출시 첫날 iOS를 평정한 카카오게임즈의 신작 ‘우마무스메’는 다음날 구글플레이 매출 28위로 시작해, 이틀 만에 7위, 3일 만에 5위에 올랐고, 결국 출시 6일 만에 매출 2위에 올라서는 기염을 토했다.특히, 캐릭터 수집형 장르를 표방한 작품임에도, ‘리니지W’, ‘오딘’ 등 한국 시장에서 강세였던 모바일 MMORPG 장르의 대표작들을 꺾고 2위를 기록했다는 점에서 큰 파장을 일으키기도 했다.현재 업데이트를 앞둔 ‘우마무스메’는 매출이 3위로 내려갔지만, 7월 업데이트 이후 매출 최상위권에 도전할 것이라는 전망이 지배적이다. 만약 ‘우마무스메’가 구글플레이 매출 1위를 달성하면 ‘던전앤파이터 모바일’(이하 ‘던파 모바일’) 이후 두 번째로 리니지 IP를 꺾고 1위를 달성한 작품으로 기록에 남게 된다.‘미르M’의 기세도 만만치 않다. 지난주 정식 서비스에 돌입한 ‘미르M’은 꾸준히 매출이 증가해 구글플레이 매출 TOP 10에 올랐고, 현재 4위를 기록하며, 무서운 기세를 보여주고 있다. 이러한 신작들의 등장으로 기존 상위권 작품들의 매출 순위가 한 단계 낮아졌으며, 이중 ‘리니지W’는 정식 서비스 후 처음으로 5위로 하락하는 등 다소 주춤한 모습이다.[해외 모바일 게임 소식] 업데이트 전쟁 진행 중인 해외 시장해외 모바일 게임 시장의 경우 본격적인 여름 업데이트 경쟁이 펼쳐지는 중이다.
+일본 앱스토어 순위(자료 출처-data.ai)먼저 일본 시장을 살펴보면 시즌 중반에 접어든 프로야구의 인기를 반영하듯 코나미의 ‘프로야구 스피릿츠A’(プロ野球スピリッツＡ)가 iOS 매출 1위를 다시 탈환했고, 신규 업데이트를 진행한 미호요의 ‘원신’, 넷이즈의 ‘나이브스 아웃’이 그 뒤를 잇고 있다.아울러 라인의 ‘디즈니 쯔무쯔무’(LINE：ディズニー ツムツム)의 경우 일본에서 인기가 높은 디즈니 영화 ‘버즈 라이트 이어’ 콜라보를 바탕으로 매출 상위권에 다시 올랐고, 세가의 ‘프로젝트 세카이’(プロジェクトセカイ カラフルステージ) 역시 ‘랭크 매치’ 이벤트에 힘입어 매출이 크게 증가했다.‘리니지W’는 국내에서는 매출이 하락했지만, 일본에서 다시 상승세를 탄 모습이다. 오는 7월 6일 일본의 인기 만화 ‘베르세르크’와 콜라보를 예고한 ‘리니지W’는 이를 기념한 다양한 이벤트와 함께 오만의 탑 업데이트를 예고하며, 매출이 크게 증가해 iOS 14위에 오른 상황이다.
+중국 앱스토어 순위(자료 출처-data.ai)중국의 경우 매출 상위권이 크게 요동쳤다. 즈롱게임즈의 ‘삼국지 전략판’은 신규 시즌을 예고하며, 중국 iOS 매출 3위에 올랐고, 지난 3월 출시된 텐센트의 전략 게임 ‘중반제국’(重返帝国) 역시 업데이트에 힘입어 매출 10위권에 재진입했다. 또한, 즈롱게임즈의 ‘용지국위유’(龙之国物语), 텐센트의 ‘해리포터: 마법의 각성’(哈利波特：魔法觉醒)도 다시 상위권에 이름을 올렸다.
+미국 앱스토어 순위(자료 출처-data.ai)미국의 경우 지난주 강세를 보인 배틀로얄 게임들의 매출이 하락하고, 킹의 ‘캔디크러시사가’, 슈퍼샐의 ‘클래시 오브 클랜’ 등 기존 인기 게임이 다시 상위권에 이름을 올린 모습이다.동아닷컴 게임전문 조영준 기자 june@gamedoga.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>'디지털 전환' 넘어 '메타버스 전환' 빨라진다 [메타버스24]</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 3:36</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1일 엘리펙스 써밋 2022 개최…메타버스 트렌드 강연 열려 IT 및 산업계를 휩쓸고 있는 '메타버스 트렌드'에 대한 기업의 고민도 깊어지고 있다. 메타버스 플랫폼 기업 올림플래닛이 주최해 1일 강남구 호텔에서 열린 '엘리펙스 써밋 2022'에서는 연사들이 메타버스에 관한 다양한 관점을 공유했다.
+엘리펙스 써밋 2022에서 강연하고 있는 김상균 교수. [사진=박예진 기자]◆물리적이든 디지털이든 상관없이 '시간'을 중심으로 소비이날 첫 강연에 나선 김상균 경희대 경영대학원 교수는 이미 메타버스는 실제 세상을 상당 부분 닮았다고 설명하면서, 디지털 현실이 자연스럽게 자리 잡으면 메타버스에서도 '시간'이 중요한 축이 될 수 있다고 말했다.땅을 기반으로 한 공간 사업, 자원 채취와 거래 플랫폼, 자원 시세판과 토지 대장뿐 아니라 철도 시공을 위한 투자 조달 등 이미 경제적인 상호작용은 실제 공간과 유사하게 이뤄지고 있다는 것이다. 라디오 방송국, 공연장 등 문화예술 서비스도 마찬가지다.장기적으로는 메타버스 내에도 '삶의 기반'이 형성되는 만큼 '정치'도 중요한 축으로 대두할 것이라고도 말했다. 의사 결정 구조가 정교화되면서 결국 '세력'이 등장할 수도 있다는 설명이다.김 교수는 물리적 공간이든 디지털 공간이든, 결국 시간을 통해 소비한다는 공통점이 있다고 설명했다. 그는 "최근 메타버스 기반 협업 플랫폼을 보면 시간 단위로 메타버스 공간을 매우 세분화하고 있다"면서 "초반과 달리 디지털 현실과 물리적 공간에서 시간에 대한 관점이 매우 중요하게 등장하는 것을 볼 수 있다"고 말했다.◆'아바 행성'에서 메타버스 백화점부터 부동산까지최용호 갤럭시코퍼레이션 대표는 "'스토리 텔링'이 아니라 '스토리 리딩(leading)'의 시대가 온다"고 언급했다. 과거 탑-다운 형식의 스토리텔링이 화두였다면, 이제는 가상세계에서 이용자와 접촉해 새로운 삶을 사는 세계관을 주도적으로 구축해가는 것이 진정한 메타버스의 방향이라는 얘기다.이날 최 대표가 메타버스의 핵심으로 제시한 것은 '아바타'다. 최 대표는 "진정한 메타버스는 가상과 현실이 함께 있어야 공존한다"고 말했다. 그에 따르면 메타버스는 가상개념과 실제 현실이 혼합되는 곳으로, 가상세계만 있는 게임과는 구분된다. 이러한 실제 현실과 가상의 만남을 가능하게 해 주는 매개체가 아바타라는 것이다.메타버스 플랫폼 간 '포털화'의 핵심도 아바타다. 최 대표는 현재는 로블록스와 싸이월드, 이프랜드 등의 각 메타버스 플랫폼이 '각개 전투'를 벌이고 있으나 많은 시간이 흐른 뒤 언젠가는 수백 개 플랫폼의 호환, 즉 '포털화'가 이뤄질 것이라고 내다봤다.그는 "현실에서는 네이버 카카오 등 플랫폼이 다 경쟁상대지만 메타버스는 무한한 곳이기 때문에 모두 동료가 될 수 있다"면서 "여기서 우선 가상의 아바타는 메타버스 플랫폼을 연계를 이루는 시작점이 될 것"이라고 말했다.메타버스 아바타 기업 갤럭시코퍼레이션은 오는 9월 메타버스 음악 프로그램 '아바 드림'을 계획하고 있다. 그는 '아바'라는 행성 개념으로 가상 세계관을 설명하며, 꿈과 자아를 구분시켜 보이지 않는 꿈을 아바타 세상인 아바에 올린다는 구상을 설명했다. 몸은 현실세계인 지구에 살고 있지만, '아바'라는 행성에서 이루지 못했던 꿈을 아바타를 통해 구현할 수 있다는 얘기다.이어 그는 커머스 관점에선 오는 10월 '메타버스 백화점'을 짓고, 핀테크 관점에서는 내년 하반기를 목표로 '메타버스 부동산'까지 구축하겠다는 계획을 제시했다. 메타버스 부동산은 팬덤을 중심으로 형성된 가상 생태계에서 가상자산이 결합되는 세상이라고 설명했다.◆엔데믹 시대, '디지털 트랜스포메이션'에서 '메타버스 트랜스포메이션'으로안호준 올림플래닛 부사장은 현재 많은 브랜드가 현재 메타버스 트랜스포메이션(전환)으로 발전하는 단계에 있다고 말했다.기존 현실 점포의 디지털 서비스를 고도화하는 것이 디지털 트랜스포메이션이라면, 메타버스 트랜스포메이션은 '가상 공간을 통해서 오프라인의 활동을 구현하는, 온라인과 오프라인이 공존하는 새로운 경험의 혁신'이라고 정의할 수 있다.안 부사장은 온오프라인의 기능이 크게 구분되지 않는 메타버스 생태계에서는 현실과 연계된 서비스가 필요하며, 다양한 기술을 수렴하는 오픈 생태계가 중요하다고도 덧붙였다.그는 기업들과의 미팅 경험을 공유하며 메타버스에 대한 수요가 증가하고 있다고 강조했다. 그는 "많은 기업이 그들만의 독립된 세계관을 구축해 브랜드 영상, 이미지 등 콘텐츠를 소비자에게 효율적으로 전달할 수 있는 새로운 공간과 채널을 필요로 한다는 점을 확인했다"면서 "메타버스가 이 공간에서 다양한 서비스와 연계되는 역할을 할 수 있다"고 말했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>가디언테일즈, 신규 콘텐츠 '원정대'와 '농장' 추가</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 03:27</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>카카오게임즈는 미국 개발사 콩 스튜디오이 개발한 모바일 RPG '가디언 테일즈'에 신규 콘텐츠 '원정대'와 '농장'을 업데이트했다고 밝혔다.'원정대'는 월드 내에 퍼져 있는 미지의 세력들을 물리치는 신규 콘텐츠다. 각 세력은 고유의 스토리를 가지고 있으며 이용자는 실시간으로 파티를 변경해 싸우는 '파티 스위칭' 시스템을 활용해 강력한 적들을 쓰러뜨리며 전략적인 전투를 즐길 수 있다.'농장'은 이용자가 직접 목재와 석재 등의 재료를 획득하고 다양한 건물과 꾸미기 오브젝트를 제작해 나만의 농장을 만들어 가는 콘텐츠다. '원정대' 콘텐츠와 유기적으로 즐길 수 있는 콘텐츠로, 유저는 '원정대'에서 획득한 씨앗을 '농장'에 심고, 작물을 수확해 '유물'의 능력치에 부여할 수 있다.이와 함께, 카카오게임즈는 7월 14일까지 코인을 소모하여 다양한 보상을 획득할 수 있는 이벤트를 진행한다. 이용자는 이벤트 기간 동안 미션을 클리어하고 받은 코인을 활용해 캡슐을 열어 아이템을 획득할 수 있고, 빈 캡슐을 모아 다양한 아이템으로 교환 가능하다.  아울러, 7월 14일까지 '오그마' '아라벨' '클로드' 등 다양한 영웅을 만나볼 수 있는 '영웅 픽업 이벤트'를 실시하고, '진화석 던전'에서 획득할 수 있는 보상을 추가로 획득할 수 있는 '진화석 부스트'를 추가했다. 
+						기사제공 포모스
+강미화 redigo@fomos.co.kr
+강미화 기자
+구독
+강미화 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+확률형 아이템 자율규제 미준수 게임물 19종 공개
+'고양이와 스프', 새로운 고양이 '카우' 등장
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>위메이드, '미르M' 구글 플레이 인기 순위 1위 올라</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 03:27</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>위메이드가 지난 6월 23일 출시한 MMORPG '미르M: 뱅가드 앤 배가본드(이하 미르M)'가 구글 플레이 인기 순위 1위를 기록했다.'미르M'은 인기 순위가 반등하는 모습을 보였다. 론칭 다음날 3위를 기록한 데 이어 6위와 7위를 오가다가 1위에 오른 것. 인기 순위에 다운로드 수가 주축인 만큼, '미르M'에 입소문이 나면서 합류하는 이용자가 늘어나 인기 순위가 반등한 것으로 분석된다.  구글플레이 매출 순위에서도 4위를 기록하는 등 좋은 성과를 거두고 있다.'미르M'은 위메이드 미르 IP의 두 번째 정식 계승작으로, 8방향 그리드 전투와 쿼터뷰를 통해 전략과 전술의 중요도를 대폭 강화했으며 위메이드가 쌓아온 게임 서비스 노하우와 언리얼 엔진 등 최신 기술을 담았다. 독특한 성장 시스템 '만다라', 전략과 전술의 시작 '그리드 전장', 전투력 그 이상의 성장을 이룰 기술 전문가 '장인', 경제와 권력의 정점에 오르기 위한 '비곡 점령전'과 '수라대전' '공성전' 등이 특징이다. 
+기사제공 포모스
+강미화 redigo@fomos.co.kr
+강미화 기자
+구독
+강미화 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+확률형 아이템 자율규제 미준수 게임물 19종 공개
+'고양이와 스프', 새로운 고양이 '카우' 등장
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>검은사막, 오프라인 유저 행사 '보이스 오브 어드밴처러스' 16일 개최</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 03:26</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>펄어비스가 검은사막 이용자 행사 '보이스 오브 어드벤처러스 서울(이하 VOA 서울)'을 16일 개최한다.'VOA'는 펄어비스가 전 세계 이용자들을 직접 찾아가 만나는 이용자 중심 행사다. 전 세계에 검은사막을 직접 서비스하고 있는 펄어비스가 세계 각국의 이용자들을 만나고 현지 이용자들의 목소리를 듣기 위해 마련했다.한국에 앞서 올해 미국과 일본 이용자를 만나는 'VOA'를 진행했다. 특히 북미 이용자와는 1펍에서 검은사막 운영진이 함께 행사를 즐겼다.'VOA 서울'은 코로나 팬데믹으로 인해 19년 12월 '칼페온 연회' 이후 한국에서 처음으로 열리는 오프라인 이벤트다. 16일 오후 6시 서울 웨이브 아트센터에서 열린다.참가를 원하는 이용자는 검은사막 공식 홈페이지를 통해 7월 3일까지 접수 가능하다. 검은사막 PC와 콘솔 계정을 보유한 이용자 모두 참여할 수 있으며 총 100명을 선정할 계획이다.'VOA 서울'은 검은사막 이용자 소통 행사, 만찬 등 다양한 프로그램들로 준비했다. 북미, 일본, 한국에 이어 앞으로 전 세계 이용자들을 찾아가는 'VOA' 행사를 계속해서 진행할 계획이다.검은사막은 여름에 열리는 '하이델 연회'와 연말에 열리는 '칼페온 연회' 두 차례 대규모 연회를 매년 개최하고 있다. 2019년 5월 국내 직접 서비스 시작을 기념해 진행한 '하이델 연회' 이후 행사를 개최해오고 있다.코로나 팬데믹 이후 온라인으로 행사를 전환해 전 세계 이용자들이 함께 즐기는 행사로 진행했다. 'VOA 서울' 행사 이후 9월 중 검은사막 글로벌 이용자를 위한 '하이델 연회'를 추가 개최 예정이다.두 차례 열리는 연회 외에도 이용자들을 직접 초청해서 만나는 행사 '밋앤그릿'을 운영 중이며 검은사막 공식 유튜브를 통해 이용자들을 만나는 '검팡맨', 심야 시간에 이용자들과 온라인을 통해 실시간으로 목소리를 듣고 소통하는 '심야토크' 등을 지속하고 있다.
+						기사제공 포모스
+최종봉 konako12@fomos.co.kr
+최종봉 기자
+구독
+최종봉 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종봉 기자입니다.
+3on3 프리스타일, 신규 캐릭터 '우마왕' 선봬
+대항해시대 오리진, 김영하 작가와 슈카월드 홍보 영상 공개
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>천애명월도M, "카카오와 컬래버...춘식이와 라이언 등장"</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 03:26</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>레벨인피니트는 모바일 MMORPG '천애명월도M'에서 카카오프렌즈와 컬래버레이션 이벤트를 진행한다.'천애명월도M'은 '고룡' 작가의 원작 무협소설 '천애명월도'의 세계관을 계승한 모바일 MMORPG로, 지난 24일 정식 출시 후 고품질의 그래픽과 콘텐츠를 앞세워 인기를 얻고 있다.이번 카카오프렌즈 컬래버레이션 이벤트는 30일까지 진행되며, 인게임 메인 화면에서 '라이언' 축제 아이콘을 통해 이벤트 페이지에 입장할 수 있다.이벤트 페이지를 통해 출석 이벤트와 새로운 친구 및 매일 제공되는 다양한 퀘스트 등을 완료하면 인게임 성장 재료를 획득할 수 있으며 교환 상점에서 아이템으로 변경 가능하다.출석 이벤트에서는 한정 허리 장식(작은 목마), 아이콘 장식(어흥), 프레임 장식(어흥이 축복), 채팅창 장식(어흥이 축복), 발자국 장식(고양이 발자국 30일제)을 받을 수 있다.새로운 친구는 라이언, 어피치, 튜브, 무지, 네오, 프로도, 제이지, 춘식이 등 인기 캐릭터가 대거 등장하는 퀘스트로, NPC를 통해 캐릭터를 소개받으면 미션을 클리어할 수 있다.특정 기간 동안 인게임 스크린 샷을 공식 라운지에 공유하는 유저들에게 선물이 제공될 예정이다.오는 12일까지 개인이나 친구, 연인 등과 함께 게임 내에서 폭죽을 터트리는 모습을, 14일까지 '죽마 미니게임' 참여 후 공식 라운지에 인증 게시글을 남기는 모든 유저들에게 100 귀속 캐시 및 5만 은전 등을 제공하며, 추첨을 통해 헤드셋, 구글 기프티콘 등을 추가로 선물한다.
+						기사제공 포모스
+최종봉 konako12@fomos.co.kr
+최종봉 기자
+구독
+최종봉 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종봉 기자입니다.
+3on3 프리스타일, 신규 캐릭터 '우마왕' 선봬
+대항해시대 오리진, 김영하 작가와 슈카월드 홍보 영상 공개
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>中판호 확대·주52시간제…박보균 장관, 게임산업 가려운 곳 긁는다</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 3:06</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>사진=왕진화 기자[디지털데일리 왕진화 기자] 박보균 문화체육관광부 장관이 게임산업이 규제 시달림을 받지 않도록 최선의 노력을 다하겠다고 1일 밝혔다.   박보균 장관은 이날 서울 한국게임산업협회에서 열린 게임업계 간담회 모두발언을 통해 “윤석열 정부 시대에 게임 공간은 넓게 펼쳐질 것이고, 게임산업 또한 확실하게 발전할 것”이라며 “게임 현장에서 필요한 인재를 키우는 한편 기획·제작·유통 전 과정을 문체부에서 지원하겠다”고 말했다. 박 장관은 게임업계에서 요구하는 중국 판호(게임 서비스 유통 허가증) 발급 확대를 위해 외교부 및 경제 부처와 협력하고, 특별한 노력을 기울이기로 했다. 주 52시간제에 대한 합리적인 운영을 위해 지혜롭게 대처하겠다고 설명했다.    박 장관은 “게임은 편견과 오해에 시달려왔지만, 게임은 질병이 아니다”라며 “이러한 장애물을 당당하면서 지혜롭게 대처하고 넘어가겠다”고 말했다. 이어 “이용자 신뢰 회복을 위한 노력이 필요하다고 생각한다”며 “게임을 하는 사람은 윤석열 정부 시대에 넓은 공간에서 힘차게 일하고 창작하고 활로를 개척하고 규제의 시달림을 받지 않도록 최선의 노력을 다하겠다”고 강조했다.   이날 간담회에서 박보균 장관은 게임을 문화로 규정하기도 했다. 문화 예술 작품은 창의력 및 열정의 산물이며, 게임도 이러한 독창성과 상상력 속에서 생산된다는 의미에서다. 게임을 만드는 이들의 본능은 도전 및 독창성, 개척 정신이라고 꼽았다.   박 장관은 “게임 속 스토리텔링은 대중 감수성을 자극하고, 그 매력에 빠지게 한다”며 “게임은 문화의 공간에서 살아숨쉬고 있다”고 말했다. 이어 “세계 게임 시장은 무한경쟁 격전지이지만, K-콘텐츠 수출 선두 주자는 게임”이라고 말했다. 박 장관은 정책으로 이를 뒷받침할 방침이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>에픽게임즈 ‘폴가이즈’, ‘포트나이트’ 크로스 이벤트 개최</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 3:02</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>에픽게임즈코리아(대표 박성철)는 무료 파티게임 ‘폴가이즈’와 슈팅게임 ‘포트나이트’와의 크로스 이벤트 ‘크라운 클래시’를 오는 11일까지 운영한다고 1일 밝혔다.이번 이벤트는 ‘폴가이즈’의 무료 출시를 맞아 게임 이용자에게 게임화폐 ‘쿠도스’는 물론 ‘포트나이트’ 게임 아이템을 제공하는 내용으로 꾸몄다.이용자는 이벤트 기간 ‘폴가이즈’ 내 미니 게임 라운드를 10회, 20회, 40회, 70회, 100회 플레이하면 인게임 화폐 ‘쿠도스’를 총 3800개까지 획득할 수 있다. 또 ‘포트나이트’ 아이템 플랩잭스 스프레이, 사랑의 팬케이크 이모티콘, 시럽 뿌린 팬케이크 곡괭이, 와플 기계, 맨케이크 소령 의상 등을 얻을 수 있다.‘폴가이즈’는 지난달 21일 무료 서비스로 전환됐으며 닌텐도 스위치, 엑스박스원, 엑스박스 시리즈 S 및 X, 플레이스테이션4 및 5, 에픽게임즈 스토어 등을 통해 플레이할 수 있다. 에픽게임즈 계정을 사용하면 서비스되고 있는 모든 플랫폼에서 크로스 플레이와 크로스 프로그레션 기능을 이용할 수 있다. 무료화와 함께 시즌1 ‘우리 모두 무료 플레이’를 시작하며 ‘스피드 서킷’, ‘블라스트 공’, ‘통통 튀는 바닥’, ‘폴가이즈 배구’ 등의 새로운 라운드와 장애물도 선보였다. 무료 서비스 전환 이후 48시간 만에 이용자수 2000만명을 돌파하기도 했다.에픽게임즈코리아 박성철 대표는 “무료로 전환된 이후 이전보다 더 많은 분이 ‘폴가이즈’의 재미에 푹 빠져 계신다”라며 “‘폴가이즈’를 플레이하면 ‘포트나이트’에서까지 보상이 제공되는 특별한 크로스 이벤트를 준비했으니 많은 참여 부탁드린다”라고 밝혔다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>[창간11주년]하반기 서구권 시장 잡아라...콘솔·스팀 출시 활발</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 02:56</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>올 하반기 신작 트렌드를 미리 살펴보면, 모바일 게임 IP 후속작, 서구 시장 공략으로 구분할 수 있겠다.글로벌 시장 공략에 나선 게임사들의 주요 시장은 대부분 일본과 대만, 베트남 등 동남아 시장에 쏠려 있었다. 북미·유럽 등 서구권 시장까지 염두하고, 현지 점유율이 높은 콘솔 게임 플랫폼을 선보이거나, 밸브(Valve)의 PC 게임 유통 플랫폼 '스팀'을 통해 PC 버전을 출시하는 등의 전략을 다양화하고 있다. 진정한 '글로벌' 흥행작을 꿈꾸며 하반기에 신규 IP로 도전장을 내밀거나 투자로 편입된 해외 개발 자회사의 라인업을 선보일 예정이다. ■엔씨, 글로벌 시장 맞춤 전략 엔씨소프트는 자체적으로 개발한 PC·콘솔 게임 'TL(스론 앤 리버티)'을 4분기 중 출시한다.'TL은 중세 판타지 배경에 필드, 환경, 이용자 등 3가지 요소가 상호 영향을 미쳐 이용자 개인마다 다른 다양한 전투 플레이를 지원하는 MMORPG다.    MMORPG에 강한 자신감을 지닌 엔씨소프트는 국내를 비롯해 아시아 시장에서 MMORPG 장르는 주류가 됐으나, 서구권 시장에서 비주류인 점에서 잠재력을 높게 보고 있다. 스팀으로 공개된 '로스트아크'의 흥행으로 서구권 시장에서의 가능성도 확인됐다. 게임 내적으로는 해외 지역에서 선호도가 높은 PvE 콘텐츠로 도전 의식을 자극하고, 입체적인 인물들이 펼쳐 나가는 개연성 있는 스토리를 강화한다는 방침이다. 이를 주로 콘솔 게임이나 어드벤처 게임에 등장하는 여러 플레이 도구와 연출 기법으로 구현한다.출시 전략도 해외 시장에 맞춰 플랫폼을 다양화하고, 글로벌 동시 출시하는 등 기존 엔씨소프트 전략과 상반된 모습을 보일 예정이다. 이에 윈도우, 맥, 스팀, 플레이스테이션, 엑스박스를 통해 글로벌 시장에 선보인다. ■넥슨·크래프톤, 해외스튜디오서 PC·콘솔 게임 출시넥슨과 크래프톤은 각각 스웨덴과 미국에 위치한 독립스튜디오를 통해 PC·콘솔 게임을 내놓는다. 크래프톤의 스트라이킹디스턴스스튜디오(이하 SDS)가 액션 게임 '칼리스토 프로토콜'의 출시일을 12월 2일로 확정했다. PS4와 PS5, 엑스박스 원, 엑스박스 시리즈 X|S 등 콘솔과 스팀 및 에픽게임즈스토어 기반 PC 게임으로 출시된다. 이 게임은 서바이벌 호러 게임 '데드 스페이스'의 제작자인 글렌 스코필드 SDS 대표가 제작을 맡아 출시 전부터 관심을 모았으며 공포가 중요한 게임인 만큼 긴장감, 절망감, 분위기, 인간적인 면 등의 요소를 조합하는 호러 엔지니어링이라는 게임 디자인 방식을 도입했다. 유저는 3인칭 시점에서 2320년, 미래 시대에 목성 위성인 칼리스토에 위치한 교도소 '블랙아이언'에 퍼진 정체불명의 전염병 사태로부터 생존해야 한다. 근거리 전투 및 슈팅 조합 활용 등 전술로 위기에서 벗어나고 유나이티드 주피터 컴퍼니의 비밀들을 밝혀내야 한다. 넥슨 산하 엠바크스튜디오에서 '아크 레이더스'를 무료 게임으로 연내 출시한다. PS5, 엑스박스 시리즈 X/S, PC(스팀) 출시가 예정됐다. 유저는 지구를 침략하기 위해 우주에서 몰려온 기계 군단 '아크'에 맞서는 저항군 '레이더스'가 돼 3인칭 시점에서 슈팅 액션을 펼칠 수 있다. 특히 '협동'에 중심을 둬 기계 군단의 추격과 맹공에 대응하기 위해 다른 유저와 힘을 합쳐야 한다.엠바크스튜디오는 물리 기반 애니메이션을 학습해 스스로 움직이는 로봇을 제작하고 있으며 이 기술을 '아크 레이더스'에서도 적용한다. 거대한 로봇이 복잡한 지형을 걷고, 유저의 공격에 따라 효율적인 움직임을 구사해 플레이마다 다른 모습을 선보인다. ■생존 더한 슈팅, 스팀 출시 활발카카오게임즈와 데브시스터즈는 생존 테마를 더한 슈팅 게임을 스팀에 선보인다. 먼저 꾸준히 PC 게임을 선보여 온 카카오게임즈의 PC 차기작은 '디스테라'다. 리얼리티매직이 개발 중인 이 게임은 디스토피아 세계관 속 버려진 지구를 배경으로 한다. 개발 초기부터 글로벌 시장 진출을 목적으로 준비 중이다.유저는 주요 거점 탈취를 위해 다른 이용자 및 NPC 적들과 치열한 전투를 펼치면서 게임 내 자원을 채집해 무기 제작 및 은신처를 건설해 최종까지 살아남아야 한다. 데브시스터즈는 첫 PC·콘솔작을 내놓는다. 개발사인 프레스에이는 신작 '데드사이드클럽'을 연내 PC·콘솔 동시 출시할 예정이다.기존의 데브시스터즈가 출시해 온 '쿠키런'류의 아기자기한 분위기와는 상반된 생존 서바이벌 슈팅 게임으로, 유저는 도심 속 빌딩 건물 내에서 사이드스크롤 이동 방식으로 몬스터를 처치하고 코인을 획득해 무기를 상향하는 PvE와 은폐와 방어, 기습공격이 가능한 심리전을 토대로 상대를 제압해가는 PvP를 즐길 수 있다. 모바일과 PC 중심에서 PC 및 콘솔로 확장이 꾸준히 이어지고 있어 올해 하반기엔 더욱 가시화된 각 게임사의 전략을 확인해 볼 수 있겠다. 
+						기사제공 포모스
+강미화 redigo@fomos.co.kr
+강미화 기자
+구독
+강미화 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+확률형 아이템 자율규제 미준수 게임물 19종 공개
+'고양이와 스프', 새로운 고양이 '카우' 등장
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>[창간11주년]하반기 모바일 게임 후속작 몰려온다</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 02:55</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>올 하반기 신작 트렌드를 미리 살펴보면, 모바일 게임 IP 후속작, 서구권 시장 공략으로 구분할 수 있다.과거 모바일 게임 시장에서 신규 IP로 인기몰이했던 게임들이 하반기에는 인기 IP로 게임 시장에 입성한다. '히트' '세븐나이츠' '몬스터 길들이기' '서머너즈 워: 천공의 아레나(이하 서머너즈 워)' '브라운더스트' 등 인기 모바일 게임 IP를 활용한 신작이 하반기 출시될 예정이다. 5종 게임 IP 모두 회사의 대표 타이틀로 손꼽힌다. 특히 이달에만 '세븐나이츠 레볼루션' '서머너즈 워: 크로니클' '브라운더스트 더 퍼즐' 등 3종 게임 출시가 예정됐다. 오는 28일로 출시 날짜를 먼저 확정한 '세븐나이츠 레볼루션'은 넷마블넥서스에서 '세븐나이츠' IP를 이용해 4년여간 개발한 타이틀이다. CCG(카드콜렉트게임) 요소를 더한 MMORPG로, 유저는 원작에 등장한 '세븐나이츠' 영웅을 수집, 성장시켜 해당 영웅으로 변신해 전투를 펼칠 수 있다. 총을 사용하는 '레이첼', 쌍검을 사용하는 '크리스' 등 보유한 무기에 따라 원작과는 다른 모습의 세븐나이츠로 변신하는 것도 가능하다.원작인 '세븐나이츠'는 2014년 3월 출시된 턴제형 RPG로, 각기 다른 능력을 보유한 영웅들을 수집해 전략적인 전투를 벌일 수 있다는 점이 매력 요소로 꼽히며 전 세계 6000만 다운로드를 기록했다. 이러한 인기에 힘입어 '세븐나이츠' IP는 '세븐나이츠 레볼루션'뿐만 아니라 '세븐나이츠2' '세븐나이츠 –타임 원더러–'로 다양하게 활용된 바 있으며 넷마블이 보유한 대표 IP로 손꼽힌다. 올해를 플랫폼 및 자체 IP 확장 원년으로 삼은 넷마블의 선봉장 역할에 섰다.컴투스의 대표 IP인 '서머너즈 워'도 모바일 MMORPG로 이달 출격한다. '서머너즈 워: 크로니클'은 350여 종의 다양한 소환수를 수집해 사냥, PvP(유저 간 대전) 등 상황별로 조합해 전략적으로 활용해가는 MMORPG다.다양한 퍼즐과 함정이 숨겨진 공략형 던전, 유저간 실시간 전투(PVP), 파티 플레이, 퀘스트. 채집, 채광, 낚시 등을 더해 MMORPG다운 콘텐츠도 더했다.  원작 '서머너즈 워'는 4종의 소환수로 팀을 구성해 즐길 수 있는 모바일 RPG로, 2014년 4월 출시된 이후 전략적인 재미를 내세워 전 세계 1억 4000만 다운로드되고 90개국에서 게임 매출 1위를 기록한 바 있다. 컴투스는 해외 인기 게임 IP인 만큼, 하반기 중 '크로니클'에 자체 발행 코인인 C2X를 연동해 글로벌 시장에도 선보일 예정이다. 네오위즈는 올해로 5주년을 맞이하는 '브라운더스트' IP로 제작한 퍼즐 게임을 이달 선보인다. '브라운더스트 앤 퍼즐'은 3매치 퍼즐의 간단한 조작과 다양한 영웅 조합 요소가 결합한 게임이다. 영웅들의 스킬과 고유 특성에 따라 퍼즐을 풀어나갈 수 있고, 포탑이나 장애물, 폭탄, 회복 블록 등 다양한 요소로 전략적인 플레이를 구현할 수 있다.또한 원작 속 용병들의 색다른 이야기를 확인할 수 있는 기본 캠페인 스테이지 외에도 길드전과 PVE 모드인 '천공의 섬'과 '도전의 탑', PVP 모드인 결투장 등 다양한 게임 모드를 지원한다.원작인 '브라운더스트'는 턴제 방식에 스킬 범위를 고려해 용병을 배치하는 전투 방식으로 전략성도 요구하는 RPG다.  2017년 4월 출시 이후 미려한 일러스트와 전략성에 호응을 얻었다. 네오위즈는 '브라운더스트 앤 퍼즐' 외에도 '브라운더스트 스토리' '브라운더스트2(가칭)' 등 IP 신작을 준비하고 있다. 넥슨은 자회사 넥슨게임즈의 신작 '히트2'를 하반기 중 선보인다. 원작 캐릭터와 스토리를 계승하면서 출시 시점부터 탑재되는 공성전 및 유저간 경쟁과 협동, 전투가 존재하는 오픈필드를 선보인다. 플랫폼도 확장해 모바일과 함께 PC도 지원한다. 원작인 '히트'는 액션 연출과 자유도 높은 스킬 시스템으로, 2015년 11월 출시 이후 마켓 인기 1위와 매출 1위를 기록하며 넷게임즈(현 넥슨게임즈)의 대표인 박용현 사단의 개발력을 알린 첫 작이자, 넥슨이 모바일 게임 시장에서 처음 뚜렷한 성과를 거둔 게임으로 자리매김했다.넥슨은 지난달 30일부터 사전예약을 받으며 출시 준비에 들어섰다. '몬스터 길들이기'도 돌아올 예정이다. 넷마블은 국내외 하반기 라인업으로 '몬스터 길들이기: 아레나'를 더했다. 모바일 캐주얼 게임이 시장에 주를 이뤘던 2013년, '몬스터 길들이기'는 8월에 출시된 이후 수집형 RPG 개발 붐을 일으켰다. 누구나 쉽게 몬스터를 수집, 육성하고 팀을 이뤄 대전하는 RPG로 인기몰이한 것. 모바일 게임사 후발주자였던 넷마블은 '다함께 차차차' '모두의마블'에 이어 '몬스터 길들이기' 흥행으로 모바일 게임 시장에서 우위를 점했다.원작은 수집형 RPG로 다양한 몬스터가 등장한 바 있다. 신작 '몬스터 길들이기: 아레나'는 카드 형태의 몬스터를 수집하고 육성해 대전하는 CCG(카드콜렉터게임)이다.넷마블은 해외 출시 시 자체적으로 발행하고 있는 MBX를 연동해 선보일 예정이다.
+						기사제공 포모스
+강미화 redigo@fomos.co.kr
+강미화 기자
+구독
+강미화 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+확률형 아이템 자율규제 미준수 게임물 19종 공개
+'고양이와 스프', 새로운 고양이 '카우' 등장
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>[창간11주년]엔씨 IP 게임, 상반기 모바일 게임 매출 순위서 강세</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 02:53</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>지난 1월 1일부터 6월 25일까지 구글플레이 게임 매출 20위에 총 64종의 게임이 올랐다. 이 중에서도 자주 상위권을 차지한 20종의 게임들로 상반기 구글플레이 게임 최고매출 종합순위 차트를 제작했다. &lt;편집자 주&gt;모바일 게임 시장에서 친숙한 IP 게임이 매출 순위 상위권을 차지하는 모습은 익숙하다. 특히 올해 상반기에는 특정 IP 쏠림 현상이 눈길을 끈다. '리니지' '리니지2' '블레이드 &amp; 소울' 등 엔씨소프트의 게임 IP가 20위 내 6종을 차지했다.■ 종합순위 톱2는 리니지 IP 게임 종합순위 1위에는 '리니지W'가 차지했다. 이 게임은 전 세계 시장을 타깃으로 PC MMORPG '리니지'를 계승했으며 지난해 11월 13개국에 출시된 바 있다. 론칭 이후 PvP 횟수, 첫 공성전 8만 명이 참여하는 등 콘텐츠 기록은 물론, 매출에서도 5개월간 7308억 원을 기록하는 등 엔씨소프트가 보유한 자체 기록을 모두 갈아치웠다. 이달로 5주년을 맞이하는 '리니지M'의 종합순위는 2위다. 론칭 이후 신규 클래스 업데이트와 서버 콘텐츠, 클래스별 스킬 개편 등 순차적으로 업데이트를 진행하며 매년 최상위권을 지켰다. 올해 5주년에는 총사 클래스의 스킬 개편과 함께 장비·룬 복구와 변신·마법인형·스킬 합성을 다시 지원하는 TJ 쿠폰 5종을 제공한다. '리니지2' IP 게임인 '리니지2M'은 4위, '리니지2 레볼루션'은 18위를 기록했다. 2종 게임도 잠식 효과 없이 각각 종합순위 20위 내 순위를 유지하고 있다. '리니지2M'은 엔씨소프트에서 '리니지2' 론칭 당시 호평 받은 고품질 그래픽과 최신 기술에 초점을 맞춰 현대 시대에 맞는 리니지 월드를 구현, 2019년 11월 출시된 바 있다. 넷마블이 2016년 12월부터 서비스 중인 '리니지2 레볼루션'은 모바일 MMORPG 시장을 연 게임이라 평가받는 장수 MMORPG다. '블레이드 &amp; 소울(이하 블소)' IP로 제작된 '블소 레볼루션'과 '블소 2'는 각각 9위와 11위에 랭크됐다. 기존의 판타지 중심의 MMORPG 시장에서 무공을 더한 무협풍의 '블소'는 모바일 버전에서도 인기를 이어갔다. ■엔씨, 순위 점유율 25% 구글플레이 매출 20위 내 오른 64종의 게임을 서비스한 게임사는 총 41개사다. 엔씨소프트는 앞서 언급된 '리니지W'와 '리니지M' '리니지2M' '블소2' 등 4종 게임으로 종합순위 점유율 25.3%를 기록해 눈길을 끌었다. 뒤를 이어 넥슨이 8종 게임으로 11.4%의 점유율을 보였고, 넷마블이 5종 게임으로 8.1% 점유율을 기록했다. 3사의 순위 점유율은 44.8%에 달한다.  카카오게임즈도 '오딘:발할라 라이징'과 '우마무스메 프리티 더비(이하 우마무스메)' '앙상블스타즈!!'를 20위 내 이름을 올리며 7.1%의 점유율을 차지했다. 특히 6월 20일 출시한 '우마무스메'는 현재 매출순위 2위에 올랐다. 이 외에 37모바일게임즈, 로블록스, 4399코리아, 호요버스, 릴리스게임즈 등 해외 게임사들이 1~2종 게임으로 나란히 순위에 올랐다. 웹젠은 '뮤' IP 게임인 '뮤 오리진' '뮤 아크엔젤' 시리즈와 'R2M' 등 총 4종 게임을 매출 순위 20위 내 올리면서 점유율 순위 10위를 차지했다.    ■온라인 게임 IP 신작도 인기올해 상반기에 출시됐음에도 기존 출시된 게임들과 나란히 어깨를 견주며 종합순위에 오른 게임은 '뮤 오리진3' '던전앤파이터 모바일' '언디셈버'다. 이 중 '뮤 오리진3'와 '던전앤파이터 모바일'은 온라인 게임 IP로 제작됐다. 13위에 오른 '뮤 오리진3'는 '뮤' IP에 콘텐츠 재해석을 거친 '뮤 오리진' 시리즈의 세 번째 게임으로, 2월 말 출시된 바 있다. 빠른 성장과 원작을 해봤거나 하지 않아도, 누구나 즐길 수 있는 게임으로 선보였다.14위를 차지한 '던전앤파이터 모바일'은 수동 전투 중심의 액션 RPG로, 지난 3월 말 출시됐다. 원작의 속도감 있는 전투와 타격감을 그대로 살려 모바일 디바이스에 녹여내 호응을 얻었으며 현재 구글플레이 매출 순위 7위(6월 29일 기준)를 기록하고 있다. 라인게임즈에서 1월 출시한 액션RPG '언디셈버'는 신규 IP 게임으로 20위를 차지했다. 어두운 분위기에 핵앤슬래시 전투를 내세웠다. 전반적으로 종합순위는 유명 IP 게임이거나 외산 게임으로 양분되는 모습을 보인 가운데, '언디셈버'와 함께 '오딘: 발할라 라이징'이 예외로 남았다.  
+						기사제공 포모스
+강미화 redigo@fomos.co.kr
+강미화 기자
+구독
+강미화 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+확률형 아이템 자율규제 미준수 게임물 19종 공개
+'고양이와 스프', 새로운 고양이 '카우' 등장
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>[창간11주년]10년, 전략 바뀐 게임사 ⑤네오위즈</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 02:48</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>'재미'라는 가치를 중심으로 지난 10년 격변을 이뤄낸 게임사의 모습을 돌아보면서 변화에 대응하는 현재 진행형 모습도 짚어봤다. &lt;편집자 주&gt;① 카카오게임즈 ② 카카오 키즈 ③ 위메이드 ④컴투스 그룹 ⑤ 네오위즈  지난 10년의 시간 동안 네오위즈는 개발사로의 역량을 강화했다. 인디게임을 중심으로 생태계를 육성, 개발사와 윈윈하는 전략을 펼치고 있다. 네오위즈는 국내에 게임 포탈 사이트 등장 초기에 '피망 포털'로 자리 잡았다. 이어 웹보드 게임과 함께 '스페셜 포스'를 시작으로 '피파온라인' 시리즈와 '크로스파이어' 등 퍼블리싱 사업 게임들의 흥행에 힘입어 시장 인지도와 점유율을 높여왔다. 2012년 당시 네오위즈는 연매출 6741억 원을 기록했다. 같은 해 넥슨코리아 연 매출 1조 1070억 원,엔씨소프트의 연 매출 7535억 원, NHN(당시 네이버한게임 물적 분할 전) 게임사업 연 매출 6084억 원을 각각 기록하면서 소위 3N, 4N이라는 카테고리 안에 속했다. 당시 호실적을 거뒀지만, 네오위즈는 이면에서 개발사와의 수익 분배 문제와 재계약이라는 문제에 직면했다. 매출을 이끌어오던 '피파온라인2'의 서비스 종료가 다음 해 3월로 확정됐고, '크로스파이어' 국내 서비스 종료로 스마일게이트와 분쟁이 벌어진 이후, 중국 서비스 계약에도 3년간 매출 확보 조건의 불안정한 재계약을 체결한 것이다. 이 여파는 실적에도 반영됐다. 2012년 매출 실적이 최고치로, 2013년 4386억 원, 2014년 1949억 원, 2015년 1901억 원 등으로 쪼그라들었다. 여기에는 2014년 2월부터 시작된 웹보드 게임 규제도 영향을 미쳤다.이에 대응하기 위해 '킹덤언더파이어 온라인' '코어마스터즈' 등 새로운 온라인 게임의 퍼블리싱 게임 계약을 체결하고, 자체적으로 '블레스' '애스커'를 개발하는 등 여러 방안을 강구했다. 다만 자체 개발작이 시장 기대치보다 저조한 성과를 거뒀고, PC 퍼블리싱작 성과도 미진했던 가운데 모바일로 제작한 웹보드 게임과 퍼블리싱한 모바일 게임 '브라운더스트'가 흥행에 성공하면서 지난 2018년에 연 매출 2000억 원대를 회복하는 데 성공했다.'브라운더스트'의 경우 2017년 4월 국내 론칭 이후 같은 해 6월 개발사인 겜프스를 자회사에 편입시켰다.이후에는 본격적으로 소규모 개발사 인수 및 퍼블리싱으로 개발력을 강화하면서 라인업을 늘려 나갔다. 2019년부터 2021년까지 네오팝, 메타라마, 슈퍼플렉스, 스티키핸즈, 겜플리트, 하이디어 등 인디 게임사를 자회사로 편입했으며 '스컬' '산나비' '언소울드' '블레이드 어썰트' '사망여각' 등 퍼블리싱 계약도 활발하게 체결했다. '스컬'의 경우 출시 1년 만에 100만 장을 판매했고, 하이디어 인수로 라인업에 포함된 '고양이와 스프'는 글로벌 누적 2000만 건을 넘어섰다. 퍼블리셔에서 개발사로 무게 중심을 옮겨가면서도 PC, 모바일, 콘솔 등 디바이스 플랫폼이나 특정 장르만을 고집하지 않고 다양하게 선보이는 네오위즈의 특징은 그대로 이어가 인디게임사와 시너지를 내고 있다. 지난해 네오위즈는 연매출 2612억 원을 기록한 바 있다.올해 퍼블리싱작으로 '아이돌리 프라이드' '원시전쟁' '언소울드' '산나비'를 출시했거나 출시할 예정이며 자체적으로 '브라운더스트' IP 신작 2종과 '마스터 오브 나이츠'도 선보일 예정이다.  
+						기사제공 포모스
+강미화 redigo@fomos.co.kr
+강미화 기자
+구독
+강미화 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+확률형 아이템 자율규제 미준수 게임물 19종 공개
+'고양이와 스프', 새로운 고양이 '카우' 등장
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>[창간11주년]10년, 전략 바뀐 게임사 ④컴투스 그룹</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 02:47</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>'재미'라는 가치를 중심으로 지난 10년 격변을 이뤄낸 게임사의 모습을 돌아보면서 변화에 대응하는 현재 진행형 모습도 짚어봤다. &lt;편집자 주&gt;① 카카오게임즈 ② 카카오 키즈 ③ 위메이드 ④컴투스 그룹 ⑤ 네오위즈  컴투스 그룹은 10년 새 모바일 게임 개발 및 서비스사에서 블록체인이 연계된 메타버스 플랫폼 제작사로 탈바꿈 중이다.1998년 설립된 컴투스는 '미니게임천국' 시리즈, '액션퍼즐패밀리' 시리즈, '슈퍼액션히어로' 시리즈, '붕어빵타이쿤' 시리즈 등 히트작을 내세워 국내 대표 모바일 게임 개발사로 자리매김했다. 게임빌(현 컴투스홀딩스)도 2000년 설립 이후 '놈' 시리즈, '제노니아' 시리즈 등 다수의 모바일 게임을 선보이며  컴투스와 나란히 모바일 게임 시장에서 2강 체제를 구축한 바 있다. 양사는 피처폰 시절부터 이동통신사 3사 마켓과 협력한 데 이어 스마트폰으로 전환이 활발했던, 정확히는 애플 아이폰이 국내 도입된 2009년부터 앱스토어를 통해 해외 지역에서의 모바일 게임 매출을 늘려갔다.  10년 전인 2012년 컴투스는 모바일 게임 히트작을 중심으로, 게임빌은 다수 게임의 매출로 연 매출 700억 원대를 나란히 달성했다. 2011년 대비 컴투스는 2배(112.3%), 게임빌은 64.3% 각각 증가한 것이다. 모바일 게임 시장이 커지면서 양사의 게임 매출도 확대됐지만, 카카오 게임하기 플랫폼을 중심으로 경쟁사들이 모바일 게임 사업을 전개하면서 시장이 커진 만큼, 영향력을 확보하진 못했다. 이듬해인 2013년, 넷마블이 전년 대비 98%, 선데이토즈(현 위메이드플레이)는 100% 등 세 자릿수에 달하는 성장세를 보인 것과 달리 컴투스의 매출 증가율은 5.8%, 게임빌은 15.6%에 머물렀다. 2013년 12월에는 게임빌이 컴투스를 인수했다. 컴투스는 '타이니팜' 이후 뚜렷한 히트작이 나오지 않은 상황에서 카카오게임하기 플랫폼 대응도 다소 늦었다는 평가를 받았다. 이에 업계에서 함께 오랜 시간 모바일 게임 개발사로 자리매김한 게임빌과 의기투합했다는 분석이다. 이후 컴투스가 2014년 4월 서비스를 시작한 '서머너즈 워: 천공의 아레나(이하 서머너즈 워)'가 전 세계 시장에서 성공을 거뒀다. 90개국에서 게임 매출 1위, 140개국에서 톱10을 기록, 한국 모바일 게임으로는 처음으로 매출 1조 원을 달성하고, 8주년을 맞이한 올 4월에는 글로벌 하루 매출 80억 원을 달성해 눈길을 끌었다.  '서머너즈 워' 흥행 힘입어 컴투스는 매년 80% 이상의 매출을 해외에서 거뒀고, 콘텐츠 파워에 힘입어 자체 보유한 플랫폼 '하이브'도 해외 인지도를 높였다. 이처럼 컴투스가 게임 개발사로 해외에서도 이름을 알리면서, 게임빌은 컴투스홀딩스로 이름을 바꾸고 지주사 역할에 집중하기 시작했다. 아울러 컴투스 그룹은 10년 전 모바일 게임 개발사 및 퍼블리셔에서 최근 자체 플랫폼을 중심으로 블록체인과 메타버스 연계에 힘쓰고 있다. 컴투스홀딩스는 블록체인 게임 사업에 나서고, 컴투스는 IP(지식재산권)와 메타버스 사업에 집중하고 있다. 컴투스홀딩스 자회사에서 자체 토큰 'C2X'를 발행했으며 '하이브'에서 게임들을 순차적으로 연동해 선보일 예정이다. 컴투스의 대표작인 '서머너즈 워' IP 게임인 '백년전쟁'과 '크로니클'을 연동하며 '골프스타'와 '낚시의 신'의 블록체인 게임 신작인 '골프스타: 챔피언쉽'과 '낚시의 신: 크루'도 각각 올해 중 출시한다. 컴투스홀딩스 역시 신작 '크로매틱소울: AFK 레이드'를 시작으로, '게임빌 프로야구'로 '크립토 슈퍼스타즈'를 준비하고 있으며 자체 개발작 마블레이스(가칭)와 크리처, 안녕엘라, 프로젝트 알케미스트(가칭), 워킹데드: 올스타즈(가칭)도 연동할 계획이다. 온보딩 계약을 체결한 외부 게임들도 서비스된다. 컴투스는 금융·교육·엔터테인먼트·식음료·통신·유통 등 전 산업군의 유력 기업들과 투자 및 생태계 공동 구축을 지속 논의하며 메타버스 플랫폼 '컴투버스'를 구축 중이다. 올해 하반기 컴투스 그룹사 전 직원의 메타버스 오피스 입주를 시작한다.컴투스는 컴투버스를 2026년까지 500만 이용자 및 3000억 원 이상 매출 규모의 메타버스 플랫폼으로 성장시키겠다는 포부를 밝히기도 했다.
+						기사제공 포모스
+강미화 redigo@fomos.co.kr
+강미화 기자
+구독
+강미화 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+확률형 아이템 자율규제 미준수 게임물 19종 공개
+'고양이와 스프', 새로운 고양이 '카우' 등장
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>[창간11주년]10년, 전략 바뀐 게임사 ③위메이드</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 02:45</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>'재미'라는 가치를 중심으로 지난 10년 격변을 이뤄낸 게임사의 모습을 돌아보면서 변화에 대응하는 현재 진행형 모습도 짚어봤다. &lt;편집자 주&gt;① 카카오게임즈 ② 카카오 키즈 ③ 위메이드 ④컴투스 그룹 ⑤ 네오위즈 위메이드는 시장 흐름에 맞춰 빠르게 변화하는 게임사 중 하나다. 2012년에는 모바일 게임 사업에 드라이브를 걸었다. 지스타2011에서 소개한 PC MMORPG '천룡기'와 '이카루스(당시 네드)'의 개발 일정이 점차 길어지는 가운데 모바일 게임 시장은 'for Kakao'로 급격하게 변화했다.  2012년 7월 선데이토즈의 '애니팡'이 론칭 이후 국민 게임이라는 타이틀을 달았다. 특히 모바일 캐주얼 게임으로 하루에 적게는 수억 많게는 수십억의 수익을 거뒀다는 소식은 업계에 충격을 줬다.  위메이드는 2011년만하더라도 온라인과 모바일 게임 개발을 알리면서 투트랙 방침을 내세웠으나 빠르게 변화하는 시장에 맞춰 '미르의 전설' 시리즈 퍼블리싱 계약을 체결하고, CS 외주 계약을 체결하는 등 모바일 사업에 무게 중심을 뒀다. 모바일 게임 시장은 짧게 즐기는 캐주얼 게임으로 시작했지만 결국 PC 온라인 게임처럼  미들코어, 하드코어 RPG가 주류가 될 것이라는 예측이 이어진 만큼 해당 게임 장르를 먼저 선보이려는 게임사들의 속도전이 치열했다. 위메이드 역시 2012년 9월 '캔디팡' 출시에 이어 2013년 '윈드러너' '에브리타운'을 카카오톡에 연동해 선보였고 흥행을 거뒀다. 2011년 카카오와 체결한 게임사업 협약을 토대로 'for Kakao'에 접근성이 좋았다는 점도 유효했다.모바일 게임사로 전환은 빨랐으나, 장기적으로 우위를 점하진 못했다. 핀콘의 '헬로 히어로', 넷마블의 '몬스터길들이기', 레드사하라의 '불멸의 전사' 등 모바일 게임 시장에선 RPG 장르의 미들코어 게임이 속속 등장하는 가운데 위메이드에선 흥행을 이어갈 모바일 신작은 나타나지 않았다. 이후 행보는 '미르의전설' IP 사업에 무게가 집중됐다. 위메이드는 10년 전 플랫폼 협력사에 그쳤으나, 올해 플랫폼사 전환에 사활을 건 모습이다. 장현국 대표는 "위믹스는 위메이드의 전부다. 플랫폼 사업에 방점을 찍었다"고 강조하기도 했다.과거 'for Kakao' 플랫폼이 카카오톡을 중심으로 친구 초대, 랭킹 확인 등 주로 이용자와 이용자를 잇는 역할을 했다면, 위메이드가 내세우는 플랫폼은 게임별 경제 시스템을 잇는 데 초점이 맞춰져 있다. 예를 들어 위메이드가 선보인 '미르4'의 해외 버전에서 이용자는 '미르4' 내 게임 아이템인 '흑철'을 '드레이코 코인'으로 바꾸고, 획득한 '드레이코 코인'은 '위믹스'로 변환할 수 있다. 획득한 '위믹스'는 현금화하거나, 타 게임 유틸리티 코인으로 변환하거나, 아이템을 구매하는 데 쓴다.현금 역할을 코인에 부여해 실질적으로 게임 내 콘텐츠에는 변화가 없으나, 게임 외적인 서비스 부문에 변화를 줬다. 위메이드는 P&amp;E 모델에 선구적인 지위를 확보했다. P&amp;E는 '플레이 앤 언'의 약자로 게임을 하면서 (돈도) 얻다는 의미로 쓰인다.위메이드는 위믹스 플랫폼에 연내 100종 이상의 게임 연동을 목표로 제휴 및 투자를 활발히 진행하고 있다. NHN, 조이시티, 액션스퀘어, 엠게임, 블루포션게임즈, IMC게임즈, 스톰게임즈, 밸로프 등 다수의 게임사와 협력 중이다.내년부터 오픈 플랫폼으로 전환도 예고했다. 개별적인 게임의 성과도 물론 중요하겠으나, 플랫폼의 특성상 입점 게임 수에 수익 영향을 크게 받을 수 있어 오픈 플랫폼화는 자연스러운 행보로 읽힌다. 장현국 위메이드 대표는 1분기 실적발표 콘퍼런스콜에서 "유저가 얼마나 많냐, 경제거래량이 얼마냐 크냐고 봤을때 현재 위믹스가 1등 플랫폼"이라며 "생태계를 확장시키겠다는 전략을 가지고 있어 경쟁력을 잃지 않을 것"이라고 밝혔다.  
+						기사제공 포모스
+강미화 redigo@fomos.co.kr
+강미화 기자
+구독
+강미화 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+확률형 아이템 자율규제 미준수 게임물 19종 공개
+'고양이와 스프', 새로운 고양이 '카우' 등장
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>[창간11주년]10년, 전략 바뀐 게임사 ②카카오 키즈</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 02:45</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>'재미'라는 가치를 중심으로 지난 10년 격변을 이뤄낸 게임사의 모습을 돌아보면서 변화에 대응하는 현재 진행형 모습도 짚어봤다. &lt;편집자 주&gt;① 카카오게임즈 ② 카카오 키즈 ③ 위메이드 ④컴투스 그룹 ⑤ 네오위즈  카카오게임하기에 게임을 론칭하며 단숨에 주목되는 게임사로 자리매김한 '카카오 키즈'들은 10년 새 많은 변화와 부침을 겪었다. '애니팡' 신화를 쓴 선데이토즈(현 위메이드플레이), '드래곤플라이트'를 선보인 넥스트플로어(현 라인게임즈), '쿠키런'으로 주목받은 데브시스터즈, '아이러브커피'를 출시한 파티스튜디오(현 넥스쳐).  단일 모바일 게임 흥행으로 주목받기 시작한 4개 사는 공통으로 원게임 리스크, 모바일 게임의 짧은 수명에 맞서 신작 게임 출시, 퍼블리싱, 게임사 인수 및 피인수 등을 거쳤다. 4개 사의 10년 전부터 현황까지 살펴봤다. ■해외 시장 공략 나선 위메이드플레이1분이라는 시간 동안 동일 모양의 동물 퍼즐을 3개 이상 매칭해 제거하는 '애니팡'은 전 국민이 즐겼다고 해도 과언이 아니었다. 카카오게임하기 플랫폼에 힘입어 선데이토즈의 매출액은 2011년 11억 원에서 2013년 476억 원으로 42배 이상 늘었고, 코스닥 시장에도 입성했다. 다만, 단순한 캐주얼 게임이었기에 라이프사이클이 길지 않아 RPG 요소와 PvP, 길드콘텐츠를 더하며 시리즈를 거듭했지만, 점차 시장 장악력과 성과는 하락세를 보였다. 이 과정에서 타사 게임과의 표절 논란이 불거진 바 있다.  새로운 먹거리로 외부 IP 제휴로 퍼즐게임을 제작하고, 고포류 게임 개발을 필두로 소셜 카지노 게임사를 인수하고, 광고 사업을 진행하는 등 행보를 이어가며 2020년 연 매출 1000억 원을 넘어섰다. 2014년에는 해외 시장, 특히 중국 시장 공략을 위해 스마일게이트가 선데이토즈의 최대 주주로 올라섰지만, 뚜렷한 시너지 없이 양사의 협업이 마무리됐다. 간단한 캐주얼 퍼즐 게임의 특성상 해외 시장에서 성과를 거두기엔 요원했다.  올해 새로운 최대주주가 된 위메이드는 선데이토즈가 보유한 IP와 소셜 카지노 게임에 블록체인 기술을 연결해 선보일 예정이다. 선데이토즈는 해외 사업에 통일성을 부여하기 위해 사명을 위메이드플레이로 변경한 바 있다. 양사가 시너지를 낼 수 있을지에 주목된다.■퍼블리싱 강화한 라인게임즈 '드래곤 플라이트'로 존재감을 알린 넥스트플로어는 10년 새 개발사에서 퍼블리셔로 변모했다. 디렉터 중심의 게임 서비스에 집중하고 있다.카카오 키즈들이 나란히 코스닥 시장 입성으로 자금 확대를 꾀했지만, 넥스트플로어는 디렉터 중심의 게임 개발과 서비스에 집중했다. 자체 인디 게임 개발 조직인 지하연구소는 국내에서는 드문 비디오 게임 출시 사례도 만들어 냈다.2016년부터는 '프렌즈런' '크리스탈 하츠' '데스티니 차일드' 등 퍼블리싱 사업도 전개해 나갔다. 다수의 유저에 피드백을 제공하는 운영 영역에서 노하우 부족에 따른 문제점을 해소하고, 해외 영역까지 서비스를 확장하기 위해 2017년 라인게임즈에 합병됐다. 넥스트플로어 창업자인 김민규 대표가 라인게임즈 대표직을 맡고, 당시 주요 개발진 모두 고스란히 라인게임즈로 이전한, 사실상 역합병이다. 라인게임즈는 개발사 연합체인 '스튜디오 얼라이언스'를 내세우며 개발 초기부터 함께 게임을 만들어가고 있다. 이에 게임 출시까지 시간이 오랜 기간 소요됐고, 기간이 길어지는 만큼 적자에서 벗어나지 못했지만, 텐센트와 사모펀드로부터 1000억 원의 투자 유치에 성공하고 신작 출시를 이어가고 있다. 올해 1월 니즈게임즈의 '언디셈버'가 흥행에 성공한 바 있으며 개발 자회사 모티프가 개발한 MMORPG '대항해시대 오리진'의 3분기 국내 출시한다. ■ 쿠키런 길만 뛰던 데브시스터즈, IP 다각화 쿠키런 IP(지식재산권)로 방망이를 깎던 데브시스터즈는 올해 IP 다각화에 나선다. 4사 중 유일하게 회사명이 바꾸지 않고, '쿠키런' 길만 걸어왔다. 2012년 8억 원의 매출과 25억 원의 적자를 본 데브시스터즈는 2013년 4월 '쿠키런 for Kakao' 출시에 힘입어 613억 원의 매출과 241억 원의 영업이익을 거뒀다. 1년 성과가 온기 반영된 2014년에는 695억 원의 매출에 330억 원의 영업이익을 냈고, 10월에는 코스닥 시장에도 입성했다. 하지만 상장 이후 기존 게임의 매출액은 감소하는 가운데 신작 출시도 더뎌 2015년 2분기부터 적자를 봤다. 자체적으로 개발한 신작이 2016년에나 등장했고, 그 이후에도 2018년, 2020년 등 출시까지 긴 텀을 보였다. '쿠키런 for Kakao'의 글로벌 버전이라 할 수 있는 '쿠키런: 오븐브레이크', 전략 게임 '쿠키워즈', 퍼즐 게임 '쿠키런:퍼즐월드' 이야기다. 데브시스터즈의 적자는 2021년 선보인 '쿠키런:킹덤'으로 해소됐다. 3693억 원의 매출액과 563억 원의 흑자를 내면서 상장 이후 첫 배당도 진행했다. 개발 스튜디오를 설립하고 조직을 개편한 결과가 뚜렷하게 나타나면서 게임 완성도를 높이면서 신작 출시 텀도 짧아진 모습이다. 올해에도 신작을 선보인다. 무엇보다 기존에 데브시스터즈가 선보인 적 없던 신규 IP에 어두운 분위기의 건슈팅 게임이라는 점이 눈길을 끈다. 개발 자회사 프레스에이에서 개발 중인 '데드사이드클럽'은 여름 중 스팀에 출시될 예정이다. 아울러 '쿠키런: 마녀의 성', '쿠키런: 오븐 스매시' '프로젝트 B' 등 '쿠키런' IP 신작도 준비하고 있다.■ 이것저것 잘하고 싶었던 '넥스쳐'반면, 파티스튜디오는 사업 다각화에 적극적인 회사였지만, 결과가 좋지 못했다.파티스튜디오는 2012년 8월 카카오 게임하기 플랫폼에 선보인 '아이러브커피'가 흥행에 성공했다. 론칭 3일만에 하루 매출 1억 원을 달성하고, 6개월여만에 월매출 60억 원 이상을 유지할 정도였다.   당시 1~3분 내외로 즐길 수 있는 모바일 캐주얼 게임과 비교해 '아이러브커피'와 같은 SNG(소셜 네트워크 게임)의 라이프사이클이 상대적으로 길다는 분석에 파티스튜디오의 잠재력은 크게 점쳐지기도 했다. 이듬해에는 파티게임즈로 사명을 바꾸고 100억 원을 투자해 적극적으로 퍼블리싱 사업을 진행하겠다는 포부도 밝혔다. 퍼블리싱에는 개발사와의 협업을 강조하면서 공동개발 형태로, '아이러브커피'의 후속작으로 '퍼즐 바리스타'를 내놓기도 하고, 퍼블리싱작 'SD 건담배틀스테이션'과 자체개발작 '숲속의 앨리스' 등 다양한 게임을 선보이며 2014년 11월 코스닥 시장까지 입성했다. 2015년에만 '드래곤히어로즈' '용사가 간다' 무한돌파삼국지' '미니몬마스터즈' 등 다수의 신작을 내놨지만 뚜렷한 성과를 거두지 못했고, 같은 해 227억 원에 소셜 카지노 기업 다다소프트를 인수하며 해외 소셜 카지노 시장도 아우르겠다고 밝혔지만, 결국 '아이러브니키'만 소기의 성과를 거뒀다.2016년 12월, 파티게임즈가 모다정보통신에 피인수됐다는 공시 이후 게임 소식보다는 무자본 M&amp;A의 사례로 오르내렸다. 결국 6년 만에 상장 폐지 이후 현재는 넥스쳐로 사명을 변경, '아이러브커피'와 '아이러브니키' '아이러브파스타'를 서비스 중이다. 
+						기사제공 포모스
+강미화 redigo@fomos.co.kr
+강미화 기자
+구독
+강미화 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+확률형 아이템 자율규제 미준수 게임물 19종 공개
+'고양이와 스프', 새로운 고양이 '카우' 등장
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>[창간11주년]10년, 전략 바뀐 게임사 ①카카오게임즈</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 02:43</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>현재 게임의 일상화는 10년 전 모바일 게임의 대중화부터 시작됐다.2012년 7월 등장한 카카오 게임하기 플랫폼은 게임이 생소했던 이용자층을 대거 유입했고, 기술 발전에 따라 출퇴근길을 책임지던 게임에서 24시간 머물 수 있는 가상 공간으로 성장했다.  그리고 지금, 블록체인 기술로 또 한 번 들썩이고 있다. 지난 10년 사이 급격한 변화를 겪은 게임사는 또다시 산업이 변화할 것이라는 예측하며 선제적으로 대응하겠다는 전략이다. 10년의 시간 동안 게임산업 기술과 유행이 변화했지만 절대 변화하지 않는 것은 '재미'라는 점을 다시금 배웠다. '재미'라는 가치를 중심으로 지난 10년 격변을 이뤄낸 게임사의 모습을 돌아보면서 변화에 대응하는 현재 진행형 모습도 짚어봤다. &lt;편집자 주&gt;① 카카오게임즈 ② 카카오 키즈 ③ 위메이드 ④컴투스 그룹 ⑤ 네오위즈 "일 매출이 수억 원이래요" 지난 2012년 추석을 전후로 게임업계가 크게 술렁였다.  카카오가 2012년 7월부터 선보인 카카오 게임하기 플랫폼 내 입점한 게임들이 추석을 전후로 소위 '대박'이 난 것이다. 당시 '애니팡' '드래곤플라이트' '쿠키런' 등 소규모 게임사가 선보인 타이틀이 스포트라이트를 받았다.모바일 디바이스 접근성에 국민 메신저로 자리잡은 카카오톡의 파급력이 시너지 효과를 내면서 기존 게임을 즐기지 않았던 이용자까지 아우른 결과, 카카오는 강력한 게임 플랫폼사로 자리잡았다. 구글플레이와 앱스토어 매출 상위권에 카카오 게임하기와 연동된 게임으로 줄을 세웠고, 모바일 게임 매출이 PC 게임 매출을 앞설 수 있다는 점을 입증했다. 모바일 게임의 수익성과 파급력이 확인되면서 모바일 게임 개발 붐이 일었다. 온라인 게임 개발사가 모바일 게임 사업을 병행하거나, 아예 모바일 게임사로 전환하는 사례도 나타났다. 이에 2012년 처음 플랫폼을 선보였을 당시 10종에 불과했던 입점 게임은 1년 만에 180여개로 확장됐다. 밀려드는 수백통의 입점 제안서에 조건부 무심사 입점 제도를 도입하고, 주 1회에서 주 2회로 게임을 출시하는 등 심사 제도 개편 작업도 거쳐야 했을 정도였다. 게임의 수가 점차 늘면서, 마케팅은 보다 더 치열해지고 이용자의 눈높이도 높아지기 시작했다. 시장이 레드오션화될수록 강력했던 카카오의 플랫폼 영향력은 외려 줄어들었다. 콘텐츠의 중요성 부각, 국내에 한정된 영향력, 수수료 부담 등 여러 요인이 복합적으로 나타났다. 먼저 단순한 조작, 단시간 내 끝나는 게임 구성, 지인 간 경쟁유도 시스템을 탑재한 캐주얼 게임이 흥행하면서 누가 먼저 게임을 만드는지가 중요했던 속도 경쟁은 점차 RPG, 액션 RPG, MMORPG 등 점차 PC 게임과 같은 하드코어한 장르와 콘텐츠를 내세운 소위 '대작'간 품질 경쟁으로 발전했다.게임 개발 기간이 늘어나면서 게임 출시작은 줄어드는데, 라인, 네이버 등 SNS와 포털에서 게임 플랫폼을 자처하며 게임 유치를 위한 경쟁도 활발해져 콘텐츠 중요성이 높아졌다. 모바일 게임 개발에 시간과 자금이 대거 투입되자 수수료 부담까지 수면 위로 올랐고, 해외 시장을 공략하기 위해 자체 플랫폼을 마련하거나 오픈 마켓에 직접 서비스하는 사례도 늘었다.개발사는 이미 오픈마켓 수수료로 30%를 지불하고, 남은 70% 수익 중 카카오 플랫폼 수수료로 또 30%를 나눠야 해서, 퍼블리셔가 없더라도 1000원의 수익 중 490원만 손에 쥘 수 있었다. 퍼블리싱까지 진행하게 되면 개발사가 실질적으로 손에 쥘 수 있는 수익은 200원대로 더 낮아졌다. 게임 콘텐츠를 확보하기 위해 단순 플랫폼사에 머물지 않고, 게임 퍼블리싱 사업에 나선 것은 자연스러운 수순이었다. 당시 게임 계열사인 엔진과 다음게임을 합병하면서 모바일 및 PC 게임 서비스 환경도 구축했다.퍼블리싱 전략을 다양화하면서 플랫폼과 관계없이 해외 흥행 게임을 국내 들여오거나 국내 게임사의 게임을 해외에 선보이는 전략을 폈다. 이에 2019년 PC 게임 '패스 오브 엑자일'과 모바일 게임 '프린세스 커넥트! 리: 다이브' '달빛조각사'를, 2020년에는 '가디언테일즈', 2021년에는 '오딘:발할라 라이징' 등 흥행작을 꾸준히 배출하며 퍼블리셔로 입지를 다졌다. 글로벌 시장을 목표로 시즌 2를 내세우며 흥행작을 선보인 엑스엘게임즈, 라이온하트스튜디오 등 국내 게임 개발사는 인수하고, 해외 스타 개발자가 설립한 회사에 투자하는 행보도 이어가고 있다.   이에 올해 라인업도 풍성하다. 일본 시장에서 흥행을 입증한 '우마무스메 프리티 더비'를 시작으로 PC FPS 게임 '디스테라', 모바일 수집형 RPG '에버소울', 멀티플랫폼 MMORPG '아레스:라이즈 오브 가디언즈'를 퍼블리싱으로 선보일 예정이다. 자회사 엑스엘게임즈의 '아키월드'도 출시를 앞뒀다.
+						기사제공 포모스
+강미화 redigo@fomos.co.kr
+강미화 기자
+구독
+강미화 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+확률형 아이템 자율규제 미준수 게임물 19종 공개
+'고양이와 스프', 새로운 고양이 '카우' 등장
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>[창간11주년]다시 보는 게임업계 상반기 下</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 02:42</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>일상 속 게임화가 활발하게 이뤄지고 있다. 유저 친화적 개발 및 서비스 강화, 메타버스 등의 새로운 시도 등 게임사의 노력이 돋보인 상반기다. 지난 6개월간 게임업계를 뒤흔든 10가지 소식을 되돌아봤다. &lt;편집자 주&gt;⑥ 개발자 찾아요커뮤니케이션이 가능한 가상 공간, 메타버스가 주목받으며 개발자 고용시장에도 변화가 감지됐다. 기존 게임 개발에선 론칭 직전까지 개발 인력을 확장하다가 라이브 서비스를 시작하면, 갖춰진 게임 안에서 개발이 이뤄지므로 인력 축소가 가능했다. 이와 달리 커뮤니티 중심의 게임의 경우, 라이브 서비스를 하면서 개발 인력을 더 충원해야 하는 구조다. 놀이터로 비유하자면 새로운 놀이기구를 추가하는 것과 같아 기존 시소를 만드는 개발자는 물론, 그네를 만들 개발자, 미끄럼틀 만들 개발자 등 새로운 놀이기구 제작에 따른 개발 인력이 추가로 필요하다.이 가운데 금융, 커머스 등 타 산업에서 이용자의 체류 시간을 늘리기 위해 메타버스 구현에 뛰어들면서 구인난이 심화됐다. 업계 관계자는 "클라우드, 서버 개발자는 없어서 못 구할 정도"라며 "여타 콘텐츠는 업데이트를 분기 또는 연별로 진행하는 것과 달리, 게임 업데이트는 주마다 진행해야 하는 만큼 일이 고되다고 알려져 개발자 구하기가 더 힘든 편"이라고 말했다. 직원 복지를 내세우고, 서류 전형 간소화와 블라인드 채용을 진행하는 등 게임사 어필에 힘쓰고 있다. 대학교나 대학원과의 업무 협약으로 인재를 육성하려는 노력도 이어지고 있다. ⑦ 블록체인 연동 게임 출시 러시지난해 블록체인 게임을 선보이겠다고 선언한 게임사들이 올해 상반기 실제 게임 출시까지 이어갔다. 통상적으로 모바일 게임이라고 하더라도 개발에만 1년 이상 소요되는 것과 달리, 이른 시일 내 게임을 선보일 수 있었던 배경에는 기존 출시한 게임에 콘텐츠 변화 없이 게임 외적으로 지갑을 연동해 토큰 환전 서비스를 제공하는 방식을 채택한 사례가 상당수였기 때문이다.게임사들은 기존 게임에 자체 코인을 더해 첫 블록체인 게임을 선보였다. 넷마블은 'A3: 스틸얼라이브'에 자체 발행 코인인 MAX를 탑재해 해외 시장에 선보였고, 컴투스는 C2X와 연동해 '서머너즈 워: 백년전쟁'을, 네오위즈는 네오핀을 더해 '크립토 골프'를 각각 출시했다.상반기에는 기존 라이브 게임과의 결합이 주축을 이뤘지만, 하반기부터는 기존 게임 IP를 활용한 신작과의 결합 사례가 다수 나타날 예정이다. 넷마블은 하반기 '몬스터 길들이기: 아레나' '킹 오브 파이터즈: 아레나' '챔피언스: 어센션' '모두의마블: 메타월드' 등 4종 게임에 블록체인을 결합해 순차 출시한다.카카오게임즈의 자회사 엑스엘게임즈도 '아키에이지' IP로  커뮤니티 중심의 블록체인 게임 '아키월드'를 7월 중 선보인다. 보라와 연동해 게임의 방향성, 운영권, 소유권을 모두 커뮤니티가 결정할 수 있는 '다오' 게임이다. ⑧ NO P2E, NFT로 IP 강화P2E, P&amp;E에는 선을 긋는 게임사들도 있다. P2E는 '플레이 투 언(Play To Earn)의 약자로 유저가 게임을 플레이하며 동시에 수익도 낼 수 있다는 뜻이다. 게임 플레이로 확보한 게임 재화를 유틸리티 코인으로 바꾸고, 유틸리티 코인을 다시 거버넌스 코인으로 바꿔 현금화하는 '지갑' 서비스를 제공하고 있다.게임 콘텐츠에 변화 없이 운영적 영역에 '코인 환전'을 더한 수준이라 게임 이용의 주목적인 재미보다는 경제적 이익이 강조돼 '게임답지 못하다'며 부정적으로 보는 시각도 늘었다. 여기에 시가총액으로 전 세계 10대 암호화폐로 꼽히던 '루나'와 '테라' 몰락은 암호화폐에 대한 부정적 인식을 더 키웠다. 이에 일부 게임사는 기존 P2E, P&amp;E 게임과는 선을 그으면서 IP 가치 확장에 블록체인 기술을 도입하겠다는 입장이다. 여기에는 디지털 원본 증명서 역할을 하는 'NFT' 기술이 주축을 이룬다.   넥슨은 '메이플스토리' IP를 중심으로 블록체인의 특성인 '투명하게 공개된 규칙' '열린 참여와 기여에 따른 보상' '가치의 저장 및 이동'에 맞춰 게임을 설계하고 있다. 이에 가장 먼저 선보일 '메이플스토리 N'에는 캐시샵이 없다. 이용자가 게임 플레이로 아이템을 획득하고, NFT화 할 수 있으며 온전한 소유권을 기반으로 자유시장 경제를 만들어 가는 환경을 목적으로 한다. 경제활동 과정에서 발생하는 수수료는 '메이플스토리 유니버스' 생태계 기여자들과 넥슨에 보상으로 분배된다. 엔씨소프트도 NFT 기술만 더해 '리니지W'를 서구권 시장에 4분기 중 출시한다. 이 회사는 지속적으로 P2E 게임이 아니라는 입장을 강조해왔다. 홍원준 엔씨소프트 CFO는 1분기 실적발표 컨퍼런스콜에서 "P2E 게임으로 접근하는 것은 전혀 아니다"며 "NFT 도입이 기존 게임 밸런스, 모든 재화의 가치를 해치지 않는 방안을 찾기 위해 노력하고 있다"고 밝힌 바 있다. 플레이위드도 자체 IP인 '씰'에 참여형 생태계 '다오(DAO)' 커뮤니티를 구축하고 있다. 게임 형태의 자체 플랫폼에서 모두의 의사결정 아래 개발, 확장, 유지에 참여할 수 있도록 보상으로 NFT(대체 불가능 토큰)를 제공하는 형태다. 제공되는 NFT는 일종의 멤버십으로, 씰 IP 관련 블록체인 게임에 활용할 수 있게 준비 중이다. ⑨ 오프라인으로 만나요 사회적 거리두기가 해제되고, 팬더믹의 종료 단계인 '엔데믹(전염병의 풍토병화)'이 다가옴에 따라, PC방 이용시간도 회복세를 보였다. 게임트릭스에 따르면 일 평균 PC방 이용시간이 지난 3월 265만 3941시간으로 최저점을 기록했으나, 사회적 거리두기가 해제된 4월부터 반등에 성공한 모습이다. 6월에는 일평균 이용시간 400만 시간 이상(12일 기준)으로 회복했다.유저 행사도 다시 오프라인으로 열리기 시작했다. 경기도가 주최하는 '플레이엑스포'가 2년 만에 오프라인 행사로 지난 5월 일산 킨텍스에서 진행됐으며 오는 11월 17일 부산 벡스코에서 개막하는 '지스타'도 코로나19 발생 이전과 같은 수준으로 운영될 예정이다.하반기 진행 예정된 해외 게임쇼도 온라인과 오프라인에서 동시 개최된다. '게임스컴'은 오는 8월 24일부터 5일간 독일 쾰른에서, '도쿄게임쇼'는 오는 9월 15일부터 18일까지 4일간 일본 지바현에서 각각 열린다. ⑩ 게임계, 큰 별이 지다김정주 넥슨 창업주의 갑작스러운 비보에 추모 물결이 일었다. 그는 2016년 넥슨 이사직에서 사임한 데 이어 2021년 넥슨의 지주사인 엔엑스씨의 대표이사직에서도 내려오며 경영 일선에서 물러났으나, 1세대 게임 개발자이자 넥슨 창업주로 업계 큰 형님이라는 상징성이 컸다.별세 소식에 게임업계는 물론, 각계각층에서 애도를 표했으며 게이머들은 '바람의나라'에서 추모식을 진행했다. 고인이 개발에 참여한 '바람의 나라'는 세계 최초의 온라인 게임이자, 한국 게임산업을 태동케 한 1세대 온라인 게임이다. 오웬 마호니 넥슨 대표는 NDC 2022에서 故 김정주 창업주를 추모하며 혁신의 아이콘으로 존경을 표했다. 그는 "고 김 창업주는 단순한 개척자를 넘어 엔터테인먼트 역사에 한 획을 그었다"며 남들과 다른 길을 걷는 그의 혁신을 잇겠다는 의지를 드러냈다.  
+						기사제공 포모스
+강미화 redigo@fomos.co.kr
+강미화 기자
+구독
+강미화 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+확률형 아이템 자율규제 미준수 게임물 19종 공개
+'고양이와 스프', 새로운 고양이 '카우' 등장
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>[창간11주년]다시 보는 게임업계 상반기 上</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 02:42</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>일상 속 게임화가 활발하게 이뤄지고 있다. 유저 친화적 개발 및 서비스 강화, 메타버스 등의 새로운 시도 등 게임사의 노력이 돋보인 상반기다. 지난 6개월간 게임업계를 뒤흔든 10가지 소식을 되돌아봤다. &lt;편집자 주&gt;① 수조 원 오간 게임업계 빅딜새해 벽두부터 게임은 물론 IT 산업 역사상 전무후무한 빅딜이 성사됐다. 경쟁력을 강화하기 위해 수 조원 단위 규모의 인수 합병을 진행해 눈길을 끌었다. 엑스박스 콘솔 기기를 중심으로 게임 사업을 펼치고 있는 마이크로소프트는 687억 달러(약 82조 원)에 액티비전블리자드의 인수를 결정, 인수 금액으로 최대 기록을 세웠다.인수에 따라 액티비전블리자드의 '콜 오브 듀티' '스타크래프트' '월드 오브 워크래프트' '디아블로' 등 다양한 IP를 보유하게 됐으며 구독형 게임 서비스에 라인업을 확대해 경쟁력을 높였다.콘솔, PC 게임사인 테이크투인터렉티브는 모바일 게임사 징가를 127억 달러(약 15조 원)에 인수를 확정했다. 테이크투인터렉티브는 'GTA' 시리즈의 락스타게임즈와 '문명' '보더랜드' 시리즈를 보유한 2K의 모회사로, 징가 인수로 '팜빌' '시티빌' 등 모바일 게임까지 플랫폼을 확장했다.  플레이스테이션 진영을 구축하고 있는 소니인터렉티브엔터테인먼트도 인수 경쟁에 뛰어들었다. PS 라인업 특히 온라인 라인업을 확장하려는 움직임으로 분석되고 있다. '데스티니' 시리즈, '헤일로' 시리즈를 개발한 바 있는 번지스튜디오를 36억 달러(약 4조 3500억 원)에 인수한 데 이어 금액은 공개되지 않았으나 '어쌔신 크리드' 개발자였던 제이드 레이몬드가 설립한 헤이븐엔터테인먼트스튜디오도 인수를 결정했다.국내 게임사는 올 상반기 엔터테인먼트와 블록체인·NFT 투자에 집중한 모습이다. 넥슨은 영화감독 루소 형제와 프로듀서 마이크 라로카가 설립한 AGBO스튜디오에 4억 달러(4797억 원) 규모의 전략적 투자를 진행했고, 넷마블은 자회사를 통해 '아이텀게임즈' '보노테크놀로지스'를 인수했다. 컴투스그룹과 위메이드도 블록체인과 메타버스 생태계 구축 투자에 힘을 쏟고 있다.②상반기 게임시장, 액션 RPG 인기게임 콘텐츠로 상반기 시장을 살펴보면, 수동 전투 중심의 액션 RPG가 두각을 드러냈다. 1분기엔 '던전앤파이터 모바일(이하 던파 모바일)'이, 2분기엔 '디아블로 이모탈'이 등장해 시장을 뒤흔들었다. 먼저 '던파 모바일'은 '던전앤파이터' IP(지식재산권)을 계승한 모바일 액션 RPG로, 2D 그래픽에 수동 전투 시스템이 특징이다. 사전 다운로드에 120만 건, 사전 캐릭터 생성 110만 건을 기록하는 등 출시 전부터 유저 기대감이 반영됐으며 업계에서도 '던파 모바일'의 흥행을 예측하면서 준비 중인 신작의 출시 일정을 앞당기거나 한 달가량 연기하는 등의 조율을 거쳤다.  지난 3월 24일 출시 첫날 100만 명 이상의 이용자가 게임을 즐기면서 3D 그래픽에 자동 전투를 내세운 MMORPG 사이에서 구글플레이 매출 1위에 오르기도 했다. 넥슨은 지난 5월 1분기 실적발표 자료를 통해 '던전앤파이터' PC와 모바일 버전 간 잠식 효과(카니발리제이션)는 없다고 밝히며 2분기에 '던전앤파이터 모바일'의 매출액이 PC 대비 3.5배 이상 거둘 것으로 예상했다. 블리자드엔터테인먼트가 이달 초 출시한 '디아블로 이모탈'의 흥행도 돋보인다. 블리자드가 제작 단계부터 모바일 디바이스에 맞춰 준비한 첫 프로젝트이자 '디아블로' 시리즈 최신작이다. 사전예약 단계에서 3500만 명 이상을 모집했으며 데이터에이아이에 따르면 출시 이후 국내는 물론 85개국 앱스토어 게임 부문서 인기 1위에 올랐다.  통상적으로 수동 전투는 모바일 게이머에게 불편 요소로 꼽히나, 원작을 모바일 디바이스에 최적화하는 과정에서 적절하게 녹여내 차별화된 요소로 탈바꿈한 모습이다. ③ 크로스플레이에 경계 사라진 게임 차트PC와 모바일 디바이스 관계없이 게임을 즐길 수 있는 크로스플레이가 대중화되면서 모바일 게임 순위에 등장한 게임이 PC방 게임 순위에도 등장하는 사례가 늘었다. 게이머의 출퇴근 시간을 노렸던 모바일 게임은 점차 육성과 PvP 등 하드코어한 콘텐츠를 탑재하면서 이용자의 24시간을 요구하기 시작했고, 자연스레 모바일 디바이스의 발열, 배터리 부족 등 태생적 한계에 PC 버전의 필요성이 커졌다. 최근 이용자의 접근성과 편의성을 높이기 위해 모바일 디바이스는 물론 PC 버전을 동시에 선보이는 것이 당연시돼 가는 분위기다. 업계 관계자는 "모바일 게임 이용자 10명 중 6명은 PC 버전도 이용하고 1~2명은 PC에서 결제까지 진행하는 편"이라며 "고품질 그래픽 기술로 게임을 개발해 조작만 최적화한다면 큰 화면으로 서비스를 제공하는 데에는 부담이 없다"고 설명했다. 이에 과거 단순히 온라인 게임 IP(지식재산권)으로 제작된 모바일 게임의 흥행으로, 구글플레이 매출 순위가 PC방 차트를 연상시킨 수준을 넘어 이제는 PC방 차트에서 모바일 게임이 등장하는 사례가 크게 늘었다.  지난해 6월 출시돼 인기몰이한 '오딘: 발할라 라이징'을 비롯해 올 1월부터 서비스된 '언디셈버', 3월 공개된 '던전앤파이터 모바일', 6월 출시된 '디아블로 이모탈'이 차례로 PC방 사용시간 순위 20위 내 진입했다. ④ '유저 친화적 개발' 바람 이제는 하나의 트렌드가 된 '유저 친화적 개발'을 위한 게임사들의 움직임도 활발했다. 재미있는 게임을 소통하며 빠르게 선보이겠다는 기조 아래 소규모 게임 개발, 퍼블리싱에 나서거나 내부 개발 프로세스를 바꾸기도 했다.넥슨은 게임 서브 브랜드 민트로켓(MINTROCKET)을 론칭했다. 기존 넥슨이 선보였던 게임 방식과 관습에서 벗어나 소규모 개발진이 시장 변화에 기민하게 대응하고, 빠르게 시장에 선보여 게이머와 소통하겠다는 목표다.첫 작인 '데이브 더 다이버'의 개발을 총괄하고 있는 황재호 디렉터는 "소규모 게임으로 넥슨의 보완정책, 기술 등 게임 프로세서를 다 따르기 힘들었는데, 이번 브랜드로 자유롭게 최소한으로 간소화시켜줬다"며 "유저와 같이 게임을 만드는 것은 전반적인 트렌드"라고 밝힌 바 있다. 엔씨소프트는 출시 직전에 콘텐츠를 순차 공개하던 기존 방식에서 탈피했다. 오픈형 R&amp;D 개발 문화 엔씽(NCing)을 도입한 것이다.이에 따라 개발 단계부터 플레이 영상, 인터뷰, 소설, 웹툰 등 다양한 형태로 제작 과정을 공개하고, 피드백을 받아 게임에 녹일 예정이다. 출시 관련 주요 일정도 유저에 직접적으로 공유하겠다는 방침이다. 스마일게이트와 네오위즈는 인디 게임을 중심으로 플랫폼 사업과 투자 및 인수를 활발하게 진행하고 있다. 스마일게이트스토브는 스토브 인디와 스토브VR로 구성된 플랫폼 스토브를 운영, 300여 종의 인디 패키지 게임과 90여 종의 VR 타이틀을 서비스하고 있다. 올해에는 한발 더 나아가 모바일을 포함한 외부 게임 입점 사업에 나섰다. 네오위즈는 국내 인디 게임 개발사들이 참가하는 '방구석 인디 게임쇼' 개최는 물론, 인디 게임 퍼블리싱 및 게임사 인수로 다양한 라인업을 갖춰 나가고 있다. ⑤ 경계 없는 게임의 무한한 변신올해 상반기에도 게임의 재미를 확장하려는 게임사의 시도가 돋보였다.이미 게임 콘텐츠를 활용한 적 없는 이종산업을 찾는 것이 어려울 정도로, 의류, 생활용품, 식품, 스포츠, 자동차, 금융, 방송, 코스메틱, 엔터테인먼트 등 다방면에서 등장하고 있다.펄어비스는 대표 IP(지식재산권)인 '검은사막'으로 침대와 편의점을 엮었다. 장수산업과 손을 잡고 '검은돌침대'를 선보이고, 이마트24와 9종의 컬래버레이션 상품과 함께 팝업스토어를 열었다.컬래버레이션 상품뿐만 아니라, 공모전에 이용자의 관심을 끌기 위해 게임사와 협력하는 사례도 있었다. 티머니복지재단은 호요버스와 '대중교통 아이디어 공모전'을 열었다. '원신' 캐릭터, 명대사, 이미지 등의 IP를 접목한 2차 창작물로도 공모전 참여가 가능하고, 수상자에 호요버스 방학 인턴 참여 기회도 제공해 400건 이상 작품이 출품됐다.넥슨재단은 게임 IP를 활용한 사회공헌 프로젝트에 힘쓰고 있다. 대표 게임인 메이플스토리, 마비노기와 함께 장기 사회공헌 캠페인을 시작했고, 실험적인 예술 창작을 지원하는 프로젝트 '보더리스' 일환으로 '게임과 전통예술의 만남'을 주제로 공모전도 진행했다. 이처럼 스토리텔링, 가상 공간, 아바타, 음악 등을 모두 아우르는 게임의 확장성은 무궁무진하다. 산업은 물론, 교육과 의료 곳곳에서 '게이미피케이션'을 내세운 움직임이 활발하다. 
+						기사제공 포모스
+강미화 redigo@fomos.co.kr
+강미화 기자
+구독
+강미화 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+확률형 아이템 자율규제 미준수 게임물 19종 공개
+'고양이와 스프', 새로운 고양이 '카우' 등장
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>[창간11주년]"하반기 기대감 채워줄 신작 패키지 게임 리스트"</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 02:42</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>올해는 닌텐도의 '젤다의 전설: 브레스 오브 더 와일드'의 후속작부터 베데스다의 '스타필드'까지 보다 많은 대작 타이틀이 출시될 예정이었지만, 대부분 내년으로 출시를 연기하면서 상대적으로 기대작 타이틀이 줄었다.각 게임사는 E3 대신 자사 쇼케이스를 선보이며 하반기 출시 예정인 타이틀의 기대감을 높였다.친숙한 인기 IP 타이틀의 후속작부터 신규 IP 타이틀까지 하반기에 만나볼 수 있는 패키지 기대작 타이틀 7선을 모았다.■ 스플래툰 3 - 닌텐도 스위치시리즈 최초 한글화를 더한 팀 대전 기반의 슈팅 게임 '스플래툰 3'이 오는 9월 9일 출시된다.이 게임은 4vs4 팀 배틀로 펼쳐진다. 각 팀이 붓, 룰러 등의 무기로 페인트를 지면과 벽에 뿌려 누가 많이 칠했는지로 승부를 가리는 방식이다.상대편을 제압하는 것도 중요하지만 그보다 지면에 더욱 많은 페인트를 칠하는 것이 중요하기에 슈팅 게임에서 조준을 어려워하거나 대인전에 약한 유저라고 해도 즐길 수 있다.이번 '스플래툰 3'에서는 보다 다양해진 무기 추가로 전투의 깊이를 더했으며 새로운 보스와 맵이 더해진 PvE 콘텐츠 '새먼 런'을 담았다.■ 마블 미드나잇 선즈 - PS4, PS5, 엑스박스 원, 엑스박스 시리즈 엑스/에스, PC'엑스컴'으로 유명한 파이락시스게임즈가 오는 10월 7일 출시하는 전략 게임 '마블 미드나잇 선즈'는 마블코믹스의 대표 영웅들을 육성해 악마 릴리스와 전투를 펼친다.인기 영웅인 아이언맨, 울버린, 스파이더맨, 캡틴 아메리카, 닥터 스트레인지부터 고스트 라이더(로비 러예스), 블레이드, 매직 등 마블의 초자연적인 악당을 상대하는 영웅도 만나볼 수 있다.전투는 주어진 카드를 이용해 공격하는 턴제 방식이며 파이락시스게임즈의 깊이 있는 전술을 엿볼 수 있다. 특히, '엑스컴' 시리즈를 좋아하지만 높은 난도에 어려움을 느꼈던 유저라면 조금 더 쉽게 플레이할 수 있을 것으로 보인다.■ 포스포큰 - PS5, PC스퀘어에닉스가 신규 IP 타이틀 '포스포큰'을 10월 11일 선보인다.현실에서 이 세계로 넘어온 프레이 홀랜드의 이야기를 그린 이 게임은 빠른 속도감의 전투를 만나볼 수 있으며 화려한 마법 효과를 엿볼 수 있다.PS5 버전의 경우 레이 트레이싱 효과를 적극적으로 사용해 콘솔에서도 고품질의 그래픽을 보여줄 계획이다.또한 영화 '스타워즈: 로그원' 각본에 참여했던 게리 휘타와 너티독에서 '언차티드' 시리즈의 작가로 활동했던 에이미 헤니그 등 유명 해외 작가의 참여로 스토리의 기대감을 높이고 있다.■ 고담 나이트 - PS5, 엑스박스 원 시리즈 엑스/에스, PC오는 10월 25일 출시하는 '고담 나이트'는 배트맨의 죽음 이후 혼란한 고담시를 배트 패밀리가 지킨다는 내용을 담고 있다.레드후드, 로빈(팀 드레이크), 나이트 윙, 배트걸 4명의 캐릭터가 마련됐으며 각기 다른 능력과 플레이 스타일을 지녔다.예를 들어 레드후드는 두 정의 권총을 이용한 중거리 공격이 특징이며 나이트 윙은 두 개의 스틱을 이용해 아크로바틱한 움직임을 보여준다.1인 플레이는 물론 친구와 함께 즐길 수 있는 2인 멀티 플레이도 지원한다.■ 콜 오브 듀티: 모던 워페어 2 - PS5, 엑스박스 원 시리즈 엑스/에스, PC지난 2018년 출시됐던 '콜 오브 듀티: 모던 워페어'의 후속작이 오는 10월 28일 출시된다.약 4년 만에 돌아오는 이번 후속작에서는 보다 진보된 전투를 담았다.전작에는 존재하지 않았던 수중 전투와 차량 탈취 등 새로운 기능이 추가되며 더욱 박진감 있는 전투 환경을 구현했다.또, 향상된 AI와 모션으로 더욱 현실감 있는 '콜 오브 듀티'가 완성됐다.아울러 멀티 플레이에서도 새롭게 도입되는 기능을 모두 만나볼 수 있는 한편 전통적인 소규모 전투맵부터 탈것을 이용한 전략적인 플레이가 가능한 대형맵까지 만나볼 수 있을 예정이다.■ 포켓몬 스칼렛 &amp; 바이올렛 - 닌텐도 스위치'포켓몬 빵'의 인기에 힘입어 다시 전성기를 맞은 '포켓몬스터' 시리즈가 최신작 '포켓몬스터 스칼렛 &amp; 바이올렛'을 11월 18일 선보인다.전작인 '포켓몬 레전드 아르세우스'의 영향을 받아 이번 타이틀도 심리스 기반의 오픈 월드로 구현됐으며 이전 시리즈에 비해 조금 더 액션성이 높아진 것이 특징이다.또한 새롭게 변화된 필드에 맞춰 최대 4명의 플레이어가 함께 모험을 펼치는 신규 요소도 추가됐다.■ 칼리스토 프로토콜 - PS4, PS5, 엑스박스 원, 엑스박스 시리즈 엑스/에스, PC'배틀그라운드'로 유명한 크래프톤이 선보이는 서바이벌 호러 게임 '칼리스토 프로토콜'이 오는 12월 2일 출시된다.2330년 목성의 위성 칼리스토에서 벌어지는 생존 스토리를 담았으며 정체불명의 전염병으로 변형된 생명체로부터 살아남아 교도소를 탈출하는 내용을 담았다.게임을 제작하고 있는 글렌 스코필드 SDS 대표는 "공포의 분위기를 살리기 위해 깊이 있는 설계를 더 했으며 게임이 끝난 후에도 게이머 머릿속에 잔상이 남을 짜릿한 경험과 공포를 제공할 수 있도록 개발하고 있다"고 밝힌 바 있다.
+						기사제공 포모스
+최종봉 konako12@fomos.co.kr
+최종봉 기자
+구독
+최종봉 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종봉 기자입니다.
+3on3 프리스타일, 신규 캐릭터 '우마왕' 선봬
+대항해시대 오리진, 김영하 작가와 슈카월드 홍보 영상 공개
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>박보균 문체부 장관 "中 판호 발급·주52시간제 등 게임산업 위해 노력할 것"</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 2:41</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1일 게임업계 만나 규제 논의하는 간담회 열어박 장관 "외교부와 판호 발급 노력…게임은 질병 아냐"
+1일 한국게임산업협회에서 열린 문화체육관광부와 게임업계 간담회© 뉴스1(서울=뉴스1) 이정후 기자 = 박보균 문화체육관광부 장관은 "게임 산업의 규제를 선도적으로 혁신하고 판호 발급 확대를 위해 노력하겠다"고 말했다.1일 서울 강남구 역삼동 한국게임산업협회에서 열린 게임업계 간담회에서 박 장관은 "윤석열 정부 시대에 게임 산업은 확실하게 발전할 것"이라며 이와 같이 말했다.박 장관은 "K-콘텐츠 수출의 대부분은 K-게임"이라며 "게임이 우리 콘텐츠 수출의 70%를 차지하며 대한민국이 콘텐츠 강국이라는 존재감을 과시하고 있다"고 운을 뗐다.그러면서 "게임 산업 현장에서 필요한 인재를 키우고 기획·제작·유통의 전 과정을 문화체육관광부에서 지원하고 규제를 선도적으로 혁신하고 풀겠다"고 공언했다.박 장관은 "업계에서 요구하는 판호 발급 확대를 위해 외교부 및 경제부처와 협력해서 판호 확대를 위해 노력을 기울이겠다"고 말하며 "주 52시간제의 합리적인 운영을 위해서도 지혜롭게 대처하겠다"고 밝혔다.이어 "게임 과몰입을 질병으로 몰아가는 시선이 있지만 게임은 질병이 아니다"고 덧붙였다.그는 "이제 게임업계는 윤석열 정부 시대에 넓은 공간에서 힘차게 일하고 창작하고 또 활로를 개척하고 규제의 시달림을 받지 않도록 문화체육관광부가 노력하겠다"고 밝혔다.한편 이날 게임업계 간담회는 업계 의견을 수렴하고 규제혁신 등 정책 방향을 논의하기 위해 마련됐다. 박보균 문체부 장관을 비롯해 Δ배태근 네오위즈 대표 Δ이정헌 넥슨코리아 대표 Δ도기욱 넷마블 대표 Δ성준호 스마일게이트엔터테인먼트 대표 Δ장현국 위메이드 대표 Δ김태영 웹젠 대표 Δ조계현 카카오게임즈 대표 Δ이용국 컴투스홀딩스 대표 Δ김창한 크래프톤 대표 Δ허진영 펄어비스 대표 Δ김상호 NHN빅풋 대표 Δ안용균 엔씨소프트 전무 등 12개 기업 관계자들이 참석했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>[창간11주년]"영화로 만들어지는 게임...막 오른 미디어 믹스 경쟁"</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 02:41</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>90년대 초반 할리우드에서는 비디오 게임의 폭발적인 성장에 힘입어 게임을 기반으로 하는 영화가 다수 등장했다.1993년 '슈퍼 마리오 브라더스'를 시작으로, '더블 드래곤' '스트리트 파이터' '모탈 컴뱃' 등 지금도 게임 시장을 대표하는 IP가 영화화됐다.배급 역시 디즈니의 전신인 브에나비스타필름디스트리뷰션컴퍼니, 유니버설픽처스, 20세기폭스 등 내놓으라 하는 대형 거대 영화 배급사가 맡았다.의욕적이었던 영상화 프로젝트와 달리 결과는 참담했다. 특히, 2001년 스퀘어에닉스가 야심 차게 선보였던 영화 '파이널 판타지'는 역대급 실패를 남기며 회사마저 휘청이게 했다.그나마 2003년 앤젤리나 졸리의 '툼 레이더'가 전 세계 1억 5000만 달러(약 1945억 원)라는 흥행 기록을 세웠지만 대부분 게임 소재 영화는 비평과 관객 모두에게 외면받았으며 수익 역시 기대 이하였다.이런 풍토는 90년대를 지나 2010년대 후반까지 이어지면서 게임 원작의 영화 대부분은 '팝콘 무비'조차 못 되는 졸작이라는 인식이 생겼다.졸작과 평작 사이에서 작지만 성과를 낸 작품이 등장하기도 했다. 블리자드엔터테인먼트가 개발한 인기 타이틀인 '워크래프트' 스토리 기반 동명의 영화다.인간과 오크의 본격적인 대립을 그린 영화 '워크래프트'는 앞서 개봉됐던 수많은 게임 원작 영화와 크게 다르지는 않았지만, 중국에서 크게 흥행을 거두며 4억 3900만 달러(약 5694억 원)의 매출을 올렸다. 이는 2016년 기준 최고의 흥행을 기록한 게임 원작 영화로 남았다.게임 원작 영화에 대한 인식 변화를 가져온 영화로는 2019년 상영된 '명탐정 피카츄'를 들 수 있다. 닌텐도 3DS로 출시된 동명의 추리 어드벤처 게임을 캐주얼하게 재해석한 영화다. 4억 3000만 달러(약 5577억 원)의 수익을 올리면서 흥행에도 성공했다.이때를 기준으로 각 게임사는 자사의 IP를 이용한 영화나 드라마로 만드는 영상화 프로젝트에 관심을 보이며 실제로 큰 성과로 이어지고 있다.세가의 대표 마스코트인 '소닉'을 영화로 제작한 '슈퍼소닉'은 성공으로 시리즈를 잇고 있다. 1편이 제작비 8500만 달러(약 1101억 원)에 월드 박스오피스 3억 2000만 달러(약 4147억 원)의 수익을 거둬 성공했다.또, 2편은 개봉 첫 주 7100만 달러(약 920억 원)를 기록하며 비디오 게임 원작 영화 기준 사상 최대의 성과를 냈으며 지난 6월 20일 기준 월드 박스오피스 3억 9900만 달러(약 5170억 원)의 수익을 내고 있는 등 사실상 비디오 게임 영화 흥행을 새로 쓰고 있다.현재 가장 많은 관심을 쏟고 있는 게임사는 소니다. 플레이스테이션 브랜드 게임의 영상 제작을 위해 '플레이스테이션프로덕션'을 설립했다.이곳에서 지난 6월 선보인 실사 영화 '언차티드'는 코로나로 인한 팬더믹 기간에도 불구하고 4억 달러(약 5183억 원)의 큰 수익을 기록했으며 제작사인 소니 역시 만족할 만한 성과를 거뒀다고 밝혔다.플레이스테이션프로덕션은 영화 '언차티드'의 흥행에 힘입어 게임 '고스트 오브 쓰시마' '잭 앤 더스터' '그란 투리스모'를 영화로 제작하고 있으며 '더 라스트 오브 어스' '갓 오브 워' '호라이즌'을 드라마로 제작 중이다.게임 팬들이라면 앞으로 더 기대한 영화와 드라마가 많다. '미니언즈'로 유명한 일루미네이션즈가 닌텐도와 함께 애니메이션 영화 '슈퍼 마리오'를 선보인다. 크리스 프랫, 안야 테일러 조이, 잭 블랙, 찰리 데이 등 할리우드 유명 배우들이 목소리 연기를 맡는다.또, '용과 같이' '메탈 기어 솔리드' '포탈' '잇 테이크스 투' '철권' '악마성 드라큘라' 등 좋은 서사와 인상 깊은 캐릭터를 보여준 게임이 속속 영화와 드라마로 제작되고 있다.콘솔과 PC, 모바일에서 경쟁하던 게임사들이 이젠 플랫폼을 나와 미디어 믹스로 또 다른 경쟁을 이어가고 있는 셈이다.
+						기사제공 포모스
+최종봉 konako12@fomos.co.kr
+최종봉 기자
+구독
+최종봉 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종봉 기자입니다.
+3on3 프리스타일, 신규 캐릭터 '우마왕' 선봬
+대항해시대 오리진, 김영하 작가와 슈카월드 홍보 영상 공개
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>[창간11주년]"거대 기업만이 살아남는다...합치고 커지는 게임 업계"</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 02:40</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>게임 시장에서 경쟁이 날로 심화하고 있는 가운데 현재 가장 유효한 전략 중 하나는 몸집 불리기가 되고 있다.올해는 지금까지 게임 산업을 통틀어서 가장 큰 규모의 인수가 연이어 이어지는 추세다.올해 스타트를 끊은 것은 테이크투다. 모바일 게임사 징가를 무려 127억 달러(약 15조 원)에 달하는 금액에 인수했다. 발표 당시에는 게임 업계 역대 최대 규모의 인수 금액이다.테이크투는 인수를 통해 "콘솔과 PC에서 성과를 내는 자사와 함께 뛰어난 모바일 프렌차이즈를 지닌 젠가의 상호보완적인 비즈니스를 구축한다"고 밝혔다.테이크투의 인수 충격이 채 가시기도 전에 이번엔 마이크로소프트가 나섰다. 687억 달러(약 82조 원)에 액티비전블리자드의 인수를 결정하면서 게임 업계 최대 빅딜 기록을 세웠다.이미 지난 2020년 9월 제니맥스를 75억 달러(약 8조 7200억 원)라는 규모로 인수를 발표하면서 당분간 추가 인수는 없을 것이라는 예측을 뒤엎고 인수를 결정한 셈이다.마이크로소프트는 순식간에 제니맥스 산하 베데스다의 '폴아웃' '엘더스크롤' '스타필드'와 함께 액티비전블리자드의 '콜 오브 듀티' '월드 오브 워크래프트' '디아블로' 등 대형 IP를 소유하게 됐다.이전까지가 엑스박스 시리즈를 통한 거대 플랫폼 홀더였다면 지금은 초거대 게임 그룹으로 거듭났다.공격적인 게임사 인수 경쟁에 소니도 뛰어들었다. '데스티니' 시리즈와 '헤일로' 시리즈를 개발했던 번지스튜디오를 36억 달러(약 4조 3500억 원)에 인수했다.앞서 발표된 인수에 비해 금액 자체는 적지만 경쟁사인 마이크로소프트와 함께 일한 바 있는 개발사를 인수했다는 상징적인 측면도 고려하면 인상 깊은 인수라고 볼 수 있다.소니는 번지스튜디오 외에도 리메이크 '완다와 거상'과 '데몬즈 소울'을 개발한 블루포인트게임즈와 함께 '리터널' 개발사 하우스마퀴, 세계 격투 게임 e스포츠 대회인 '에보'도 인수한 바 있어 자산의 브랜드에 도움이 될 게임사 및 행사를 소유하게 됐다.약 10년이 넘어도 있을까 말까 한 거대 인수가 올해에만 벌써 3건이나 이어진 것은 게임 시장의 흐름이 바뀌고 있다는 것을 시사한다.기존 게임 업계는 각자가 게임을 만들어 출시하는 단순한 과정이었다. 팬들에게 사랑받은 게임을 만들고 이를 출시해 얻은 이익으로 다음 작품을 준비하는 단순한 구조였다.하지만 이제는 게임 외에 시장과도 경쟁을 이어가야 하는 시대가 됐다. OTT 서비스 업체인 넷플릭스가 경쟁사를 같은 서비스를 하는 HBO가 아닌 '포트나이트'로 꼽은 점도 같은 이유다.쏟아지는 미디어와 엔터테인먼트의 홍수 속에서 소비자인 유저가 게임을 기억하고 찾기 위해서는 거대 기업조차 지금보다 더 몸집을 불리는 것이 생존에 유리하다는 것을 깨달은 셈이다.아울러 또 하나의 이유는 게임 업계가 단순히 상품을 판매하는 것을 넘어 이제는 서비스의 영역이 중요해지고 있다는 것이다.마이크로소프트는 자사의 구독 서비스인 '게임패스'를 콘솔과 PC뿐만 아니라 클라우드 게이밍을 통해 모바일 기기나 가정용 TV에서도 선보이고 있다.지금까지 기기 경쟁에 나섰던 콘솔 플랫폼의 시장 전략과는 전혀 다른 방향을 뜻한다. 양질의 타이틀 출시를 관리하고 자유롭게 서비스하기 위해서는 산하 개발사 관리가 용이해야 하기에 적극적으로 게임 인수에 열을 올리고 있는 이유다.이런 전략에 경쟁사인 소니 역시 위기감을 느끼고 최근에는 자사의 게임 구독 서비스인 '플레이스테이션 플러스'의 대대적인 등급 개편과 타이틀 제공 수를 늘렸다.이미 '슈퍼 마리오' '포켓몬스터' '젤다의 전설' 등 독보적인 IP를 보유하고 있는 닌텐도는 상황이 다르지만 적어도 그 외의 게임사들은 인기 IP를 자사 소유로 두는 것이 그 어느 때보다 필요한 시점이다.폭풍 같은 게임 업계 인수 소식이 지나가고 어느새 2022년도 절반이 지나갔다.올해 게이머는 물론 업계 관계자를 놀라게 할 인수가 더 남아있을지는 미지수지만 게임 업계는 거대 게임사 혹은 플랫폼 홀더를 중심으로 재편성되고 있다.현재 '승자독식'이 플랫폼 경쟁에 있어 가장 유효한 전략인 이상 인수를 통해 거대 기업을 넘어 초거대 게임 그룹으로 성장을 도모하는 추세는 당분간 이어질 것이다.
+						기사제공 포모스
+최종봉 konako12@fomos.co.kr
+최종봉 기자
+구독
+최종봉 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종봉 기자입니다.
+3on3 프리스타일, 신규 캐릭터 '우마왕' 선봬
+대항해시대 오리진, 김영하 작가와 슈카월드 홍보 영상 공개
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>[창간11주년]"경계 없는 게임 플랫폼의 시대가 온다"</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 02:40</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>불과 몇 년 전까지만 해도 게임별 플랫폼의 영역은 확실했다.콘솔은 드라마틱한 연출과 장대한 스토리를 담은 싱글 게임을 제공하는 플랫폼이라는 인식이 강했으며 모바일은 가볍게 짬을 내서 즐기는 게임에 어울리는 플랫폼이라고 여겼다.각자의 플랫폼 영역에서 발전해온 것이 지금까지 게임업계의 흐름이었다. 이런 흐름이 지금은 기술의 발전과 함께 조금씩 변화하는 듯한 움직임이다.먼저 더 이상 플랫폼에 구애받지 않고 인터넷에 연결만 되어 있다면 고품질의 그래픽으로 게임을 즐길 수 있는 클라우드 게이밍이 시장에 안착했다.가장 의욕적으로 이를 서비스하고 있는 곳은 역시 마이크로소프트다. 현재 마이크로소프트의 엑스박스는 자사의 게임 구독 서비스인 게임패스를 기반으로 양질의 게임을 제공 중이다.특히, 게임패스의 얼티밋 등급을 이용하면 노트북, 모바일, 태블릿PC 등에서 '헤일로 인피니트' '포르자 호라이즌 5'와 같은 마이크로소프트 스튜디오 타이틀은 물론 '용과 같이' 시리즈 '어몽어스' '배틀필드' 시리즈 등을 즐기는 것도 가능하다.외부에서 모바일로 게임을 플레이하다가 집에 돌아와서는 그대로 엑스박스 콘솔로 이어서 진행할 수 있는 장점을 지녔다.또, 최근엔 삼성과의 협업을 통해 2022년 삼성 TV에서는 별도의 콘솔 없이 게임패스 앱으로 클라우드 게임을 즐길 수 있게 됐다.타 플랫폼 홀더와 달리 유연한 게임 플레이 환경을 구성한 점은 현재 엑스박스 브랜드에 있어 가장 큰 장점으로 꼽힌다.마이크로소프트가 클라우드 게임을 통해 플랫폼에 구애받지 않고 게임을 즐길 수 있도록 서비스를 이어가고 있다면 기존 게임사도 출시 당시부터 플랫폼 확장을 염두에 두고 출시하고 있다.특히, 모바일 게임을 주로 선보인 게임사들은 최근 PC 플랫폼으로의 확장에 대한 관심이 뜨겁다.기존 모바일 게임은 게임 콘텐츠를 즐기는 데 많은 시간을 쏟지 않게 제작했지만, 점차 유저들의 니즈와 함께 제작사가 더욱 많은 콘텐츠를 제공하기 시작하면서 플레이 타임 역시 늘게 됐다.장시간 플레이하다 보니 조금 더 편하게 게임을 즐기고 싶다는 유저의 니즈도 강해지면서 자연스럽게 PC 버전의 중요성이 부각됐다.블루스택과 녹스와 같은 안드로이드 PC 에뮬레이터의 인기도 유저의 니즈에 기반한다. 다만 이런 식의 에뮬레이터는 아무래도 제작사가 직접 최적화를 거쳐 출시하는 방식은 아니기에 업데이트 대응에 느리거나 혹은 높은 PC 사양을 요구한다.보다 쾌적한 플레이를 위해 모바일 게임사들은 직접 제작한 PC 버전을 선보이고 있으며 유저들의 반응 역시 호의적이다.넷마블이 서비스하는 모바일 게임 '제2의나라'의 경우 PC 버전에서는 고품질의 그래픽으로 즐길 수 있는 것은 물론 클라이언트 역시 안정적이기에 자동사냥 콘텐츠에서는 오히려 모바일보다 탁월하다는 평이다.또, 최근에 출시된 블리자드의 '디아블로 이모탈'도 모바일 버전 출시와 함께 PC 버전을 베타로 선보였다.로드 퍼거슨 디아블로 프렌차이즈 제너럴 매니저는 "지난 테스트 기간 PC에서 게임을 하고 싶다는 유저의 의견을 받아 좀 더 완전한 경험을 제공하고자 PC 버전을 선택하게 됐다"며 지원 배경을 말했다.호요버스가 서비스하는 '원신'의 경우 PC 버전 외에도 PS4와 PS5 버전도 출시했다. 콘솔에서는 고품질 그래픽을 즐길 수 있는 등 플랫폼 성능을 적극적으로 활용한 기능이 돋보였다.다만 아쉬운 점도 있다. 아직은 시도하는 단계이기에 완성도 면에서 부족하다는 인상이다. PC 버전임에도 불구하고 모바일 인터페이스를 단순히 옮긴 듯한 인상을 주기도 한다.PC에는 PC에 어울리는 인터페이스가 요구되며 모바일보다 향상된 해상도와 그래픽 옵션을 제공하는 등 보완해야 요소가 많다.모바일 게임사가 플랫폼 확장을 꾀하고 있는 가운데 전통의 콘솔 게임사 역시 PC로의 출시를 확장하고 있다.소니의 퍼스트 파티 타이틀은 플레이스테이션 독점이라는 인식이 강했지만 지금은 속속 PC로 이식을 발표했다.독점 타이틀을 유지하며 플레이스테이션 브랜드를 견고하게 다지는 것도 중요하지만 PC로 출시 플랫폼을 확장해 더욱 많은 유저를 끌어오겠다는 전략으로 분석된다.콘솔과 PC 플랫폼이 양분하고 있던 게임 시장에 모바일이 성장하며 3개의 체제로 굳혀졌던 약 10년 전 게임시장과 달리 지금은 서로의 영역에 구분 없이 보다 많은 유저가 게임을 접하는 것을 목표로 하는 셈이다.경계 없는 플랫폼의 시대에서 결국 미소 지을 기회는 탄탄한 게임성을 기반으로 유연하게 플랫폼을 전개할 수 있는 기술력을 갖춘 회사에 돌아갈 것이다.
+						기사제공 포모스
+최종봉 konako12@fomos.co.kr
+최종봉 기자
+구독
+최종봉 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종봉 기자입니다.
+3on3 프리스타일, 신규 캐릭터 '우마왕' 선봬
+대항해시대 오리진, 김영하 작가와 슈카월드 홍보 영상 공개
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>게임계 만난 문체부장관 "게임은 질병 아냐…규제 풀겠다"</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 2:39</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>박보균 장관 "중국 판호 발급 확대 노력·주 52시간 근로 합리적 운영"
+문화체육관광부 장관 게임업계 소통 간담회    (서울=연합뉴스) 김주환 기자 = 1일 서울 강남구 한국게임산업협회에서 열린 게임업계 소통 간담회에 참석한 박보균 문화체육관광부 장관과 게임계 관계자들이 기념 촬영을 하고 있다. 2022.7.1 jujuk@yna.co.kr    (서울=연합뉴스) 김주환 기자 = 박보균 문화체육관광부(문체부) 장관이 취임 이후 처음으로 게임 업계 관계자들을 만난 자리에서 "게임은 질병이 아니다"라며 업계의 규제를 혁신하고 풀겠다고 약속했다.    박 장관은 1일 서울 강남구 한국게임산업협회에서 열린 간담회 모두발언에서 "게임은 늘 편견과 오해에 시달려왔다. 게임 과몰입을 질병으로 몰아가는 시선이 엄존한다"며 이런 뜻을 밝혔다.    이날 간담회에는 강신철 한국게임산업협회장, 황성익 한국모바일게임협회장, 정석희 한국게임개발자협회장, 윤상규 한국VR·AR콘텐츠진흥협회장, 게임산업협회 부회장사를 맡은 12개 게임 업체 대표 및 임원급이 참석했다.    박 장관은 "K-콘텐츠라면 방탄소년단(BTS)나 '오징어 게임' 등을 떠올리는데, 글로벌 장악력을 따지면 단연 게임이 맨 앞에 있다"고 말했다.    그러면서 "세계 게임시장 경쟁에서 필요한 인재를 키우고, 기획·제작·유통 전 과정을 문체부에서 지원하겠다. 규제를 선도적으로 혁신하고 풀겠다"고 약속했다.    또 "업계에서 요구하는 중국의 판호 발급 확대를 위해 외교부, 경제 부처와 협력해 특별한 노력을 기울이겠다"며 "주 52시간제의 합리적인 운영을 위해 지혜롭게 대처하겠다"고도 덧붙였다.    jujuk@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>"연봉 1200만원 인상이 독 됐다"…베스파, 전직원 권고사직</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 2:29</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>[지난달 30일 재직자 105명에 권고사직 통보설립멤버 등만 남고 대부분 퇴사 수순 밟을 듯무리한 인건비 인상 등으로 자본잠식 빠져 실력에 따라 개발자 몸값 '세분화'될 듯]
+1일 서울 강남구 베스파 본사. 하루 전인 지난 6월 30일 전 직원이 권고사직 통보를 받으며 대부분 직원이 출근하지 않아 사무실엔 불이 꺼져있다. /사진=배한님 기자1일 오전 서울 강남구에 위치한 베스파 본사 사무실은 평일 오전임에도 대부분 불이 꺼진 채 굳게 잠겨 있었다. 하루 전인 지난달 30일, 베스파가 전 직원에게 권고사직을 통보했기 때문이다. 베스파는 9층 건물에서 2층과 4~9층, 총 7개 층을 사용하는데, 사람이 오가는 곳은 경영지원실이 위치한 9층뿐이었다. 적막감 속에 자리를 지키는 직원은 거의 없었다. 불 꺼진 로비에는 2020년과 2021년에 받은 '대한민국 일자리 으뜸기업' 대통령 표창이 걸려 있었다.이날 출근한 한 직원은 "권고사직 통보를 받았지만 당장 중단할 수 없는 업무를 하고 있어 회사에 나와야 했다"고 밝혔다. 베스파가 운영 중인 게임 '킹스레이드'와 '타임 디펜더스'를 플레이하는 유저가 있기 때문이다. 지난달 월급조차 받을 수 있을지 모르는 상태에서 일해야 하는 직원은 씁쓸한 표정으로 옥상에 올라 담배를 태웠다. ━경영난에 투자 유치까지 실패…임금 지급도 어려워━
+서울 강남구에 위치한 베스파 본사 건물 안내도. 베스파는 총 9층짜리 건물에서 2층과 4~9층을 사용하고 있는데, 이날 7~9층 일부에만 불이 켜졌다. /사진=배한님 기자김진수 베스파 대표는 지난달 30일 회사 전직원을 모아놓고 "(5일 지급 예정인) 6월 급여는 지연지급이 불가피하게 됐다"며 "투자 유치도 하려고 노력했으나 사정이 어렵게 돼 미안하다"며 권고사직을 통보했다. 지난달 29일 진행 중이던 마지막 투자 유치 건이 틀어지면서 임직원의 월급조차 지급할 수 없게 됐기 때문이다. 퇴직금마저 당장 주기 어려운 상황이다. 베스파는 2017년 '킹스레이드' 흥행에 성공하며 연간 1000억원 넘게 벌어들였고, 2018년 코스닥 입성에도 성공했다. 그러나 2019년부터 적자전환하며 하락세를 겪은 데다, 신작부재·투자유치 실패 등으로 경영난에 빠졌다. 지난 4월 신작 '타임 디펜더스'를 출시했지만, 흥행에 실패하며 투자 비용도 회수하지 못했다. 2020년 말 349명이었던 임직원도 2021년 말 191명, 2022년 1분기 148명으로 지속 감소했다. 베스파 관계자는 "투자로 비용이 과다하게 집행되면서 실적이 급감했고, 두 번 정도 인원 조정을 했다"며 "자본잠식으로 감사가 거절되자 주식 거래가 정지됐고, 게임 경기도 좋지 않다 보니 투자까지 어려워 악순환이 이어졌다"고 설명했다. 권고사직 통보 당시 베스파 재직자는 105명이다. 이들 중 설립멤버나 핵심 개발자를 제외하고 대부분 퇴사 수순을 밟을 전망이다. 김 대표는 앞으로 2주간 구성원과 퇴직 면담을 진행할 예정이다. 베스파 관계자는 "10~20% 미만이 남지 않을까 생각한다"고 전했다. 대부분 임직원을 내보내지만, 베스파는 폐업을 고려하지는 않고 있다. 자본을 매각하고 임직원 규모를 축소해 사업 안정화를 꾀하겠다는 것이다. 회사 관계자는 "현재 운영 중인 게임 2종 킹스레이드와 타임 디펜더스 서비스는 계속 진행할 것이며, 현재 개발 중인 킹스레이드 2(가칭)는 빠르면 올해 늦으면 내년 초 런칭할 것"이라고 강조했다. ━무리한 연봉 인상에 비용 급상승…'번 레이트' 계산 실패━
+베스파 CI. /사진=베스파업계는 베스파가 제대로 비용 계산을 하지 않고 무리하게 개발자 연봉을 인상한 부분이 결정적인 패착이라고 분석한다. 지난해 언택트 붐으로 ICT 경기가 급성장하면서 개발자 수급이 부족해지자 인건비도 덩달아 수직상승했다. 이에 베스파도 대규모 인력 유출을 막기 위해 지난해 3월 전 직원 연봉을 일괄 1200만원씩 인상했다. 당시 넥슨과 넷마블이 일괄 800만원, 게임빌과 컴투스, 스마일게이트가 평균 800만원, 엔씨소프트와 크래프톤이 개발직군 연봉을 각각 1300만원과 2000만원씩 올렸다. 중소 게임개발사인 베스파가 대형 게임사에 맞춰 임금을 끌어올리자 당시 업계는 우려의 눈길을 보내기도 했다. 업계는 베스파의 전 직원 권고사직이 '번 레이트(경비 지출 속도)' 계산 실패의 위험성을 보여주는 사례라고 지적한다. 넷마블·컴투스 등이 인건비 여파로 적자를 기록했고, 네이버(NAVER)와 카카오조차 인건비 상승으로 지난해 '어닝쇼크'를 겪었는데, 스타트업 또는 중소기업은 베스파처럼 더 큰 타격을 입을 수 있다는 뜻이다. 투자업계 관계자는 "통상 번 레이트를 계산해 24~30개월 치 잔고를 확보해 놔야 한다고 하는데, 베스파는 그 기간을 너무 짧게 잡았다"며 "재무적 판단에 실패하면 회사가 어떤 결과를 맞게 되는지 업계에 경종을 울린 사건"이라고 설명했다. 또 다른 업계 관계자는 "최근 한 대기업이 반도체 개발자 몸값을 크게 올려 중소기업들이 인건비 문제로 허덕이고 있다 들었다"며 "여기저기서 베스파와 같은 시한폭탄이 곧 터질 수 있다는 이야기가 나온다"고 했다. ━개발자 몸값 '옥석가리기' 들어갈 듯━
+/사진=게티이미지뱅크일각에서는 베스파 사태가 개발자 임금이 조정되는 계기가 될 것이라는 관측도 나온다. 지난해와 같이 실력이나 경력 유무를 가리지 않고 개발자를 채용하는 시절은 끝났다는 것. ICT 호황기가 끝나며 기업뿐만 아니라 개발자도 옥석가리기를 하게 될 것이란 뜻이다. ICT 업계 호황기가 가시면서 사업 비용에서 가장 큰 비중을 차지하고 있는 '인건비'를 줄여야 할 시기가 오고 있어서다.실제로 네이버는 지난 4월 1분기 실적발표에서 채용 정책을 코로나 이전과 비슷한 수준으로 관리할 계획이라고 밝혔고, 카카오에서도 채용 규모를 줄여야 하는 것 아니냐는 내부 목소리가 나오는 것으로 전해진다. 게임업계도 지난해와 같은 대규모 채용을 진행하지는 않을 전망이다. 해외에서도 메타(페이스북)와 아마존이 신규 채용을 중단했고, 넷플릭스도 올해만 벌써 두 번 대규모 정리해고를 단행했다. 한 벤처캐피탈 업계 VC 관계자는 "코로나 특수로 실력과 관계없이 개발자 몸값이 올랐는데, 이제부터는 성과가 제대로 나오지 않는 개발자들은 연봉이 떨어질 가능성도 높다"고 지적했다. 다만, 실력있는 개발자는 '모셔가기' 경쟁은 여전할 전망이다.  디지털 전환이 지속되는 상황에서 개발 수요는 줄지 않았기 때문이다. 이는 개발자 연봉이 다같이 줄어드는 것이 아니라 실력 유무에 따라 연봉 구간이 세분화될 것이란 의미다. 한 게임업계 관계자는 "베스파 개발자 중 일부 실력있는 개발자는 이번 기회에 몸값을 올려 이직하게 될 것"이라고 내다봤다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>게임업계 만난 박보균 장관 "주52제 합리적 운영·中 판호 늘릴 것"</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 2:27</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>게임 질병코드 국내 도입 차단 시사…게임업계 CEO 등 16인 참석
+박보균 문화체육관광부 장관이 1일 게임산업협회에서 게임업계 CEO들과 간담회를 진행했다. [사진=문영수 기자]박보균 문화체육관광부 장관이 주52시간제도의 합리적 운영과 중국 판호 발급 확대를 위한 노력을 이어가겠다고 강조했다. 게임의 질병코드 국내 도입을 막겠다는 뜻도 시사했다.박보균 장관은 1일 오후 2시 한국게임산업협회에서 열린 게임업계 간담회 모두발언에서 "윤석열 정부 시대 게임산업의 공간은 넓게 펼쳐지면서 확실하게 발전할 것"이라며 이같이 말했다.그는 "문화 예술 작품은 작가의 창의력과 기량, 고뇌와 열정의 산물로 게임 역시 그러한 독창성과 상상력 속에서 생산된 문화"라며 "게임에서 펼쳐지는 영상미는 탁월하고 음악은 경쾌하면서 때로는 장엄하다. 게임 속 스토리텔링은 대중의 감수성을 자극하고 매력에 빠지게 한다"고 평가했다.이어 "K-콘텐츠라면 BTS, 오징어게임 등을 떠올리지만 K-콘텐츠의 글로벌 역량은 단연 게임이 가장 앞선다"며 "K-게임은 우리 콘텐츠 수출액 70%를 차지하는 등 존재감을 과시하고 있다"고 했다.아울러 "세계 게임 시장은 무한 경쟁의 격전지로 게임을 개발자들의 본능은 도전과 독창, 개척 정신이다. 이러한 본능을 펼칠 수 있도록 저희는 정책으로 뒷받침할 생각"이라며 "인공지능, 클라우드, 블록체인은 4차산업혁명의 간판 기술로 이러한 기술은 이미 게임에서 작동하고 있다"고 덧붙였다.박 장관은 그러면서 "윤석열 정부 시대에 게임의 공간은 넓게 펼쳐지면서 게임산업은 확실하게 발전할 것"이라며 "현장에서 필요한 인재를 키우고 기획·제작·유통 전 과정을 저희 문화체육관광부에서 지원하겠다. 규제를 선도적으로 혁신하고 풀겠다. 업계에서 요구하는 중국 판호 확대를 위해 외교부 및 경제부처와 협력하는 노력을 기울이겠다"고 약속했다.아울러 "주52시간제의 합리적인 운영을 위해 지혜롭게 이 분야를 대처하겠다"며 "게임 과몰입을 질병으로 몰아가는 시선이 있다. 하지만 게임은 질병이 아니다. 지혜롭게 대처하겠다. 게임업계 분들도 이용자들의 신뢰 회복을 위한 노력도 필요하다"고도 강조했다한편 이날 간담회에는 강신철 한국게임산업협회 회장, 황성익 한국모바일게임협회 회장, 정석희 한국게임개발자협회 회장, 윤상규 한국VR·AR콘텐츠진흥협회 회장을 비롯해 배태근 네오위즈 대표, 이정헌 넥슨코리아 대표, 도기욱 넷마블 대표, 성준호 스마일게이트엔터테인먼트 대표, 장현국 위메이드 대표, 김태영 웹젠 대표, 조계현 카카오게임즈 대표, 이용국 컴투스홀딩스 대표, 김창한 크래프톤 대표, 허진영 펄어비스 대표, 김상호 NHN빅풋 대표, 안용균 엔씨소프트 전무까지 총 16명이 참석했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>넷마블, 2022년 2분기 ‘대한민국 100대 브랜드’ 선정</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 2:06</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>[OSEN=고용준 기자] 오는 28일 최대 기대작 ‘세븐나이츠 레볼루션’ 출시로 하반기 성장이 기대되고 있는 넷마블이 2022년 2분기 대한믹국 100브랜드에 선정됐다. 순위는 지난 분기 대비 한 계단 상승한 46위를 기록했다. 넷마블은 1일 브랜드가치 평가 회사 브랜드스탁에서 발표한 2022년 2분기 ‘대한민국 100대 브랜드’에 선정됐다고 밝혔다.대한민국 100대 브랜드는 특허 받은 브랜드 가치 평가 모델 BSTI(Brand Stock Top Index)를 기반으로 국내 230여 개 주요 산업 부문의 1000여 개 브랜드 중 가장 점수가 높은 상위 100개 브랜드를 선정한다.브랜드스탁 회원 17만 명이 참여한 이번 조사에서 넷마블은 BSTI 총 849.3점을 얻어 전 분기 대비 한 계단 상승한 46위를 기록했다. 브랜드주가지수는 608.3점(700점 만점), 소비자 조사지수는 241.0점(300점 만점)을 받았다.브랜드스탁은 “‘넷마블 프로야구 2022’에 이어 2분기에는 ‘제2의 나라(글로벌)’와 ‘머지 쿵야 아일랜드’를 시장에 순차적으로 선보이며 비교적 안정적인 운영을 펼쳐온 것이 넷마블 브랜드 가치 상승의 요인”이라고 평가했다.넷마블 관계자는 “오는 7월 28일 자체 IP 강화 전략의 최전선에 있는 기대작 ‘세븐나이츠 레볼루션’을 출시할 예정이고, 블록체인과 메타버스 등 신사업 부문에서도 선전을 기대하고 있다”며 “하반기에는 ‘모두의 마블:메타월드’와 ‘오버프라임’ 등 다양한 신작들을 통해 브랜드 가치 향상에 집중하겠다”고 밝혔다.한편, 이번 조사에서 계열사인 ‘코웨이’도 전체 34위를 기록, 넷마블과 코웨이 양사가 나란히 톱50 자리를 지켰다. / scrapper@osen.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>펄어비스, ‘검은사막’ 이용자 목소리 듣는다…‘VOA 서울’ 개최</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 2:05</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>16일 서울 웨이브 아트센터에 총 100명 초청
+ 펄어비스(대표 허진영)는 PC·콘솔 ‘검은사막’의 이용자 행사 ‘보이스 오브 어드벤처러스 서울(VOA 서울’을 오는 16일 개최한다고 1일 밝혔다.‘VOA’는 펄어비스가 전 세계 검은사막 이용자들을 직접 찾아가 만나는 행사다. 전 세계에 검은사막을 직접 서비스하고 있는 펄어비스가 세계 각국의 이용자들을 만나고 직접 목소리를 듣는다는 취지로 마련했다.펄어비스는 이번 한국 행사에 앞서 올해 미국과 일본 이용자를 만나는 ‘VOA’를 진행했다. 특히 북미 이용자와는 ‘펍(PUB)’에서 ‘검은사막 운영진’이 함께 자유로운 분위기 속에서 행사를 즐겼다.‘VOA 서울’은 코로나 팬데믹으로 인해 2019년 12월 ‘칼페온 연회’ 이후 한국에서 처음으로 열리는 오프라인 이벤트다. 16일 오후 6시 서울 웨이브 아트센터에서 개최되며 참가를 원하는 이용자는 검은사막 공식 홈페이지를 통해 7월 3일까지 신청할 수 있다. ‘검은사막’ PC와 콘솔 계정을 보유한 이용자 모두 참여할 수 있으며 총 100명을 선정할 계획이다.펄어비스는 이번 ‘VOA 서울’를 통해 검은사막 이용자 소통 행사, 만찬 등의 프로그램을 선보일 예정이다. 북미, 일본, 한국에 이어 앞으로도 ‘VOA’ 행사를 지속할 방침이다.펄어비스는 ‘검은사막’ 이용자와의 소통에 힘쓰고 있다. 2019년 5월 국내 직접 서비스 시작을 기념해 마련한 여름 ‘하이델 연회’와 연말 ‘칼페온 연회’ 등 매년 두 차례의 대규모 이용자 행사를 개최하고 있다. 코로나 팬데믹 이후에는 온라인으로 행사를 전환해 전 세계 이용자들이 함께 즐기는 행사로 진행했다. ‘VOA 서울’ 행사 이후 9월 중 검은사막 글로벌 이용자를 위한 ‘하이델 연회’도 추가 개최할 계획이다.이외에도 이용자들을 직접 초청해서 만나는 행사 ‘meet&amp;greet’을 운영 중이며 검은사막 공식 유튜브를 통해 이용자들을 만나는 ‘검팡맨’, 심야 시간에 이용자들과 온라인을 통해 실시간으로 목소리를 듣고 소통하는 ‘심야토크’ 등을 지속하고 있다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>넷마블 ‘모두의마블’, 신규 맵 ‘드론마스터즈’ 등장…전략 재미 ‘강화’</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 2:05</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>넷마블(대표 권영식, 도기욱)은 모바일 캐주얼 보드게임 ‘모두의마블’에 신규 맵 ‘드론 마스터즈’를 추가했다고 1일 밝혔다.새롭게 공개된 ‘드론 마스터즈’는 보드판 위 모서리 블록 기능이 강화된 맵이다. 각 모서리 블록 도착 시 특정 라인 내 상대 설치물을 전부 철거할 수 있는 ‘슈퍼 올림픽’, 무인도 위치를 변경할 수 있는 ‘슈퍼 무인도’, 도착 즉시 원하는 지역으로 이동 가능한 ‘슈퍼 세계여행’ 등의 기능을 활용할 수 있는 것이 특징이다.특히 출발지를 지날 때마다 월급 획득량이 증가하고 특수 블록 도착 시 상대 공격과 해로운 스킬 효과를 방어할 수 있는 ‘방어 드론’ 또는 ‘내 땅 &amp; 라인 이동’ 중 하나를 선택할 수 있어 전략의 재미가 강화됐다.이와 함께 해파리 소환수를 활용해 상대 보유 자산을 빼앗는 신규 캐릭터 ‘진화 엘린’을 공개했다. 캐릭터에 여러 보석 덱을 장착해 원하는 보석 조합을 선택해 교체할 수 있는 ‘보석 덱 시스템’과 코스튬에 관한 모든 정보를 한눈에 확인할 수 있는 ‘코스튬 도감’ 등도 도입했다.넷마블은 매일 게임에 접속만해도 최대 ‘8000 다이아’를 획득할 수 있는 다이아 광산도 개방했다. 미션 달성 시 ‘진화 가이아’와 ‘각성 행운아이템 4종’을 모두 제공하는 이벤트도 실시한다. ‘모두의마블’은 주사위를 굴려 보드판의 캐릭터를 움직이고 전 세계 도시를 사고파는 방식의 게임이다. 독점 승리와 올림픽 개최 등의 재미 요소를 통해 꾸준한 인기를 얻고 있다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>폴가이즈 무료 출시 기념해 포트나이트와 크로스 이벤트 진행</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 01:49</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>에픽게임즈코리아는 액션 게임 '폴가이즈'를 플레이하면 게임내 화폐와 '포트나이트' 아이템을 얻을 수 있는 크라운 클래시 크로스 이벤트를 오는 11일까지 진행한다.'폴가이즈' 무료 출시를 기념해 마련된 이번 이벤트는 게이머가 이벤트 기간 동안 게임 내 미니 게임 라운드를 10회, 20회, 40회, 70회, 100회 플레이할 시 '폴가이즈' 게임 화폐 쿠도스를 총 3800개까지 단계별로 획득할 수 있는 내용이다. 이와 동시에 '포트나이트'에서도 역시 단계 별로 플랩잭스 스프레이, 사랑의 팬케이크 이모티콘, 시럽 뿌린 팬케이크 곡괭이, 와플 기계 등 장신구, 맨케이크 소령 의상 등 다양한 아이템을 제공한다.한편, 폴가이즈는 지난 21일 무료 서비스 전환 이후 48시간 만에 플레이어 수 2000만 명을 돌파하기도 했다. 무료화를 맞아 시즌1 우리 모두 무료 플레이로 새롭게 시작한 폴가이즈는 스피드 서킷, 블라스트 공, 통통 튀는 바닥, 폴가이즈 배구 등 라운드와 장애물을 추가했다.
+기사제공 포모스
+최종배 jovia@fomos.co.kr
+최종배 기자
+구독
+최종배 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종배 기자입니다.
+모바일 RPG '판타지 삼국', 사전등록 시작
+'포켓몬 고', 피카츄 대량 발생 오프라인 이벤트 열려
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>'모두의마블', 드론 마스터즈 맵 업데이트</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 01:49</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>넷마블은 모바일 보드 게임 '모두의마블'에 드론 마스터즈 맵을 추가하는 업데이트를 실시했다. 드론 마스터즈 맵은 보드판 위 모서리 블록 기능이 강화된 맵으로, 각 모서리 블록 도착 시 특정 라인 내 상대 설치물을 전부 철거할 수 있는 슈퍼 올림픽, 무인도 위치를 변경할 수 있는 슈퍼 무인도, 도착 즉시 원하는 지역으로 이동 가능한 슈퍼 세계여행 등의 기능을 활용할 수 있는 것이 특징이다.특히 출발지를 지날 때마다 월급 획득량이 증가하고, 특수 블록 도착 시 상대 공격과 해로운 스킬 효과를 방어할 수 있는 방어 드론 또는 내 땅 &amp; 라인 이동 중 하나를 선택할 수 있어 게임 내내 흥미로운 전략 대결이 펼쳐진다.이와 함께 해파리 소환수를 활용해 상대 보유 자산을 빼앗는 캐릭터 진화 엘린을 공개했다. 또, 캐릭터에 여러 보석 덱을 장착해두고 원하는 보석 조합을 선택해 교체할 수 있는 보석 덱 시스템과 코스튬에 관한 모든 정보를 한 눈에 확인할 수 있는 코스튬 도감 등을 추가했다.
+						기사제공 포모스
+최종배 jovia@fomos.co.kr
+최종배 기자
+구독
+최종배 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종배 기자입니다.
+모바일 RPG '판타지 삼국', 사전등록 시작
+'포켓몬 고', 피카츄 대량 발생 오프라인 이벤트 열려
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>'고양이와 스프', 르아위와 컬래버레이션 의류 출시</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 01:49</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>네오위즈는 하이디어가 개발한 모바일 게임 '고양이와 스프'와 패션 브랜드 르아위의 컬래버레이션 의류를 선보인다.르아위는 예술과 패션의 조화로움을 토대로 문화를 제안하는 패션 브랜드이다. 매 시즌 예술가들과의 컬래버레이션으로 상품을 출시하고 이들의 성장을 지원하고 있다.이번 협업으로 티셔츠와 져지, 피케 티셔츠를 포함한 상의와 반바지, 볼캡 등 40여 종의 여름 시즌 의류들로 구성됐다. 귀엽고 아기자기한 동화풍의 일러스트를 갖춘 '고양이와 스프' 게임 캐릭터를 활용한 디자인으로 포인트를 살린 것이 특징이다. 콜라보 제품들은 무신사를 시작으로 지그재그와 에이블리, 아마존 등 국내/외 온라인 쇼핑 플랫폼에서 선보일 예정이며 에이랜드와 원더 플레이스 등 패션 편집숍에서도 판매된다.
+						기사제공 포모스
+최종배 jovia@fomos.co.kr
+최종배 기자
+구독
+최종배 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종배 기자입니다.
+모바일 RPG '판타지 삼국', 사전등록 시작
+'포켓몬 고', 피카츄 대량 발생 오프라인 이벤트 열려
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>나이언틱, 게임에 소셜 체험 더하는 소셜 앱 '캠프파이어' 출시</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 01:49</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>나이언틱은 자사 게임에서 소셜 체험을 강화하고, 프렌드 기능을 관리할 수 있는 소셜 앱 '캠프파이어'를 출시한다.'캠프파이어'는 게이머 근방 지역을 동적 맵으로 구현해 지역 커뮤니티와 주변 플레이어들의 활동을 확인할 수 있다.특히 핵심 기능 중 하나인 커뮤니티 기능은 근처 지역 커뮤니티를 확인해 다른 플레이어를 찾거나 새로운 커뮤니티에 가입해 이벤트에 함께 참여할 수 있어 지역 소셜 앱의 역할도 수행하게 된다.또, 모든 나이언틱 게임의 친구를 한번에 추가하고 관리할 수 있으며 다이렉트/그룹 메시지 기능으로 친구들에게 체육관, 레이드배틀 참여 정보를 실시간으로 나누고 위치를 표시할 수도 있다.이 밖에 플레어 기능을 지원해 맵의 특정 장소에서 이를 본 다른 사람들이 모이도록 독려하는 알림으로도 활용이 가능하다.'캠프파이어'는 출시에 앞서 수개월 동안 일부 '인그레스' 게이머 대상으로 베타 테스트를 진행했으며 순차적으로 각 지역에서 서비스될 계획이다.
+						기사제공 포모스
+최종배 jovia@fomos.co.kr
+최종배 기자
+구독
+최종배 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종배 기자입니다.
+모바일 RPG '판타지 삼국', 사전등록 시작
+'포켓몬 고', 피카츄 대량 발생 오프라인 이벤트 열려
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>위메이드, 블록체인 게임 플랫폼 위믹스 플레이 론칭</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 01:48</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>위메이드는 블록체인 게임 플랫폼 위믹스 플레이를 글로벌 시장에 1일 론칭했다.위믹스 플레이는 오픈 블록체인 게임 플랫폼을 지향한다. 게이머는 암호화폐로 게임 관련 아이템을 구입하거나 NFT를 거래할 수 있다. 게임에서 번 자산을 게임에 재투자하는 플레이 앤 언(Play &amp; Earn)이 가능하다.위믹스 플레이는 유저 편의성을 높여 게임 허브, 토큰 시가 총액, 토큰 스왑, 경매, 스테이킹 프로그램 등 정보와 기능을 확인할 수 있다. 위메이드는 7월 중 리플렉트 코인도 선보인다. 리플렉트는 위믹스 플레이에서 서비스하는 게임 중, 리플렉트 얼라이언스에 포함된 여러 토큰들을 융합해 받을 수 있는 유틸리티 코인이다.더불어 위믹스3.0 테스트넷도 선보였다. 위믹스3.0은 위메이드가 자체 개발한 블록체인 메인넷이다. 위메이드는 메인넷 프로토콜을 테스트넷 환경으로 복사해 프로토콜의 모든 잠재적 위협이나 허점을 발견하고 수정하기 위해 다양한 테스트를 진행한다. 테스트가 완료된 이후 메인넷을 오픈한다. 위메이드는 스테이블코인 위믹스달러, 탈중앙금융 서비스 위믹스 디파이 서비스, DAO 프로젝트를 운영할 수 있는 플랫폼 나일 등을 3분기까지 순차적으로 공개할 예정이다.
+						기사제공 포모스
+최종배 jovia@fomos.co.kr
+최종배 기자
+구독
+최종배 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+포모스 최종배 기자입니다.
+모바일 RPG '판타지 삼국', 사전등록 시작
+'포켓몬 고', 피카츄 대량 발생 오프라인 이벤트 열려
+Copyright ⓒ 포모스. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>"TV·모니터를 게임기로"…삼성전자, '게이밍 허브' 선봬</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 1:42</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>안희영 삼성전자 영상디스플레이사업부 서비스기회팀 프로가 2022년형 삼성 TV와 스마트 모니터를 통해 출시한 '게이밍 허브'를 소개하고 있다. &lt;사진=삼성전자&gt;- 엑스박스·엔비디아 게임, TV로 이용…조작 편의성 개선에 집중   [디지털데일리 정혜원 기자] 삼성전자가 TV를 엔터테인먼트 플랫폼으로 만드는 데 힘쓰고 있다.    1일 삼성전자는 서울 중구 태평로빌딩에서 2022년형 TV에 탑재한 스트리밍 게임 플랫폼 연동 서비스‘게이밍 허브’ 설명회를 진행했다.    게이밍 허브는 삼성 TV 플랫폼 ‘스마트 허브’ 화면에 게임 전용 탭이 추가되는 형태로 도입됐다. 콘솔 게임기가 없어도 온라인에 접속해 게임을 즐길 수 있는 클라우드 게임을 제공하는 것이다.    삼성전자는 엑스박스와 엔비디아 등과 게임 제공을 위해 파트너십을 맺었다. 현재 한국에서는 ▲마이크로소프트 엑스박스 게임 패스 ▲엔비디아 지포스나우를 제공한다. 다만 게임을 이용하려면 각 게임회사 구독 서비스를 별도로 가입해야 한다. 일부 게임은 삼성전자가 무료로 제공하기도 한다.    안희영 삼성전자 영상디스플레이사업부 서비스비즈니스팀 프로는 “콘솔게임 경험을 가진 소비자들이 1차 목표 고객”이라며 “지속적으로 개선해 더 좋은 서비스를 만들도록 노력하겠다”고 말했다.   안 프로에 따르면 클라우드 게임 시장은 2025년까지 61억달러(약 8조원) 규모로 성장할 전망이다. 안 프로는 “클라우드 게임 시장이 초기 단계인 만큼 파트너사와 함께 시장을 키워가야 한다”고 봤다.    삼성전자는 게이밍 허브를 선보이면서 사용자경험(UX)을 발전시키는 데 집중하고 있다. 게이밍 허브에서는 TV 채널을 위·아래로 오가듯 좌우로 이동해 게임을 선택할 수 있다. 기존에는 게임 화면에 진입하기까지 조작이 어려운 점이 진입장벽으로 꼽혔다. 
+삼성전자 관계자가 게이밍 허브에서 게임 정보 화면을 소개하고 있다. &lt;사진=디지털데일리&gt;  게임패드나 게임컨트롤러 등을 연결하는 아이콘도 홈 화면에 띄워 조작 편의를 높였다. 또 게임을 선택한 뒤에 화면을 아래로 내리면 해당 게임의 기본정보와 공략 영상, 관련 콘텐츠 등이 제공된다. 음질이나 화질 최적화 설정 등도 게임을 이탈하지 않고 가능하도록 설계했다.    안 프로는 “게이머들과 미디어 콘텐츠를 즐기는 사람들은 서로 성향이 많이 다르다”며 “편의성과 만족도를 높이기 위해 여러 국가에서 수차례 게이머들을 모아 인터뷰와 사용경험 등을 검토한 결과물로 게이밍 허브를 선보인다”고 설명했다.    게임하는 동안 유튜브와 트위치, 스포티파이 등 음악과 콘텐츠를 동시에 즐길 수 있는 기능을 도입한 것도 사용자 만족도를 높이기 위해서다. 삼성전자 서비스기획팀은 게임을 즐기는 사람들이 게임에 맞는 음악을 들으면서 게임을 한다는 점을 고려했다.    게이밍 허브는 현재 미국과 캐나다, 스페인 등 9개 국가에서 서비스하고 있다. 올해 하반기에는 2021년형 TV와 모니터제품에도 게이밍 허브를 도입할 예정이다. 삼성전자는 구형 제품에도 순차적으로 게이밍 허브를 적용할 계획이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>"연쇄할인마 온다" 스토브인디, '스토브 핫위크' 선보여</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 1:40</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>매월 1일부터 일주일간 최대 80% 할인된 가격에 인기 인디 게임 구매 가능
+[사진=스마일게이트 스토브]스마일게이트스토브(대표 한영운)는 인디 게임 플랫폼 '스토브인디'에서 매월 인디 게임을 보다 저렴하게 구입하고 다양한 혜택을 받을 수 있는 '스토브 핫위크' 프로모션을 선보인다고 1일 발표했다.스토브인디는 매월 다양한 혜택이 집중된 스토브 핫위크를 통해 인디 게임에 보다 편하고 쉽게 다가갈 수 있도록 이번 프로모션을 기획했다. 매월 1일부터 7일까지 일주일간 인기 인디 게임을 보다 저렴하게 제공하고 이용자들의 참여로 만들어지는 이벤트를 운영한다는 계획이다.스토브 핫위크에는 핫 세일, 핫 딜, 핫 배틀 등 세 가지 코너에서 다양한 게임을 만나볼 수 있다. 핫 세일은 인디 게임 할인 프로모션으로 이번달에는 'ALTF4', '노베나 디아볼로스', '트러블 슈터', '레전드 오브 키퍼' 등을 최대 80% 할인된 가격에 구입할 수 있다.핫 딜은 일일 타임세일 이벤트다. 매일 한정 수량 쿠폰을 공개, 인디 인기 게임을 하루에 1개씩 최대 80% 할인된 가격에 판매한다. 첫 스토브 핫딜에는 '러브 딜리버리', '브란테경의 삶과 고난', 'ATOM RPG', '더스트 투 디 엔드' 등 스토브인디 최고 인기작들이 올랐다.핫 배틀은 게임 2종이 판매 배틀을 벌이는 코너로 기간 내 더 많이 판매되거나 먼저 매진된 게임의 구매자들은 추가 천원 캐시백 리워드를 받을 수 있다. 7월 핫 배틀에는 더위를 날릴 수 있는 공포 게임 '이카이'와 '닉토포비아'가 맞붙는다.스토브인디는 스토브 핫위크 외에 '싸-다-구' 이벤트도 진행한다. '싸게 해줘', '다시 해줘' '구해줘'의 약자로 할인을 희망하는 게임이나 다시 진행을 원하는 이벤트 및 프로모션, 입점되길 원하는 게임 등의 의견을 댓글로 게시하는 이벤트다. 스토브인디는 해당 이벤트에서 모인 이용자들의 의견을 수렴해 익월 '스토브 핫위크'에 반영할 예정이다.여승환 스마일게이트스토브 이사는 "스토브 고객들의 뜨거운 성원에 보답하고자 강력한 혜택과 할인을 준비했다. 매월 1일부터 7일까지 인디 게이머들의 이목을 사로잡는 상품과 차별화된 혜택을 통해 재미있고 풍성한 게임 구매 경험을 선사할 것"이라며 "스토브 핫위크가 스토브는 물론 인디 게임의 대표 월간 프로모션으로 자리잡길 바란다"고 말했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>콘솔 없는 세상…삼성 TV, 게임을 품다</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 1:39</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>◆‘게이밍허브’ 서비스 시작별도 기기 없이 인터넷 연결 통해엑박 게임패스·스타디아 등 즐겨콘솔 게임기와 동일한 UX 제공TV·모니터 글로벌 1위 삼성전자65억弗 전망 클라우드 게임 공략[서울경제] 삼성전자(005930) 스마트TV·모니터에서 인터넷 접속을 통해 별도의 콘솔 게임기 없이 최신 게임을 즐길 수 있게 됐다. 글로벌 TV 시장 1위인 삼성전자가 클라우드 게임 보급에 앞장서며 ‘콘솔 없는 세상’이 한층 더 빠르게 다가올 것으로 전망된다.
+안희영 삼성전자 영상디스플레이사업부 서비스PM그룹장이 1일 설명회에서 삼성 게이밍허브를 소개하고 있다. 사진 제공=삼성전자1일 삼성전자는 스트리밍 게임 플랫폼 연동 서비스인 ‘삼성 게이밍허브’를 시작했다고 밝혔다. 마이크로소프트(MS) 엑스박스 게임패스, 엔비디아 지포스나우, 구글 스타디아, 유토믹 등 스트리밍 게임을 콘솔 없이 즐길 수 있다. 삼성전자 스마트TV·모니터에 게이밍허브 애플리케이션이 추가되는 방식으로 각 스트리밍 게임은 별도 구독하면 된다.실제로 이날 삼성 측이 설명회에서 시연한 게이밍허브는 실제 콘솔 게임기의 사용자경험(UX)과 차이를 느끼지 못할 정도였다. 게임뿐 아니라 최근 실행한 게임, 추천 게임, 관련 동영상 등을 제공해 콘솔처럼 자연스러운 접근이 가능했다. 삼성전자의 한 관계자는 “스마트폰에서 동영상 스트리밍 서비스를 이용하듯 TV와 모니터의 게이밍허브로 별도 기기 연결이나 다운로드, 저장 공간 사용 없이 간편하게 게임을 즐길 수 있다”고 설명했다.
+삼성전자는 현재 2022년형 스마트TV·모니터만 지원하는 게이밍허브 지원 기기를 확대하고 클라우드 게임 파트너와 현재 9개에 불과한 서비스 지역 확장에도 나설 계획이다.클라우드 게임은 2014년 소니가 플레이스테이션 나우(PS now)를 출시하며 처음 등장했다. 이후 엔비디아·구글 등 굵직한 기업이 뛰어들었지만 여전히 시장은 초기 단계다. 스트리밍 게임을 즐기는 플랫폼이 스마트폰과 PC라는 점이 발목을 잡고 있다. 콘솔 게임은 TV에서 즐길 것을 상정하고 만들어 화면이 작은 스마트폰에는 부적합하다. 입력 지연(인풋래그)과 인터넷 속도에 따른 출력 품질 저하도 단점이다.
+안희영 삼성전자 영상디스플레이사업부 서비스PM그룹장이 1일 설명회에서 삼성 게이밍허브를 소개하고 있다. 사진 제공=삼성전자하지만 글로벌 TV, 게이밍 모니터 시장 1위인 삼성전자가 클라우드 게임 보급에 본격적으로 나서며 기존 단점은 대부분 상쇄될 것으로 예상된다. 대화면 TV·모니터가 PC 없이도 스트리밍 게이밍을 제공하는 덕분이다. 삼성전자 TV가 판매되는 지역 중에는 인터넷 인프라가 좋지 않은 곳도 많지만 게이밍허브 이용을 위해 반드시 기가인터넷급 초고속 인터넷이 필요한 것은 아니기 때문이다. 안희영 삼성전자 영상디스플레이사업부 서비스PM그룹장은 “온라인동영상서비스(OTT)를 끊김 없이 감상할 수 있을 정도라면 클라우드 게임을 무리 없이 즐길 수 있다”고 설명했다.
+안희영 삼성전자 영상디스플레이사업부 서비스PM그룹장이 1일 설명회에서 삼성 게이밍허브를 소개하고 있다. 사진 제공=삼성전자시장조사 업체 뉴주에 따르면 2019년 1억 5200만 달러에 불과하던 클라우드 게임 시장 규모는 지난해 15억 7100만 달러로 성장했다. 뉴주는 2024년 클라우드 게임 시장 규모를 65억 3200만 달러로 전망했다.삼성전자는 이번 협업을 바탕으로 빠르게 성장하고 있는 클라우드 게임 시장의 ‘플랫폼’을 선점할 계획이다. 안 그룹장은 “삼성 게이밍허브를 올 하반기까지 2021년형 TV에 적용하고 구형 TV, 게이밍 모니터에도 순차적용을 검토하겠다”며 “사용자 반응에 따라 출시 지역과 파트너사 확대도 검토하겠다”고 말했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>삼성전자, '게이밍 허브' 서비스 출시</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 1:31</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>(서울=연합뉴스) 삼성전자가 네오(Neo) QLED 8K를 비롯한 2022년형 스마트 TV와 스마트 모니터에서 스트리밍 게임 플랫폼 연동 서비스 '삼성 게이밍 허브'를 시작했다고 1일 밝혔다. 사진은 '게이밍 허브' 서비스를 소개하는 안희영 삼성전자 영상디스플레이사업부 프로. 2022.7.1 [삼성전자 제공. 재판매 및 DB 금지]    photo@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>넷마블, 2022년 2분기 '대한민국 100대 브랜드' 선정</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 01:30</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>넷마블(대표 권영식, 대표 도기욱)이 브랜드가치 평가 회사 브랜드스탁에서 발표한 2022년 2분기 '대한민국 100대 브랜드'에 선정됐다고 1일 밝혔다.대한민국 100대 브랜드는 특허 받은 브랜드 가치 평가 모델 BSTI(Brand Stock Top Index)를 기반으로 국내 230여 개 주요 산업 부문의 1000여 개 브랜드 중 가장 점수가 높은 상위 100개 브랜드를 선정한다.브랜드스탁 회원 17만 명이 참여한 이번 조사에서 넷마블은 BSTI 총 849.3점을 얻어 전 분기 대비 한 계단 상승한 46위를 기록했다. 브랜드주가지수는 608.3점(700점 만점), 소비자 조사지수는 241.0점(300점 만점)을 받았다.한편, 이번 조사에서 계열사인 베스트 라이프 솔루션 기업 코웨이도 전체 34위를 기록, 넷마블과 코웨이 양사가 나란히 톱50 자리를 지켰다.
+						기사제공 데일리e스포츠
+이원희 cleanrap@dailygame.co.kr
+이원희 기자
+구독
+이원희 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+데일리게임 이원희 기자입니다.
+김병만이 선택한 '노아의 심장', 양대 마켓 인기 1위 등극
+EA, '피파23' 커버 모델로 킬리언 음바페 3년 연속 발탁
+Copyright ⓒ 데일리e스포츠. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기
+웹에서 즐기는 캐쥬얼게임 50종
+유튜브 핫뉴스 &amp; 화제 영상 보기</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>'연봉 1200만원' 일괄 인상 그 게임회사…전 직원 권고사직 통보 '충격'(종합)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 1:28</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>베스파 "신규 투자 유치 실패…실업급여 지급 위한 결정"김진수 대표, 소수 인력으로 기존 서비스·신규 개발 의지
+1일 서울 강남구에 위치한 베스파 건물© 뉴스1(서울=뉴스1) 이정후 기자 = 지난 2월 주권매매거래 정지 종목으로 지정된 모바일게임 개발사 베스파가 전 직원을 불러 모아 권고사직을 통보했다.1일 업계에 따르면 김진수 베스파 대표는 지난 30일 직원 약 105명이 모인 오프라인 모임을 통해 이와 같이 알렸다. 회사는 2주간의 면담 기간을 통해 직원들의 퇴사 여부를 확인할 예정이다.김 대표는 직원들이 모인 자리에서 '회사가 진행했던 계획들이 안타깝게 좌초됐다. 경영이 악화되면서 신규 투자 유치에 실패해 회사가 어려운 상황'이라는 취지의 발언을 한 것으로 알려졌다.이날 베스파가 사용 중인 서울 강남구 건물의 8개 층에는 직원들의 빈자리가 곳곳에 보였다. 회사는 권고사직이 있었기 때문에 이날부터 직원들의 출근을 강제할 수 없다는 입장이다.취재진과 만난 베스파 관계자는 "주식거래정지 상황에서 신규 투자를 유치하려 했으나 회사가 처한 상황으로 최근 투자 유치가 철회되면서 어제(30일) 갑작스럽게 권고사직 통보를 하게 됐다"고 밝혔다.그러면서 "지금까지 베스파가 임금이나 퇴직금 지급이 밀린 적은 한 번도 없지만 이번 6월 급여 지급은 지연이 불가피한 상황"이라며 "이러한 상황에서 직원들과 함께하는 것은 직원들에게도 큰 피해라고 판단했고 실업급여 지급을 위해 권고사직을 결정하게 됐다"고 말했다.
+1일 서울 강남구 베스파 건물 내부 모습. 모바일 게임으로 받은 상장들이 전시돼있다.© 뉴스1베스파는 이번 권고사직을 전 직원에게 통보했지만 라이브 서비스와 신작 개발을 위한 소수의 필수 인력에게는 잔류를 요청했다. 여기에 권고사직을 받아들이지 않고 남겠다는 인원이 있다면 이들과 함께 다시 신작 개발에 나설 예정이다.베스파가 희망하는 잔류 인원은 현재의 10~20% 수준인 20명 내외. 다만, 회사는 부채 상환도 어려울 만큼 현재 보유 중인 현금이 없어 직원들이 남더라도 무급으로 회사를 운영해야 하는 상황이다. 베스파는 자금 조달을 위해 임대로 사용하고 있는 8개 층의 사무실 규모도 축소할 계획이다.베스파 관계자는 "지금도 매출은 발생하고 있기에 사업을 최소한으로 축소해서 개발에 전념하고 투자를 다시 유치할 계획"이라며 "자체 지식재산권(IP)을 바탕으로 회사 정상화에 노력할 것"이라고 말했다.베스파는 현재 운영 중인 게임도 소수의 인원으로 계속해서 서비스한다는 계획이다. 3년 동안 개발해 70% 정도 완성된 '킹스레이드2'(가칭)는 늦어도 내년 초에 출시할 예정이다.한편 베스파는 최근 3년 연속 적자를 기록했다. 2018년 282억원의 영업이익을 기록했던 베스파는 2019년 87억원의 영업손실을 기록하면서 적자전환했고 2020년 339억원, 2021년 441억원으로 적자 폭이 점점 더 커졌다. 올해 1분기에는 28억원의 적자를 기록했다.지난 3월에는 '감사범위제한 및 계속기업 존속능력 불확실성으로 인한 의견거절'로 상장폐지 사유가 발생해 이의신청서를 제출했으며 이후 코스닥시장으로부터 2023년 4월10일까지 개선기간을 부여받았다.계속되는 적자 상황에서도 베스파는 지난해 게임 업계에 불어닥친 연봉 인상 릴레이에 가세해 임직원 연봉을 1200만원 일괄 인상하며 업계의 주목을 받았다. 하지만 결국 경영난이 지속되면서 지난해 12월 대대적인 인력 조정에 착수한 바 있다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>그라비티, '라그나로크 온라인' 20주년 특별 페이지 오픈</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 01:16</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>'스무살의 라그나로크 페스티벌' 7월31일 논현동 SJ쿤스트할레 개최 확정6월30일부터 7월20일까지 20주년 기념 특별 홈페이지에서 페스티벌 참가 신청 가능  글로벌 게임 기업 그라비티가 대표 온라인 PC게임 '라그나로크 온라인'의 20주년 기념 '스무살의 라그나로크 페스티벌' 특별 홈페이지를 6월30일 오픈했다.이번 특별 홈페이지에서는 7월31일 논현동에 위치한 SJ쿤스트할레에서 오후 3시부터 7시까지 진행 예정인 '라그나로크 온라인' 20주년 기념행사 '스무살의 라그나로크 페스티벌'의 일정, 사전 참가신청, 이벤트, 행사 프로그램 등을 공개했다.행사 당일 오후 3시부터 5시까지는 20주년 축하 나무, 레이진을 찾아라 등 사전 이벤트를 만날 수 있다. 또한 라운지 바, 포토존, 오락실, 인형 뽑기, 코스튬 캐리커처 등 유저들이 직접 체험할 수 있는 다양한 이벤트 부스를 마련할 예정이다.메인 프로그램은 오후 5시부터 7시까지 진행하며 '라그나로크' IP를 활용한 비보잉 공연, 장학 퀴즈, K팝 공연 등 다채로운 무대 프로그램으로 관람객들이 재미있게 즐길 수 있도록 준비할 예정이다.이와 함께 그라비티는 6월30일부터 7월20일까지 20주년 기념 특별 홈페이지에서 페스티벌 참가 신청을 진행한다. 신청자 이름과 연락처를 기입해 신청 가능하며 혼자 또는 동반 1인 참석을 선택할 수 있다. 당첨자 발표는 7월25일 홈페이지에 공지 및 개별 안내되며 1차 당첨자 중 결원이 발생할 경우 7월28일 2차 당첨자를 추가 발표한다. 참가자로 선정되면 '피씨 파워진 재발간 한정판', 타이틀별 5만 원 상당의 아이템 쿠폰, 20주년 기념 '라그나로크' 굿즈를 증정한다.그라비티 관계자는 "'라그나로크 온라인' 20주년 행사인 만큼 많은 것을 담기 위해 노력했다. 이용자분들께서 페스티벌 참가 신청을 꼭 하셔서 다양한 혜택을 받아 가셨으면 좋겠다. 많은 관심 부탁드린다"고 전했다.보다 자세한 내용은 '라그나로크 온라인' 20주년 기념 특별 홈페이지에서 확인 가능하다.
+						기사제공 데일리e스포츠
+이원희 cleanrap@dailygame.co.kr
+이원희 기자
+구독
+이원희 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+데일리게임 이원희 기자입니다.
+김병만이 선택한 '노아의 심장', 양대 마켓 인기 1위 등극
+EA, '피파23' 커버 모델로 킬리언 음바페 3년 연속 발탁
+Copyright ⓒ 데일리e스포츠. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기
+웹에서 즐기는 캐쥬얼게임 50종
+유튜브 핫뉴스 &amp; 화제 영상 보기</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>라인게임즈 ‘엑소스 히어로즈’, 시즌6 ‘알파와 오메가’ 적용</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 1:14</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>멀티 루트 시스템 도입…밸런스·편의성 개선
+ 1일 라인게임즈(대표 김민규)는 모바일 RPG ‘엑소스 히어로즈’의 여섯 번째 정규 시즌 ‘알파와 오메가’를 공개하고 대규모 업데이트를 진행했다.이번 시즌 ‘알파와 오메가’는 부활한 용제 ‘아코르’와 대적하는 영웅들에 대한 이야기가 펼쳐진다. 신규 챕터 ‘만회의 언약’의 스토리를 감상할 수 있으며 ‘스토리 멀티 루트’ 시스템으로 플레이어의 선택에 따라 변하는 다양한 결말도 경험할 수 있다.이와 함께 신규 테마 ‘스페이드의 질서’의 첫 번째 페이트코어 ‘제머나이-미네아’를 추가했다. 해당 페이트코어는 착용 시 자신을 피격한 적군의 명중률을 감소시키고 회피한 아군의 치명 저항력을 증가하는 능력을 갖췄다. 오는 21일까지 확률업 이벤트도 진행한다.‘스페이드의 질서’ 테마의 스토리를 확인할 수 있는 코어레이드도 오는 14일까지 진행된다. 해당 이벤트를 통해 지급되는 ‘쿠폰’은 ‘페이트코어 영웅 영입권’과 ‘국가 영입 티켓’ 등으로 교환이 가능하다.여기에 대대적인 시스템 업데이트가 이뤄졌다. 계정 레벨이 최대 80까지 증가했으며 시그니쳐 포스 및 영웅의 잠재력 개방 단계가 확장됐다. 영웅 밸런스 조정, 신규 아티팩트 추가, 편의성 개선 및 버그 수정 등이 적용됐다.라인게임즈는 오는 28일까지 ‘엑소스 히어로즈’에 접속한 모든 이용자들에게 골드, 블랙, 블루, 오렌지 각 등급에 대한 페이트코어 선택권을 지급한다. 동일한 기간 동안 총 15일을 접속하면 게임재화 ‘제스’, 국가 영입 티켓 등을 선물하며 총 220회에 걸쳐 무료 고급 영입도 제공한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>위메이드, '위믹스 플레이' 론칭... 오픈 블록체인 게임 플랫폼 목표</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 1:10</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>위메이드(대표 장현국)가 블록체인 게임 플랫폼 '위믹스 플레이(WEMIX PLAY)'를 1일(금) 글로벌 시장에 론칭했다.위믹스 플레이는 오픈 블록체인 게임 플랫폼을 지향한다. 이용자는 암호화폐로 게임 관련 아이템을 구입하거나 대체불가능토큰(NFT)을 거래할 수 있다. 게임에서 번 자산을 게임에 재투자하는 'Play &amp; Earn'이 가능하다.위믹스 플레이는 이용자 편의성을 극대화했다. 게임 허브, 토큰 시가 총액, 토큰 스왑, 경매, 스테이킹 프로그램 등 다양한 핵심 정보와 기능을 위믹스 플레이에서 모두 이용할 수 있다.위메이드는 7월 중 리플렉트 코인(Reflect Coin)도 선보인다. 리플렉트는 위믹스 플레이에서 서비스하는 다양한 게임 중, 리플렉트 얼라이언스(REFLECT alliance)에 포함된 여러 토큰들을 융합(Fusion)해 받을 수 있는 유틸리티 코인이다.위메이드는 오늘 위믹스3.0 테스트넷도 론칭했다. 위믹스3.0은 위메이드가 자체 개발한 블록체인 메인넷이다. 위메이드는 메인넷 프로토콜을 테스트넷 환경으로 복사해, 프로토콜의 모든 잠재적 위협이나 허점을 발견하고 수정하기 위해 다양한 테스트를 진행한다. 테스트가 완료된 이후 메인넷을 오픈할 계획이다.장현국 위메이드 대표는 “게임은 블록체인과 암호화폐의 가장 핵심적인 유틸리티인데 위믹스 플레이는 오픈 블록체인 게임 플랫폼으로 자리잡을 것”이라며 “오늘 테스트를 시작한 위믹스3.0 또한, 완전히 개방된 서비스와 플랫폼을 중심으로 1등 메인넷으로 성장시켜 나갈 것”이라고 말했다.위메이드는 스테이블코인 위믹스달러, 탈중앙금융 서비스 '위믹스 디파이 서비스(WEMIX DeFi Service)', DAO(Decentralized Autonomous Organization, 탈중앙화 자율조직) 프로젝트를 운영할 수 있는 플랫폼 '나일(NILE, NFT Is Life Evolution)' 등을 3분기까지 순차적으로 공개할 예정이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>웹소설 플랫폼 블라이스, 월정액제 서비스 '블라이스 셀렉트' 출시</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 1:04</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>KT 웹소설웹툰 기반 콘텐츠 자회사 스토리위즈(대표 전대진)에서 운영하는 웹소설 플랫폼 '블라이스'가 '블라이스 셀렉트'를 출시했다.블라이스 셀렉트는 매월 블라이스에서 엄선한 작품을 무제한으로 만나볼 수 있는 구독형 서비스다. 웹소설웹툰 통합 정액형 상품이다. 정기결제 시 월 8900원으로 사용 가능하다. 블라이스 셀렉트 이용 혜택이 제공되는 KT 요금제 및 부가서비스에 가입할 경우 무료로 사용할 수 있다.블라이스는 블라이스 셀렉트 가입 고객에게 엄선된 콘텐츠 외에도 매월 웹소설 이용권을 제공한다. 향후 론칭 프로모션을 통해 다양한 혜택을 제공할 예정이다.전대진 스토리위즈 대표는 “웹소설 플랫폼 블라이스와 웹툰 플랫폼 케이툰을 운영하며 독자의 수요에 대해 깊게 고민했다”며 “웹소설웹툰 독자를 위한 합리적인 서비스 출시로 콘텐츠 시장의 성장을 뒷받침하겠다”고 밝혔다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>넷마블, 2022년 2분기 '대한민국 100대 브랜드' 선정</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 1:03</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>전 분기 대비 한 계단 상승한 46위 기록
+  [사진=넷마블]넷마블(대표 권영식, 대표 도기욱)이 브랜드가치 평가 회사 브랜드스탁에서 발표한 2022년 2분기 '대한민국 100대 브랜드'에 선정됐다고 1일 발표했다.대한민국 100대 브랜드는 특허 받은 브랜드 가치 평가 모델 BSTI(Brand Stock Top Index)를 기반으로 국내 230여 개 주요 산업 부문의 1천여 개 브랜드 중 가장 점수가 높은 상위 100개 브랜드를 선정한다.브랜드스탁 회원 17만 명이 참여한 이번 조사에서 넷마블은 BSTI 총 849.3점을 얻어 전 분기 대비 한 계단 상승한 46위를 기록했다. 브랜드주가지수는 608.3점(700점 만점), 소비자 조사지수는 241.0점(300점 만점)을 받았다.브랜드스탁은 "넷마블 프로야구 2022’에 이어 2분기에는 '제2의 나라(글로벌)’와 ‘머지 쿵야 아일랜드'를 시장에 순차적으로 선보이며 비교적 안정적인 운영을 펼쳐온 것이 넷마블 브랜드 가치 상승의 요인"이라고 평가했다.넷마블 관계자는 “오는 28일 자체 IP 강화 전략의 최전선에 있는 기대작 '세븐나이츠 레볼루션'을 출시할 예정이고, 블록체인과 메타버스 등 신사업 부문에서도 선전을 기대하고 있다"며 "하반기에는 ‘모두의 마블:메타월드’와 ‘오버프라임’ 등 다양한 신작들을 통해 브랜드 가치 향상에 집중하겠다"고 말했다.한편 이번 조사에서 계열사인 베스트 라이프 솔루션 기업 '코웨이'도 전체 34위를 기록, 넷마블과 코웨이 양사가 나란히 50위권 자리를 지켰다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>천애명월도M, 카카오프렌즈 컬래버 이벤트 실시</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 01:02</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>레벨 인피니트는 텐센트 산하 오로라 스튜디오에서 개발하고 자사가 서비스하는 모바일 MMORPG '천애명월도M'에서 카카오프렌즈와 컬래버레이션 이벤트를 진행한다고 1일 밝혔다.'천애명월도M'은 중국 무협 거장 고룡의 원작 무협소설 '천애명월도'의 세계관을 계승한 모바일 MMORPG로, 지난 24일 정식 출시 후 고퀄리티의 그래픽과 풍부한 콘텐츠를 앞세워 흥행 가도를 달리고 있다.이번 카카오프렌즈 컬래버레이션 이벤트는 7월1일부터 30일까지 진행되며, 인게임 메인 화면에서 '라이언' 축제 아이콘을 통해 이벤트 페이지에 입장할 수 있다.이벤트 페이지를 통해 출석 이벤트와 새로운 친구 및 매일 제공되는 다양한 퀘스트 등을 완료하면 인게임 성장 재료를 획득할 수 있으며, 교환 상점에서 아이템으로 변경 가능하다.출석 이벤트에서는 한정 허리 장식(작은 목마), 아이콘 장식(어흥), 프레임 장식(어흥이 축복), 채팅창 장식(어흥이 축복), 발자국 장식(고양이 발자국 30일제)을 받을 수 있다.새로운 친구는 라이언, 어피치, 튜브, 무지, 네오, 프로도, 제이지, 춘식이 등 인기 캐릭터가 대거 등장하는 퀘스트로, NPC를 통해 캐릭터를 소개받으면 미션을 클리어할 수 있다.뿐만 아니라 특정 기간 동안 인게임 스크린 샷을 공식 라운지에 공유하는 이용자들에게 다양한 선물이 제공될 예정이다.먼저, 오는 12일까지 개인이나 친구, 연인 등과 함께 게임 내에서 폭죽을 터트리는 모습을, 14일까지 '죽마 미니게임' 참여 후 공식 라운지에 인증 게시글을 남기는 모든 유저들에게 100 귀속 캐시 및 5만 은전 등을 제공하며, 추첨을 통해 헤드셋, 구글 기프티콘 등을 추가로 선물한다.보다 자세한 내용은 공식 라운지를 통해 확인할 수 있다.
+						기사제공 데일리e스포츠
+이원희 cleanrap@dailygame.co.kr
+이원희 기자
+구독
+이원희 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+데일리게임 이원희 기자입니다.
+김병만이 선택한 '노아의 심장', 양대 마켓 인기 1위 등극
+EA, '피파23' 커버 모델로 킬리언 음바페 3년 연속 발탁
+Copyright ⓒ 데일리e스포츠. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기
+웹에서 즐기는 캐쥬얼게임 50종
+유튜브 핫뉴스 &amp; 화제 영상 보기</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>그라비티, '라그나로크 온라인' 20주년 기념 특별 홈페이지 오픈</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 1:02</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>그라비티가 온라인 PC 게임 '라그나로크 온라인' 20주년 기념 '스무살의 라그나로크 페스티벌' 특별 홈페이지를 오픈하고 7월 31일 논현동에 위치한 SJ쿤스트할레에서 오후 3시부터 7시까지 진행 예정인 라그나로크 온라인 20주년 기념행사 '스무살의 라그나로크 페스티벌'의 일정, 사전 참가신청, 이벤트, 행사 프로그램 등을 공개했다.행사 당일 오후 3시부터 5시까지는 20주년 축하 나무, 레이진을 찾아라 등 사전 이벤트를 만날 수 있다. 또한 라운지 바, 포토존, 오락실, 인형 뽑기, 코스튬 캐리커처 등 유저들이 직접 체험할 수 있는 다양한 이벤트 부스를 마련할 예정이다.메인 프로그램은 오후 5시부터 7시까지 진행하며 라그나로크 IP를 활용한 비보잉 공연, 장학 퀴즈, K-POP 공연 등 다채로운 무대 프로그램으로 관람객들이 재미있게 즐길 수 있도록 준비할 예정이다.그라비티는 6월 30일부터 7월 20일까지 20주년 기념 특별 홈페이지에서 페스티벌 참가 신청을 진행한다. 신청자 이름과 연락처를 기입해 신청 가능하며 혼자 또는 동반 1인 참석을 선택할 수 있다. 당첨자 발표는 7월 25일 홈페이지에 공지 및 개별 안내되며 1차 당첨자 중 결원이 발생할 경우 7월 28일 2차 당첨자를 추가 발표한다. 참가자로 선정되면 '피씨 파워진 재발간 한정판', 타이틀별 5만 원 상당의 아이템 쿠폰, 20주년 기념 라그나로크 굿즈를 증정한다.그라비티 관계자는 “라그나로크 온라인 20주년 행사인 만큼 많은 것을 담기 위해 노력했다. 유저분들께서 페스티벌 참가 신청을 꼭 하셔서 다양한 혜택을 받아 가셨으면 좋겠다”며 “많은 관심 부탁드린다”고 말했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>펄어비스 검은사막 'VOA 서울' 7월 16일 개최</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 1:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>펄어비스(대표 허진영)가 검은사막 이용자 행사 'Voice Of Adventurers Seoul(보이스 오브 어드벤처러스 서울, 이하 'VOA 서울')'을 7월 16일 개최한다.VOA는 펄어비스가 전 세계 이용자들을 직접 찾아가 만나는 이용자 중심 행사다. 전 세계에 검은사막을 직접 서비스하고 있는 펄어비스가 세계 각국의 이용자들을 만나고 현지 이용자들의 목소리를 듣기 위해 마련했다.VOA 서울은 코로나 팬데믹으로 인해 19년 12월 '칼페온 연회' 이후 한국에서 처음으로 열리는 오프라인 이벤트다. 16일 오후 6시 서울 웨이브 아트센터에서 열린다. 참가를 원하는 이용자는 검은사막 공식 홈페이지를 통해 7월 3일까지 접수 가능하다. 검은사막 PC와 콘솔 계정을 보유한 이용자 모두 참여할 수 있으며, 총 100명을 선정할 계획이다.VOA 서울은 검은사막 이용자 소통 행사, 만찬 등 다양한 프로그램들로 준비했다. 북미, 일본, 한국에 이어 앞으로 전 세계 이용자들을 찾아가는 VOA 행사를 계속해서 진행할 계획이다.검은사막은 여름에 열리는 하이델 연회와 연말에 열리는 칼페온 연회 두 차례 대규모 연회를 매년 개최하고 있다. 2019년 5월 국내 직접 서비스 시작을 기념해 진행한 '하이델 연회' 이후 행사를 개최해오고 있다. 코로나 팬데믹 이후 온라인으로 행사를 전환해 전 세계 이용자들이 함께 즐기는 행사로 진행했다. VOA 서울 행사 이후 9월 중 검은사막 글로벌 이용자를 위한 '하이델 연회'를 추가 개최 예정이다.두 차례 열리는 연회 외에도 이용자들을 직접 초청해서 만나는 행사 'meet&amp;greet'을 운영 중이며, 검은사막 공식 유튜브를 통해 이용자들을 만나는 '검팡맨', 심야 시간에 이용자들과 온라인을 통해 실시간으로 목소리를 듣고 소통하는 '심야토크' 등을 지속하고 있다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>위메이드, '이카루스M' 위믹스 플랫폼 온보딩</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 12:57</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>위메이드(대표 장현국)가 밸로프(대표 신재명)의 '이카루스M'을 위믹스 플랫폼 온보딩 계약을 체결했다. 이카루스M은 창공에서 펼쳐지는 대규모 전투와 펠로우 시스템이 특징인 모바일 MMORPG다.신재명 밸로프 대표는 “이카루스M은 세계 각국에서 꾸준히 사랑받고 있는 글로벌 모바일 게임”이라며 “P&amp;E 게임 시장이 활성화 돼있는 동남아 지역에서 기존 게임들보다 한 단계 높은 차원의 게임을 제공할 것”이라고 말했다.장현국 위메이드 대표는 "위메이드는 유틸리티 코인 위믹스와 100% 완전 담보 스테이블 코인 위믹스 달러를 기반으로, 메인넷 위믹스3.0을 출시, 게임, DAO와 결합된 NFT, 디파이(DeFi) 등 모든 것을 갖춘 플랫폼으로 확장시킬 것”이라고 말했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>[콘텐츠 핫&amp;뉴] 컴투스 ‘백년전쟁’, 신규 협동전 보스 ‘미후왕’ 추가</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 12:53</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>컴투스(대표 송재준, 이주환)는 실시간 전략 대전 게임 ‘서머너즈워: 백년전쟁’의 ‘협동전’에 신규 보스 몬스터 미후왕을 추가했다고 1일 밝혔다.‘협동전’은 2명의 이용자가 함께 힘을 합쳐 보스를 공략하는 협동 대전 모드다. 다수의 보스가 주 단위로 번갈아 등장하며 실버 5등급 이상 소환사 누구나 참여할 수 있다.신규 보스 ‘미후왕’은 서유기의 손오공을 형상화한 불 속성의 몬스터다. 공격력 강화 버프를 건 분신을 소환하고 적 선봉에 피해 확산을 거는 ‘여의봉’ 기술을 사용하며 치명타를 증가시키고 적 전열을 공격하는 ‘건곤일척’, 적의 면역과 무적을 무효화하는 ‘먹구름 소환’ 기술도 갖췄다. 행동 불가, 망각, 마나 코스트 증가, 침묵, 이로운 효과 불가에 면역되는 ‘강화된 금고아’ 패시브도 보유했다.컴투스는 고대 룬의 강화 재료로 사용할 수 있는 강화석도 추가했다. 고대 룬 강화석은 2, 4, 6번 슬롯의 고대 룬 강화에만 사용 가능하며 희귀, 영웅, 전설 등급으로 구분된다.장착된 룬의 ‘일괄 해제’, ‘일괄 장착’ 기능과 선택한 두 몬스터 간 장착 중인 룬을 교환할 수 있는 기능도 도입했다.◆카카오게임즈 ‘가디언 테일즈’, 신규 콘텐츠 ‘원정대’ 도입카카오게임즈(대표 조계현)는 모바일 RPG ‘가디언 테일즈’에 신규 콘텐츠 ‘원정대’와 ‘농장’을 업데이트했다고 1일 밝혔다.‘원정대’는 월드 내에 퍼져 있는 미지의 세력들을 물리치는 내용의 신규 콘텐츠다. 각 세력은 고유의 스토리를 가지고 있으며 이용자는 실시간으로 파티를 변경해 싸우는 ‘파티 스위칭’ 시스템을 활용해 전략적인 전투를 즐길 수 있다.‘농장’은 이용자가 직접 목재와 석재 등의 재료를 획득하고 다양한 건물과 꾸미기 오브젝트를 제작해 나만의 농장을 만들어 가는 콘텐츠다. ‘원정대’ 콘텐츠와 유기적으로 즐길 수 있는 콘텐츠로 ‘원정대’에서 획득한 씨앗을 ‘농장’에 심고 작물을 수확해 ‘유물’ 능력치에 부여할 수 있다.카카오게임즈는 7월 14일까지 코인을 소모해 보상을 획득할 수 있는 이벤트를 진행한다. 미션을 왼료하고 받은 코인을 활용해 캡슐을 오픈하면 보상 획득이 가능하며 빈 캡슐을 모아 다양한 아이템으로 교환할 수 있다. 같은 기간 ‘오그마’, ‘아라벨’, ‘클로드’ 등을 만나볼 수 있는 ‘영웅 픽업 이벤트’를 실시하고 ‘진화석 던전’에서 획득할 수 있는 보상을 추가로 획득할 수 있는 ‘진화석 부스트’를 추가한다. 
+ ◆넥슨 ‘클로저스’, 그랜드 썸머 점핑 이벤트 실시넥슨(대표 이정헌)은 액션 MORPG ‘클로저스’에 그랜드 썸머 점핑 이벤트를 실시한다고 1일 밝혔다.8월 11일까지 ‘클로저스’ 접속 시 풀 스펙업이 가능한 코어와 모듈 장비, 주요 소모품, 유니크 코스튬 풀세트를 지급한다. 캐릭터 90레벨 및 PNA 80레벨의 최고레벨 캐릭터 생성을 지원해 ‘센텀시티’ 지역 퀘스트부터 즉시 플레이할 수 있다. 생성한 점핑 캐릭터로 각종 패스 미션을 완료하면 ‘아스모데우스 아트로포스 코어·모듈’, ‘센텀시티 레전더리 장비’ 등의 주요 보상을 추가 제공한다.이와 함께 9월 8일까지 피로도 10 이상 소모 던전 완료 시 모든 캐릭터에 ‘아스모데우스의 대양왕 드레스’, ‘SS 확정 D 컴포넌트: 기어’, ‘대양왕 액세서리 선택 상자’ 등 올 여름 최고 보상을 선물한다.넥슨은 ‘클로저스’에 사냥터지기 팀 ‘소마’ 결전요원 승급도 추가했다. 결전요원으로 승급 시 전용 일러스트 및 승급 코스튬과 함께 ‘가루다의 성화’, ‘뇌신격발’, ‘궁극기: 전능의 영약 – 축복’ 등 새로운 스킬 3종을 사용할 수 있다. 궁극기는 자신의 능력을 극한까지 끌어올리고, 아군을 회복하는 효과를 갖는다. 9월 8일까지 신규 승급을 완료한 캐릭터로 던전을 완료하고 ‘GRAND CLOSER 코인’을 모아 ‘GRAND CLOSER 칭호’를 제작하면 캐릭터 선택이 가능한 ‘2022 수영복 코스튬 마우스 장패드’를 선물한다.◆호요버스 ‘붕괴3rd’, 5.8 버전 ‘별들의 그림’ 적용호요버스는 ‘붕괴3rd’에 5.8 버전 ‘별들의 그림’을 업데이트했다고 1일 밝혔다.이번 업데이트를 통해 신규 SP 캐릭터 그리세오 ‘번성·세상을 그리는 별’이 등장하며 메인 스토리 30장이 추가됐다.‘번성·세상을 그리는 별’은 이능 속성 SP 근접 캐릭터로 십자가를 무기로 사용하며 그림을 그리듯 물감을 뿌리며 공격하고 기사가 곁에서 함께 싸우는 것이 특징이다. 특히 필살기 버튼을 눌러 적을 공격하면 물감 색깔을 교체하는 동시에 해당 색깔을 획득하고 다양한 색깔로 공격에 성공하면 버프 효과가 발동한다.신규 메인 스토리 30장 ‘영웅들의 장례’로 놀이공원 구역 도착 이후 보물 상자와 장치 등 새로운 콘텐츠를 탐사할 수 있으며 ‘반짝이는 골드’를 획득해 상점에서 수정, 성흔 ‘아포니아·죄의 심연(상)’, ‘번성·세상을 그리는 별’ 캐릭터 조각 등으로 교환할 수 있다.테마 이벤트 ‘별을 그리는 여정’도 개방돼 스토리 내 전투나 상점 모집 등을 통해 카드 동료 ‘그림 카드’를 모아 전투를 진행하고 수정, 재료 선택 상자 및 ‘월하초옹’ 신규 코스튬 ‘날이 밝기 전’을 획득할 수 있다. ‘번개의 율자’ 신규 코스튬 ‘백귀천명’도 추가됐다. 
+ ◆모바일 MMORPG ‘천애명월도’, 카카오프렌즈 콜라보레벨인피니트는 텐센트 산하 오로라 스튜디오에서 개발한 모바일 MMORPG ‘천애명월도M’에서 카카오프렌즈와 콜라보레이션 이벤트를 진행한다고 1일 밝혔다.‘천애명월도M’은 ‘고룡’ 작가의 원작 무협소설 ‘천애명월도’의 세계관을 계승한 모바일 MMORPG다. 지난달 24일 국내 시장에 정식 출시돼 인기를 끌고 있다.이번 카카오프렌즈 콜라보레이션 이벤트는 오는 30일까지 진행된다. 인게임 메인 화면에서 ‘라이언’ 축제 아이콘을 통해 이벤트 페이지에 입장할 수 있다. 출석 이벤트와 새로운 친구 및 매일 제공되는 다양한 퀘스트 등을 완료하면 성장 재료를 획득할 수 있으며 교환 상점에서 아이템으로 변경할 수도 있다.출석 이벤트에서는 한정 허리 장식(작은 목마), 아이콘 장식(어흥), 프레임 장식(어흥이 축복), 채팅창 장식(어흥이 축복), 발자국 장식(고양이 발자국 30일제)을 받을 수 있으며 새로운 친구로 라이언, 어피치, 튜브, 무지, 네오, 프로도, 제이지, 춘식이 등을 만날 수 있다. 또 특정 기간 동안 인게임 스크린 샷을 공식 라운지에 공유하는 이용자들에게 귀속캐시, 은전, 헤드셋, 구글 기프티콘 등이 제공될 예정이다.◆유비소프트, ‘마리오+래비드 반짝이는 희망’ 10월 닌텐도 스위치 출시유비소프트엔터테인먼트는 협업 전략 RPG ‘마리오+래비드 반짝이는 희망’을 오는 10월 20일 닌텐도 스위치를 통해 독점 출시한다고 1일 밝혔다.‘마리오+래비드 반짝이는 희망’은 턴제 방식의 전술과 실시간 액션이 결합된 게임 플레이와 독특한 스토리가 특징이다.‘마리오+래비드 반짝이는 희망’에는 쾌활한 마리오, 사교적인 래비드 피치, 교양 있는 래비드 로젤리나 등의 9명의 영웅들이 등장하며 이용자는 이들 중 3명의 드림팀을 선발해 함께 행성을 탐험하고 은하계를 구하는 임무를 수행하게 된다.특히 게임 내 모든 영웅은 적에게 돌진, 팀 점프, 은폐 등 고유의 특수 능력을 지니고 있어 다양한 전술적 조합이 가능하다. 유비소프트는 게임 내 등장하는 영웅과 고유 능력을 순차적으로 공개하며 출시 기대감을 높일 예정이다. 첫번째 소식으로 일본의 전설적인 작곡가 요코 시모무라, 다양한 수상에 빛나는 가레스 코커, 영국의 유명 비디오 게임 작곡가인 그랜트 키르코페가 사운드트랙 작업에 정식 참여한다고 밝혔다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>웹젠, 'R2M’ 대만 서비스 앞두고 현지 테스트 시작</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오후 12:52</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>7월 1일부터 3일 간 'R2M' 대만 비공개테스트 진행
+[사진=웹젠]웹젠(대표 김태영)은 모바일 게임 'R2M'의 대만 비공개테스트(CBT)를 시작했다고 1일 발표했다.회사 측은 이날 오후 12시부터 3일 19시까지 3일 동안 'R2M: 重燃戰火(중연전화)'의 현지 테스트를 진행한다. 이번 CBT 기간 중 안드로이드 운영체제(AOS)만 제공하지만 정식 서비스에서는 애플 운영체제(iOS) 버전도 동시 제공할 예정이다.이번 현지 CBT에서는 이용자의 서버 안정성과 현지화 완성도를 점검하는 데 중점을 둘 예정이다. 또한 테스트 참가자들로부터 얻은 의견을 바탕으로 이후 정식 서비스까지 개발 완성도도 더욱 높일 방침이다.웹젠은 서비스 초반 서버 혼잡을 줄이기 위해 지난 30일부터 사전 다운로드 페이지를 열어 클라이언트 다운로드를 제공했으며 사전 예약 접수도 별도로 진행하고 있다. 웹젠은 올해 하반기 내로 중국어(번체)를 사용하는 홍콩, 마카오 등의 중화권으로 서비스 지역도 더욱 넓힐 계획이다.한편 R2M은 웹젠의 PC 온라인 게임 'R2'를 원작으로 한 대규모다중접속역할수행게임(MMORPG)이다. 2020년 국내 출시된 이후 구글플레이 최고 매출 3위를 기록했으며, 현재도 20위권을 유지하며 흥행을 지속하고 있다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>넷마블, '모두의마블' 신규 맵 '드론 마스터즈' 추가</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오후 12:03</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>넷마블(대표 권영식, 도기욱)은 모바일 캐주얼 보드게임 '모두의마블'에 신규 맵 '드론 마스터즈'를 추가하는 등 다양한 업데이트를 실시했다고 1일 밝혔다.새롭게 공개된 '드론 마스터즈'는 보드판 위 모서리 블록 기능이 강화된 맵으로, 각 모서리 블록 도착 시 특정 라인 내 상대 설치물을 전부 철거할 수 있는 '슈퍼 올림픽', 무인도 위치를 변경할 수 있는 '슈퍼 무인도', 도착 즉시 원하는 지역으로 이동 가능한 '슈퍼 세계여행' 등 다양한 기능을 활용할 수 있는 것이 특징이다.특히 출발지를 지날 때마다 월급 획득량이 증가하고, 특수 블록 도착 시 상대 공격과 해로운 스킬 효과를 방어할 수 있는 '방어 드론' 또는 '내 땅 &amp; 라인 이동' 중 하나를 선택할 수 있어 게임 내내 흥미로운 전략 대결이 펼쳐진다.이와 함께 해파리 소환수를 활용해 상대 보유 자산을 빼앗는 신규 캐릭터 '진화 엘린'을 공개했다. 또 캐릭터에 여러 보석 덱(Deck)을 장착해두고 원하는 보석 조합을 선택해 교체할 수 있는 '보석 덱 시스템'과, 코스튬에 관한 모든 정보를 한 눈에 확인할 수 있는 '코스튬 도감' 등을 업데이트했다.넷마블은 업데이트를 기념해 매일 게임에 접속만해도 최대 8000 다이아를 획득할 수 있는 다이아 광산을 오픈하고, 인게임 미션 달성 시 '진화 가이아'와 '각성 행운아이템 4종'을 모두 제공하는 이벤트를 실시한다.'모두의마블'은 주사위를 굴려 보드판의 캐릭터를 움직이고, 전 세계 도시를 사고파는 익숙한 게임 방식으로 진행된다. 독점 승리와 올림픽 개최 등 다양한 재미 요소로 꾸준한 인기를 얻고 있다.자세한 정보는 공식 카페에서 확인할 수 있다.
+						기사제공 데일리e스포츠
+이원희 cleanrap@dailygame.co.kr
+이원희 기자
+구독
+이원희 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+데일리게임 이원희 기자입니다.
+김병만이 선택한 '노아의 심장', 양대 마켓 인기 1위 등극
+EA, '피파23' 커버 모델로 킬리언 음바페 3년 연속 발탁
+Copyright ⓒ 데일리e스포츠. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기
+웹에서 즐기는 캐쥬얼게임 50종
+유튜브 핫뉴스 &amp; 화제 영상 보기</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>위메이드, 블록체인 게임 플랫폼 `위믹스 플레이` 출시</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 11:57</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>위메이드가 블록체인 게임 플랫폼 '위믹스 플레이(WEMIX PLAY)'를 글로벌 시장에 출시했다고 1일 밝혔다.위믹스 플레이는 오픈 블록체인 게임 플랫폼을 지향한다. 이용자는 암호화폐로 게임 관련 아이템을 구입하거나 NFT(대체불가토큰)를 거래할 수 있다. 게임에서 번 자산을 게임에 재투자하는 'Play&amp;Earn'이 가능하다.위믹스 플레이는 이용자 편의성을 극대화했다. 게임 허브, 토큰 시가 총액, 토큰 스왑, 경매, 스테이킹 프로그램 등 다양한 핵심 정보와 기능을 모두 이용할 수 있다.이달 중 리플렉트 코인도 선보인다. 리플렉트는 위믹스 플레이에서 서비스하는 다양한 게임 중 리플렉트 얼라이언스에 포함된 여러 토큰들을 융합해 받을 수 있는 유틸리티 코인이다.위메이드는 이날 위믹스3.0 테스트넷도 출시했다. 위믹스3.0은 위메이드가 자체 개발한 블록체인 메인넷이다. 위메이드는 메인넷 프로토콜을 테스트넷 환경으로 복사해 프로토콜의 모든 잠재적 위협이나 허점을 발견하고 수정하기 위해 다양한 테스트를 진행한다. 테스트가 완료된 이후 메인넷을 열 계획이다.장현국 위메이드 대표는 "게임은 블록체인과 암호화폐의 가장 핵심적인 유틸리티인데 위믹스 플레이는 오픈 블록체인 게임 플랫폼으로 자리잡을 것"이라며 "위믹스3.0 또한 완전히 개방된 서비스와 플랫폼을 중심으로 1등 메인넷으로 성장시켜 나갈 것"이라고 말했다.위메이드는 스테이블코인 위믹스달러, 탈중앙금융 서비스 '위믹스 디파이 서비스', DAO(탈중앙화 자율조직) 프로젝트를 운영할 수 있는 플랫폼 '나일' 등을 3분기까지 순차적으로 공개할 예정이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>베스파, 직원들에 권고사직 통보…"게임 운영·신작개발 계속"(종합)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 11:53</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>불 꺼진 베스파 사무실    (서울=연합뉴스) 김주환 기자 = 1일 서울 강남구 삼성동 소재 베스파 사무실이 불이 꺼진 채 닫혀 있다. 2022.7.1 jujuk@yna.co.kr    (서울=연합뉴스) 김주환 기자 = 경영난으로 상장폐지 기로에 선 게임사 베스파가 직원 전원에게 권고사직을 통보했다.    1일 게임업계에 따르면 김진수 베스파 대표는 전날 회사 전 직원이 모인 자리에서 "6월치 월급은 지연 지급이 불가피하게 됐다. 투자를 유치해서 회사를 회생시키려고 했지만 안타깝게 됐다"는 취지로 이같이 밝혔다.    베스파 측에 따르면 전체 직원 수는 전날 기준 105명이다. 회사 측은 일부 게임 개발·운영 핵심 인력들에 대해서는 회사에 남아 줄 것을 개별적으로 요청하고 있는 상황이다.    베스파 관계자는 취재진과 만나 "월급 지급이 밀리게 된 상황에서 구성원들에게 끼칠 피해를 최소화하기 위해 권고사직을 결정했다"며 "10% 미만의 인원이 남을 것으로 예상하고 있다"고 밝혔다.    그는 이번 조치가 폐업 수순은 아니라고 여러 차례 강조했다.    이 관계자는 "기존에 출시한 킹스레이드, 타임 디펜더스 운영은 계속 해나가고 업데이트도 할 예정"이라며 "개발 중인 킹스레이드2(가제)도 개발이 70%가량 완료됐고, 늦어도 내년 초 론칭할 것"이라고 강조했다.    그러면서 "조직 규모를 최소한으로 줄여 비용을 줄이고, 신작 출시를 계기로 투자도 다시 유치할 것"이라고 덧붙였다.    베스파는 2017년 출시한 '킹스레이드'가 히트하면서 2018년 코스닥시장에 상장했다.    정보기술(IT) 업계 전반에서 연봉 인상 경쟁이 벌어지던 지난해 3월에는 전 직원 연봉 1천200만원 인상을 단행해 이목을 끌었다.    당시 베스파는 자기자본을 50% 초과하는 사업손실로 코스닥시장본부로부터 '관리종목 지정 우려' 통보를 받은 상태였던 만큼, 회사 안팎에서 우려의 목소리도 나왔다.    베스파는 이후 신작 '타임 디펜더스' 개발에 명운을 걸었고, 지난해 8월 일본에 게임을 선출시했다. 하지만 일본은 물론 올 4월 국내 출시에서도 흥행에 성공하지 못했다.     베스파는 올해 2월 상장폐지 우려를 이유로 거래정지 처분을 받았다.    jujuk@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>액션 RPG '붕괴3rd', '별들의 그림' 업데이트 실시</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오전 11:49</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>글로벌 인터랙티브 엔터테인먼트 브랜드 호요버스(HoYoverse)는 자사가 서비스하는 '붕괴3rd'에서 5.8 버전 '별들의 그림'을 업데이트했다고 1일 밝혔다.이번 업데이트에서는 신규 SP 캐릭터 그리세오 '번성·세상을 그리는 별'이 등장하며, 메인 스토리 30장이 추가됐다.'번성·세상을 그리는 별'은 이능 속성 SP 근접 캐릭터로, 십자가를 무기로 사용하며 그림을 그리듯 물감을 뿌리며 공격하고 기사가 곁에서 함께 싸운다.특히 필살기 버튼을 눌러 적을 공격하면 물감 색깔을 교체하는 동시에 해당 색깔을 획득하고, 다양한 색깔로 공격에 성공하면 그에 맞는 버프 효과를 발동한다.이와 함께 신규 메인 스토리 30장 '영웅들의 장례'가 업데이트되면서 놀이공원 구역에 도착 후 보물 상자와 장치 등 새로운 콘텐츠를 탐사할 수 있다.탐사 과정에서 '반짝이는 골드'를 획득하면 상점에서 수정, 성흔 '아포니아·죄의 심연(상)', '번성·세상을 그리는 별' 캐릭터 조각 등으로 교환 가능하다.아울러 기간 테마 이벤트 '별을 그리는 여정'이 열려 스토리 내 전투나 상점 모집 등을 통해 카드 동료 '그림 카드'를 모아 전투를 진행하고, 수정, 재료 선택 상자 및 '월하초옹' 신규 코스튬 '날이 밝기 전'을 획득할 수 있다.이 밖에 '번개의 율자' 신규 코스튬 '백귀천명'도 추가돼 '붕괴3rd' 커뮤니티와 플레이어의 기대를 한껏 모으고 있다.자세한 사항은 '붕괴3rd' 공식 카페에서 확인할 수 있다.
+						기사제공 데일리e스포츠
+이원희 cleanrap@dailygame.co.kr
+이원희 기자
+구독
+이원희 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+데일리게임 이원희 기자입니다.
+김병만이 선택한 '노아의 심장', 양대 마켓 인기 1위 등극
+EA, '피파23' 커버 모델로 킬리언 음바페 3년 연속 발탁
+Copyright ⓒ 데일리e스포츠. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기
+웹에서 즐기는 캐쥬얼게임 50종
+유튜브 핫뉴스 &amp; 화제 영상 보기</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>그라비티 ‘라그나로크 온라인’ 20주년 “함께 축하해요~”</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 11:46</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>스무살의 라그나로크 페스티벌 특별 홈페이지 개설
+ 그라비티(대표 박현철)는 대표작 ‘라그나로크 온라인’의 서비스 20주년을 맞아 ‘스무살의 라그나로크 페스티벌’ 특별 홈페이지를 개설했다고 1일 밝혔다.그라비티는 특별 홈페이지를 통해 오는 31일 오후 3시 서울 강남구 논현동 SJ쿤스트할레에서 개최되는 라그나로크 온라인 20주년 기념행사 ‘스무살의 라그나로크 페스티벌’의 일정과 사전 참가신청, 이벤트, 행사 프로그램 등의 내용을 공개했다.이날 행사는 오후 3시부터 5시까지 20주년 축하 나무, 레이진을 찾아라 등의 사전 이벤트가 펼쳐지며 라운지 바, 포토존, 오락실, 인형 뽑기, 코스튬 캐리커처 등의 체험 부스도 운영된다.이후 오후 5시부터 7시까지 메인 프로그램을 진행해 ‘라그나로크’ 지식재산권(IP)을 활용한 비보잉 공연과 장학 퀴즈, K-POP 공연 등의 무대를 선보일 예정이다.그라비티는 오는 20일까지 이번 페스티벌 참가 신청을 접수하며 25일 홈페이지를 통해 당첨자를 발표할 계획이다. 1차 당첨자 중 결원이 발생할 경우 28일 2차 당첨자를 추가 발표한다. 선정된 참가자에게는 ‘피씨 파워진 재발간 한정판’, 아이템 쿠폰, 20주년 기념 라그나로크 굿즈를 증정한다.그라비티는 “라그나로크 온라인 20주년 행사인 만큼 많은 것을 담기 위해 노력했다”라며 “이용자분들이 페스티벌 참가 신청을 꼭 하셔서 다양한 혜택을 받아 가셨으면 좋겠다”라고 밝혔다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>'게임은 TV로' 첫 발 뗀 三電 게이밍 허브…"시장확대 적기대응"(종합)</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 11:41</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>지난달 30일 게이밍 허브 서비스 시작…엑스박스·지포스나우 등 서비스"게이머 취향 대거 반영"…파트너사·적용 국가 및 제품 순차 확대 예정
+삼성전자 영상디스플레이사업부 안희영 프로가 2022년형 삼성 TV와 스마트 모니터를 통해 정식 출시한 스트리밍 게임 플랫폼 연동 서비스인 '게이밍 허브'를 소개하고 있는 모습 (삼성전자 제공) © 뉴스1(서울=뉴스1) 노우리 기자 = 삼성전자가 확대 개편한 게이밍 허브 서비스를 선보이며 스마트 TV·모니터 서비스 생태계를 확장한다. 팬데믹 상황을 기점으로 게임을 즐기는 사람들의 수와 시장 규모가 커지면서 고객 경험을 늘려갈 수 있는 주요 창구로 자리잡았기 때문이다. 특히 게이밍 허브의 주요 콘텐츠인 클라우드 게임의 경우 개화하고 있는 신시장이라는 점에서 향후 플랫폼 확장 및 파트너사 확보에도 적극적으로 나설 것으로 보인다. 삼성전자는 1일 서울 중구 태평로빌딩에서 ‘삼성 게이밍 허브’ 기자간담회를 열고 이 같은 내용의 스마트 TV·모니터 사업계획을 밝혔다. 삼성전자는 지난달 30일 2022년형 스마트 TV와 스마트 모니터에서 '삼성 게이밍 허브' 서비스를 시작했다. 게이밍 허브는 삼성 스마트TV에서 새롭게 제공되는 스트리밍 게임 플랫폼 연동 서비스로 기존 '스마트허브'에 게임 전용 섹션을 신규로 제공해 누구나 손쉽게 사용할 수 있게 한 것이 특징이다.     별도의 콘솔 게임기가 없는 사용자도 스마트 TV와 모니터만 있으면 다양한 스트리밍 게임을 즐길 수 있는 게 가장 큰 장점이다. 현재 Δ마이크로소프트 엑스박스 게임 패스(Xbox Game Pass) Δ엔비디아 지포스나우(GeForce NOW) Δ구글 스타디아(Stadia) Δ유토믹(Utomik) 등을 이용할 수 있다. 연내 아마존 루나(Amazon Luna)도 지원할 예정이다. 적용 대상은 북미와 유럽, 한국을 비롯한 글로벌 9개국이다. 안희영 삼성전자 영상디스플레이사업부 서비스PM그룹장은 “TV는 과거 단순 프로그램을 시청하는 기기에서 이제는 사용자 취향과 라이프 스타일을 반영한 콘텐츠를 담을 수 있는 스크린으로 발전해왔다”며 “헬스케어, 게임 등 다양한 콘텐츠 특성에 맞는 홈 구성 강화 필요성을 느끼고 2022년 스마트 허브를 전면적으로 개편해 출시했고, 이에 발맞춰 게이밍 허브 역시 기능을 강화했다”고 말했다. 안 그룹장은 이번 개편 과정에서 게임을 즐기는 사람들의 취향과 행동 패턴을 대거 반영했다고 밝혔다. 그는 “게이머들의 성향은 기존 미디어를 즐기는 사람들과 다른 면이 많이 있다”며 “여러 성향과 특징을 고려해 새로운 경험을 할 수 있게 서비스 화면을 구성했다”고 강조했다.
+삼성전자 게이밍 허브 (삼성전자 제공) © 뉴스1멀티태스킹 지원 기능이 대표적이다. 게이밍 허브 이용자들은 게임 관련 동영상을 탐색하거나 음악을 들으면서 게임을 즐길 수 있다. 이는 게임 중 공략과 관련된 동영상을 찾거나, 게임과 어울리는 분위기의 음악을 들으며 게임을 하는 사람들이 많다는 데서 착안해 추가된 기능이다. 삼성전자 관계자는 “동영상이나 음악, 게임 세팅을 변경하려면 하던 게임을 종료하고 다시 세팅해야 한다는 불편함이 있었는데 이제 홈 버튼만 길게 누르면 다른 게임으로 전환하거나 설정을 바꾸는 것은 물론, 음악과 동영상도 쉽게 찾을 수 있다”고 설명했다. 회사 측은 특히 클라우드 게임 시장의 잠재성에 높은 기대를 드러냈다. 안 그룹장은 “(클라우드 게임 시장이) 시작 단계지만 대규모 잠재성이 있다고 본다”며 “파트너사와 함께 시장을 키워갈 수 있다”고 말했다. 시장조사기관 뉴주에 따르면 클라우드 게임 시장 규모는 2020년 6억달러(약 7767억원), 2023년 48억달러(약 6조2145억원) 규모까지 약 20배 넘게 성장할 전망이다.     이러한 관점에서 향후 서비스 출시 국가와 파트너사도 적극적으로 늘려나갈 방침이다. 현재 2022년형 스마트 TV와 모니터에만 게이밍 허브가 적용됐지만 올해 하반기부터는 2021년형 제품에서도 게이밍 허브를 즐길 수 있게 될 전망이다. 게이밍 모니터 제품에도 순차적으로 도입 준비가 이뤄지고 있다. 이원진 삼성전자 영상디스플레이사업부 사장은 "삼성 게이밍 허브는 삼성전자의 독보적인 TV 기술력과 글로벌 파트너사들의 게임 콘텐츠가 결합되어 만들어졌다"며 "주요 게임 서비스 업체와의 파트너십을 확장하고 사용자 맞춤형 기능과 서비스를 개발해 다양한 게임을 편리하게 이용할 수 있게 될 것"이라고 말했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>폴가이즈, '포트나이트' 크로스 이벤트 '크라운 클래시' 시작</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>기사입력 2022.07.01. 오전 11:40</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>'폴가이즈' 플레이 라운드에 따라 '폴가이즈' 인게임 화폐와 '포트나이트' 아이템 지급폴가이즈, 무료 출시 48시간 만에 플레이어 수 2000만 명 돌파하며 인기  인기 무료 파티 게임 '폴가이즈'를 플레이하면 폴가이즈 인게임 화폐와 '포트나이트' 아이템을 받을 수 있는 컬래버레이션 이벤트가 진행된다.에픽게임즈 코리아(대표 박성철)는 '폴가이즈'를 플레이하면 '폴가이즈' 인게임 화폐와 '포트나이트' 아이템을 얻을 수 있는 크로스 이벤트 '크라운 클래시'를 7월11일까지 진행한다고 1일 밝혔다.'폴가이즈' 무료 출시를 기념해 마련된 이번 이벤트는, 이벤트 기간 동안 '폴가이즈' 내 미니 게임 라운드를 10회, 20회, 40회, 70회, 100회 플레이할 시 '폴가이즈'에서는 인게임 화폐 쿠도스를 총 3800개까지 단계별로 지급하며 이와 동시에 '포트나이트'에서도 역시 단계 별로 플랩잭스 스프레이, 사랑의 팬케이크 이모티콘, 시럽 뿌린 팬케이크 곡괭이, 와플 기계 등 장신구, 맨케이크 소령 의상 등 다양한 아이템을 제공한다.한편 '폴가이즈'는 지난 6월21일 무료 서비스 전환 이후 48시간 만에 이용자 수 2000만 명을 돌파하며 폭발적인 인기를 얻은 바 있다.무료화를 맞아 시즌1 '우리 모두 무료 플레이'로 새롭게 시작한 '폴가이즈'는 '스피드 서킷', '블라스트 공', '통통 튀는 바닥', '폴가이즈 배구' 등 새로운 라운드와 장애물을 추가했다. 또한, 시즌 패스도 공개해 특별한 아이템도 지급한다.'폴가이즈'는 지난 21일 닌텐도 스위치, 엑스박스 원, 엑스박스 시리즈 S|X, PS4, PS5, 에픽게임즈 스토어(PC) 등 여러 플랫폼에서 무료 플레이 서비스를 시작했으며, 무료 플레이 시작 당일에는 많은 이용자들이 몰려 접속에 대기 시간이 발생하기도 했다. 에픽게임즈 계정을 사용하면 서비스되고 있는 모든 플랫폼에서 크로스 플레이와 크로스 프로그레션 기능이 완벽히 지원된다.에픽게임즈 코리아 박성철 대표는 "무료로 전환된 이후 이전보다 더 많은 분들이 '폴가이즈'의 재미에 푹 빠져 계신데 플레이어분들의 이러한 큰 성원에 깊이 감사드린다"면서, "'폴가이즈'에서 플레이하면 '폴가이즈'뿐만 아니라 자사의 또다른 대표 게임 '포트나이트'에서까지 보상이 제공되는 특별한 크로스 이벤트를 준비했으니, 많은 참여 부탁드린다"고 밝혔다.이벤트 참가 후 보상 받은 내역은 '폴가이즈' 또는 '포트나이트'에 접속했던 본인의 에픽 계정으로 나머지 한 게임에 접속하면 확인할 수 있다. 자세한 이벤트 내용은 이벤트 블로그에서 확인할 수 있다.
+						기사제공 데일리e스포츠
+이원희 cleanrap@dailygame.co.kr
+이원희 기자
+구독
+이원희 기자의 구독을 취소하시겠습니까?구독에서 해당 기자의 기사가 제외됩니다.
+예
+아니오
+닫기
+구독자
+-
+응원수
+-
+데일리게임 이원희 기자입니다.
+김병만이 선택한 '노아의 심장', 양대 마켓 인기 1위 등극
+EA, '피파23' 커버 모델로 킬리언 음바페 3년 연속 발탁
+Copyright ⓒ 데일리e스포츠. All rights reserved. 무단 전재 및 재배포 금지.
+기사 섹션 분류 가이드
+기사 섹션 분류 안내
+스포츠 기사 섹션(종목) 정보는 언론사 분류와 기술 기반의 자동 분류 시스템을 따르고 있습니다. 오분류에 대한 건은 네이버스포츠로 제보 부탁드립니다.
+오분류 제보하기
+가이드 닫기
+웹에서 즐기는 캐쥬얼게임 50종
+유튜브 핫뉴스 &amp; 화제 영상 보기</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>박보균 문체부 장관, 게임업계 첫 회동…P2E 등 논의할 듯</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 11:38</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1일 오후2시 한국게임산업협회서 간담회 개최현장 의견 수렴, 규제혁신 등 정책 방향 논의
+박보균 문화체육관광부 장관이 지난 5월 서울 여의도 국회에서 열린 문화체육관광위원회 전체회의에서 의원들의 질의에 답하고 있다. ⓒ데일리안 DB[데일리안 = 남궁경 기자] 박보균 문화체육관광부 장관이 국내 주요 게임사 최고경영자(CEO)들과의 첫 상견례를 가진다. 이 자리에서는 업계 화두인 플레이 투 언(P2E)·게임질병코드·중국판호 발급 지원 문제들에 대한 논의가 이뤄질 것으로 예상된다.문화체육관광부는 1일 오후 2시 서울 강남구 역삼동에 위치한 한국게임산업협회에서 게임업계와의 간담회를 열고, 게임산업의 지속적 성장을 위한 규제혁신과 향후 발전 방안 등을 논의한다고 밝혔다.이 자리에는 강신철 한국게임산업협회 회장, 황성익 한국모바일게임협회 회장, 정석희 한국게임개발자협회 회장, 윤상규 한국VR·AR콘텐츠진흥협회 회장 등 업계 주요 인사들이 대거 참석한다.국내 게임사에서는 이정헌 넥슨코리아 대표, 도기욱 넷마블 대표, 성준호 스마일게이트 엔터테인먼트 대표, 장현국 위메이드 대표, 김태영 웹젠 대표, 조계현 카카오게임즈 대표, 이용국 컴투스홀딩스 대표, 김창한 크래프톤 대표, 네오위즈 배태근 대표, 허진영 펄어비스 대표, 김상호 NHN 빅풋 대표, 안용균 엔씨소프트 전무 등 총 16명이 참석한다.이번 간담회 자리에서는 P2E 규제완화, 중국 판호 정부 지원 등이 주요 안건이될 전망이다. 현재 국내 대부분 게임사들이 P2E게임을 개발 및 서비스(해외)를 하고 있으나, 국내에서는 사행성 조장이라는 이유로 서비스를 하지 못하고 있다. 또 중국 판호(중국 내 게임 서비스 허가권)을 받기 위해서는 정부 차원의 노력이 요구되는 상황이다.앞서 위정현 콘텐츠미래융합포럼 의장(한국게임학회 회장)은 지난달 8일 열린 '윤석열 정부 게임정책, 어떤 방향으로 가야 하나' 토론회에서 "미국·유럽 게임사들이 판호를 수백, 수십 번 받을 때 우리나라는 지난 2년간 판호를 받은 게임이 딱 3개에 불과했다"며 "중국 판호 발급 재개는 우리 정부의 의지에 달려 있다"고 밝힌 바 있다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>크래프톤 자회사 띵스플로우 ‘스플’, 애플 앱스토어 인기 1위</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 11:17</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>[디지털데일리 왕진화 기자] 웹 소설과 게임 형태가 결합된 띵스플로우 ‘스플:선택형스토리’가 애플 앱스토어에서 인기다.   크래프톤(대표 김창한)은 자회사 띵스플로우(대표 이수지)가 선보인 선택형 스토리 게임 ‘스플: 선택형스토리(이하 스플)’가 애플 앱스토어에서 인기 1위를 기록했다고 밝혔다.   스플은 지난달 26일 애플 앱스토어 무료 게임 인기 1위에 등극한 이후, 오늘(1일)까지 6일간 이 순위를 유지 중이다.    띵스플로우가 지난해 5월 출시한 스플은 이용자가 직접 이야기 주인공이 돼 스토리를 만드는 채팅형 인터랙티브 스토리 서비스다. 여러 작가들이 연재하고 있는 오리지널 웹소설 작품들을 비롯해, 네이버 등 외부 플랫폼 웹 소설 및 웹툰을 각색한 작품 등 총 40여 편이 등록돼 있다.    스플의 오리지널 작품 ‘MBTI 소개팅’과 ‘러브게임’을 비롯해 네이버 시리즈 원작 웹 소설 ‘금혼령: 조선혼인금지령’, 네이버 웹툰 원작 ‘철벽! 연애 시뮬레이션’ 등이 대표 인기작이다.   이용자는 스토리 진행 중에 등장하는 다양한 분기점에서 선택을 통해 이야기 결말을 바꿀 수 있고, 각각의 분기점으로 이야기를 되돌려 여러 가지 결말을 수집할 수 있다.   이수지 띵스플로우 대표는 “이야기 속 주인공이 된 것 같은 몰입감을 주는 특별한 경험과 재미가 MZ(밀레니얼+Z)세대를 중심으로 빠르게 확산되며 스플 이용자 수가 최근 급격히 늘어나고 있다”며 “스플 이용자에게 감사드리며 앞으로도 재밌고 다채로운 콘텐츠로 서비스를 향상시킬 것”이라고 말했다.   한편, 띵스플로우는 2017년 6월 설립된 콘텐츠 플랫폼 스타트업이다. 작가, 디자이너 등 콘텐츠 전문가와 정보기술(IT) 개발자가 조화를 이루는 팀 문화를 바탕으로 서비스를 기획 개발하고 있다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>위메이드, 밸로프 '이카루스M' 위믹스 플랫폼 온보딩</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 11:15</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>고품질 그래픽으로 창공에서 펼쳐지는 대규모 전투 구현
+[사진=위메이드]'이카루스M'이 위믹스 플랫폼에 온보딩된다.위메이드(대표 장현국)는 밸로프(대표 신재명)와 위믹스 온보딩 계약을 체결했다고 1일 발표했다. 이번에 온보딩하는 이카루스M은 창공에서 펼쳐지는 대규모 전투와 다양한 종류의 펠로우 시스템이 핵심인 모바일 MMORPG다. iOS 및 AOS 두 환경에서 모두 플레이할 수 있다.밸로프는 PC 온라인 게임, 모바일 게임을 개발 및 퍼블리싱 하는 게임사로 자체 플랫폼(VFUN)을 통해 20여개 이상의 게임을 글로벌 시장에서 서비스하고 있다.신재명 밸로프 대표는 "이카루스M은 세계 각국에서 꾸준히 사랑받고 있는 글로벌 모바일 게임"이라며 "위믹스 플랫폼을 통해 모바일 P&amp;E 게임 시장 공략을 본격화할 예정이며 P&amp;E 게임 시장이 활성화된 동남아 지역에서 기존 게임들보다 한 단계 높은 차원의 게임을 제공하고 고품질 모바일 P&amp;E 게임으로 자리매김해 나갈 것"이라고 말했다.장현국 위메이드 대표는 "위메이드는 유틸리티 코인 위믹스와 100% 완전 담보 스테이블 코인 위믹스 달러를 기반으로, 메인넷 위믹스3.0을 출시, 게임, DAO와 결합된 NFT, 디파이(DeFi) 등 모든 것을 갖춘 플랫폼으로 확장시킬 것"이라며 "이카루스M이 글로벌 블록체인 게임 시장에서 성공을 거두도록 지원하겠다"고 말했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>게임기가 된 삼성 스마트 TV…'게이밍 허브' 서비스 시작(종합)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 11:11</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>게임기 연결 없이 '엑스박스 게임 패스' 100여개 스트리밍 게임 지원2022년형 스마트 TV, 스마트 모니터부터…작년 제품에는 연내 적용 
+삼성전자 '게이밍 허브' 서비스[삼성전자 제공. DB 및 재판매 금지](서울=연합뉴스) 김철선 기자 = 삼성전자가 별도 게임기 없이도 스마트 TV로 스트리밍 게임을 즐길 수 있는 서비스를 선보였다.    삼성전자는 네오(Neo) QLED 8K를 비롯한 2022년형 스마트 TV와 스마트 모니터에서 스트리밍 게임 플랫폼 연동 서비스 '삼성 게이밍 허브'를 시작했다고 1일 밝혔다.    사용자들은 스마트폰에서 동영상 스트리밍 서비스 앱을 이용하는 것처럼 별도 게임기 연결이나 다운로드 없이 스마트 TV와 모니터에서 삼성전자와 파트너십을 체결한 여러 스트리밍 게임을 즐길 수 있다.    삼성 게이밍 허브를 통해 국내에서 지원하는 게임 스트리밍 서비스는 마이크로소프트(MS) '엑스박스 게임 패스'(Xbox Game Pass), 엔비디아 '지포스나우'(GeForce NOW) 등이다.    특히 인기 구독형 게임 서비스인 '엑스박스 게임 패스'를 지원하는 것은 TV 업계에서 삼성전자가 처음이다.    구독 서비스를 가입한 사용자들은 '포르자 호라이즌5'와 '헤일로 인피니트', '사이버펑크 2077' 등 100여개의 클라우드 게임을 스마트 TV에서 플레이할 수 있다.    구글 스타디아(Stadia), 유토믹(Utomik) 등 게임 스트리밍 플랫폼은 국내에서 아직 서비스를 시작하지 않아 연동되지 않았지만, 서비스를 운영하는 국가에서는 삼성 스마트 TV를 통해 이용할 수 있다.    스마트 TV로 넷플릭스 등 온라인 동영상 서비스(OTT)를 이용할 수 있는 인터넷 환경이라면 가정에서도 TV로 스트리밍 게임을 원활하게 할 수 있다고 회사는 설명했다.    삼성전자는 연내 작년 스마트 TV 모델에서도 게이밍 허브 서비스를 확대 적용하고, 이하 모델에도 순차적으로 서비스를 확대해 나갈 계획이다.    삼성전자 영상디스플레이사업부 이원진 사장은 "삼성 게이밍 허브는 삼성전자의 독보적인 TV 기술력과 글로벌 파트너사들의 게임 콘텐츠가 결합돼 만들어졌다"며 "주요 게임 서비스 업체와의 파트너십을 확장하고 사용자 맞춤형 기능과 서비스를 개발해 다양한 게임을 편리하게 이용할 수 있게 될 것"이라고 말했다.
+삼성전자 '게이밍 허브' 서비스[삼성전자 제공. DB 및 재판매 금지]    kcs@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>레벨인피니트, '천애명월도M' 카카오프렌즈와 콜라보</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 11:08</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>30일까지 인게임 메인 화면에서 참여 가능
+[사진=레벨인피니트]레벨인피니트는 모바일 게임 '천애명월도M'에서 카카오프렌즈와 콜라보레이션 이벤트를 진행한다고 1일 발표했다.천애명월도M은 고룡 작가의 원작 무협소설 '천애명월도' 세계관을 계승한 대규모다중접속역할수행게임(MMORPG)이다. 지난 24일 정식 출시됐다.이번 카카오프렌즈 콜라보레이션 이벤트는 오는 30일까지 진행되며, 인게임 메인 화면에서 '라이언' 축제 아이콘을 통해 이벤트 페이지에 입장할 수 있다.이벤트 페이지를 통해 출석 이벤트와 새로운 친구 및 매일 제공되는 다양한 퀘스트 등을 완료하면 인게임 성장 재료를 획득할 수 있으며, 교환 상점에서 아이템으로 변경 가능하다.출석 이벤트에서는 '한정 허리 장식(작은 목마)', '아이콘 장식(어흥)', '프레임 장식(어흥이 축복)', '채팅창 장식(어흥이 축복)', '발자국 장식(고양이 발자국 30일제)'을 받을 수 있다.새로운 친구는 라이언, 어피치, 튜브, 무지, 네오, 프로도, 제이지, 춘식이 등 인기 캐릭터가 대거 등장하는 퀘스트로, NPC를 통해 캐릭터를 소개받으면 미션을 클리어할 수 있다. 뿐만 아니라 특정 기간 동안 인게임 스크린 샷을 공식 라운지에 공유하는 이용자들에게 다양한 선물이 제공될 예정이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>펄어비스, ‘검은사막’ 이용자 행사 ‘VOA 서울’ 개최</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 11:04</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>[이데일리 김정유 기자] 펄어비스(263750)는 자사 게임 ‘검은사막’ 이용자 행사 ‘보이스 오브 어드벤처러스 서울’(Voice Of Adventurers Seoul·이하 VOA 서울)은 오는 16일 개최한다고 1일 밝혔다.‘VOA’는 전 세계에 검은사막을 직접 서비스하고 있는 펄어비스가 세계 각국의 이용자들을 만나고 현지 이용자들의 목소리를 듣기 위해 마련했다. 한국에 앞서 올해 미국과 일본 이용자를 만나는 VOA를 진행한 바 있다. VOA 서울은 코로나19 팬데믹으로 인해 2019년 12월 ‘칼페온 연회’ 이후 한국에서 처음으로 열리는 오프라인 이벤트로 오는 16일 오후 6시 서울 웨이브 아트센터에서 열린다. 참가를 원하는 이용자는 검은사막 공식 홈페이지를 통해 오는 3일까지 접수 가능하다. 검은사막 PC와 콘솔 계정을 보유한 이용자 모두 참여할 수 있으며, 총 100명을 선정할 계획이다. VOA 서울은 검은사막 이용자 소통 행사, 만찬 등 다양한 프로그램들로 구성됐다. 검은사막은 여름에 열리는 ‘하이델 연회’와 연말에 열리는 ‘칼페온 연회’ 두 차례 대규모 연회를 개최하고 있다. 2019년 5월 국내 직접 서비스 시작을 기념해 진행한 하이델 연회 이후 행사를 개최해오고 있다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>그라비티, '라그나로크 온라인' 20주년 기념 특별 홈페이지 오픈</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 11:03</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>'스무살의 라그나로크 페스티벌' 31일 논현동 SJ쿤스트할레 개최 확정
+[사진=그라비티]그라비티는 PC 온라인 게임 '라그나로크 온라인' 20주년을 기념해 '스무살의 라그나로크 페스티벌' 특별 홈페이지를 오픈했다고 1일 발표했다.이번 특별 홈페이지에서는 오는 31일 논현동에 위치한 SJ쿤스트할레에서 오후 3시부터 7시까지 진행하는 라그나로크 온라인 20주년 기념행사 스무살의 라그나로크 페스티벌의 일정, 사전 참가신청, 이벤트, 행사 프로그램 등을 공개했다.행사 당일 오후 3시부터 5시까지는 20주년 축하 나무, 레이진을 찾아라 등 사전 이벤트를 만날 수 있다. 또한 라운지 바, 포토존, 오락실, 인형 뽑기, 코스튬 캐리커처 등 직접 체험할 수 있는 다양한 이벤트 부스를 마련할 예정이다.메인 프로그램은 오후 5시부터 7시까지 진행하며 라그나로크 IP를 활용한 비보잉 공연, 장학 퀴즈, K-팝 공연 등 다채로운 무대 프로그램으로 관람객들이 재미있게 즐길 수 있도록 준비할 예정이다.그라비티는 오는 20일까지 20주년 기념 특별 홈페이지에서 페스티벌 참가 신청을 진행한다. 신청자 이름과 연락처를 기입해 신청 가능하며 혼자 또는 동반 1인 참석을 선택할 수 있다. 당첨자 발표는 25일 홈페이지에 공지 및 개별 안내되며 1차 당첨자 중 결원이 발생할 경우 7월 28일 2차 당첨자를 추가 발표한다. 참가자로 선정되면 '피씨 파워진 재발간 한정판', 타이틀별 5만원 상당의 아이템 쿠폰, 20주년 기념 라그나로크 굿즈를 증정한다.그라비티는 "라그나로크 온라인 20주년 행사인 만큼 많은 것을 담기 위해 노력했다"며 "이용자들께서 페스티벌 참가 신청을 꼭 하셔서 다양한 혜택을 받아 가셨으면 좋겠다. 많은 관심 부탁드린다"고 말했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>박보균 문체부 장관, 게임업계 만난다</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 11:03</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>-현장 의견 수렴, 규제혁신 등 정책 방향 논의
+사진=전용기 더불어민주당 의원실 제공[디지털데일리 왕진화 기자] 박보균 문화체육관광부 장관이 게임업계 대표들과 처음으로 마주한다. 문화체육관광부(이하 문체부) 박보균 장관은 1일 한국게임산업협회에서 게임업계와의 간담회를 개최한다. 업계 현장 의견을 듣고, 게임산업 지속적 성장을 위한 규제혁신과 향후 발전 방안 등을 논의하기 위해서다.   이번 간담회에는 한국게임산업협회 강신철 회장, 한국모바일게임협회 황성익 회장, 한국게임개발자협회 정석희 회장, 한국브이아르·에이아르콘텐츠진흥협회(한국VR·AR콘텐츠진흥협회) 윤상규 회장이 참석한다.   게임사에서는 ▲네오위즈 배태근 대표 ▲넥슨코리아 이정헌 대표 ▲넷마블 도기욱 대표 ▲스마일게이트 엔터테인먼트 성준호 대표 ▲위메이드 장현국 대표 ▲웹젠 김태영 대표 ▲카카오게임즈 조계현 대표 ▲컴투스홀딩스 이용국 대표 ▲크래프톤 김창한 대표 ▲펄어비스 허진영 대표 ▲엔에이치엔(NHN)빅풋 김상호 대표 ▲엔씨소프트 안용균 전무가 나온다.   앞서 박 장관은 취임사에서 “정책 설계는 그 세계와 거기에 속한 분들을 알고 이해하는 것에서 출발해야 한다”라며 현장의 중요성을 강조한 바 있다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>펄어비스, '검은사막' 이용자 만나는 'VOA 서울' 16일 개최</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 10:59</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>'검은사막' PC&amp;콘솔 함께 진행…100명 이용자 선정 오프라인 행사 열어
+[사진=펄어비스]펄어비스(대표 허진영)는 '검은사막' 이용자 행사 '보이스 오브 어드벤처러스 서울(이하 VOA 서울)'을 오는 7월 16일 개최한다.VOA는 펄어비스가 전 세계 이용자들을 직접 찾아가 만나는 이용자 중심 행사다. 전 세계에 검은사막을 직접 서비스하고 있는 펄어비스가 세계 각국의 이용자들을 만나고 목소리를 듣기 위해 마련했다.회사 측은 한국에 앞서 올해 미국과 일본 이용자를 만나는 VOA를 진행했으며 특히 북미 이용자와는 펍(PUB)에서 검은사막 운영진이 함께 자유로운 분위기 속에서 행사를 즐겼다.VOA 서울은 코로나19 팬데믹으로 인해 2019년 12월 '칼페온 연회' 이후 한국에서 처음으로 열리는 오프라인 이벤트다. 16일 오후 6시 서울 웨이브 아트센터에서 열리며 참가를 원하는 이용자는 검은사막 공식 홈페이지를 통해 7월 3일까지 접수 가능하다. 검은사막 PC와 콘솔 계정을 보유한 이용자 모두 참여할 수 있으며, 총 100명을 선정할 계획이다.VOA 서울은 검은사막 이용자 소통 행사, 만찬 등 다양한 프로그램들로 준비했다. 북미, 일본, 한국에 이어 앞으로 전 세계 이용자들을 찾아가는 VOA 행사를 계속해서 진행할 계획이다.
+[사진=펄어비스]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>위메이드, 블록체인 플랫폼 '위믹스 플레이' 출시…토큰 융합된다</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 10:56</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>게임 허브, 토큰 시총 등 이용 가능한 오픈 플랫폼게임 토큰 간 융합 가능한 '리플렉트 코인' 7월 출시
+위메이드 블록체인 게임 플랫폼 '위믹스 플레이'.ⓒ위메이드[데일리안 = 최은수 기자] 위메이드는 블록체인 게임 플랫폼 ‘위믹스 플레이(WEMIX PLAY)’를 글로벌 시장에 론칭했다고 1일 밝혔다.위믹스 플레이는 오픈 블록체인 게임 플랫폼을 지향한다. 이용자는 암호화폐로 게임 관련 아이템을 구입하거나 대체불가토큰(NFT)을 거래할 수 있다. 게임에서 번 자산을 게임에 재투자하는 '플레이 앤 언(Play &amp; Earn)’이 가능하다.위믹스 플레이는 이용자 편의성을 극대화했다. 게임 허브, 토큰 시가 총액, 토큰 스왑, 경매, 스테이킹 프로그램 등 다양한 핵심 정보와 기능을 위믹스 플레이에서 모두 이용할 수 있다.위메이드는 7월 중 리플렉트 코인도 선보인다. 리플렉트는 위믹스 플레이에서 서비스하는 다양한 게임 중, 리플렉트 얼라이언스에 포함된 여러 토큰들을 융합해 받을 수 있는 유틸리티 코인이다.위메이드는 오늘 위믹스3.0 테스트넷도 론칭했다. 위믹스3.0은 위메이드가 자체 개발한 블록체인 메인넷이다. 위메이드는 메인넷 프로토콜을 테스트넷 환경으로 복사해, 프로토콜의 모든 잠재적 위협이나 허점을 발견하고 수정하기 위해 다양한 테스트를 진행한다. 테스트가 완료된 이후 메인넷을 오픈할 계획이다.장현국 위메이드 대표는 “게임은 블록체인과 암호화폐의 가장 핵심적인 유틸리티인데, 위믹스 플레이는 오픈 블록체인 게임 플랫폼으로 자리잡을 것”이라며 “오늘 테스트를 시작한 위믹스 3.0 또한, 완전히 개방된 서비스와 플랫폼을 중심으로 1등 메인넷으로 성장시켜 나갈 것”이라고 말했다.위메이드는 스테이블코인 위믹스달러, 탈중앙금융 서비스 ‘위믹스 디파이 서비스(WEMIX DeFi Service)’, 탈중앙화 자율조직(DAO) 프로젝트를 운영할 수 있는 플랫폼 ‘나일(NILE, NFT Is Life Evolution)’ 등을 3분기까지 순차적으로 공개할 예정이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>"장현국의 안목"…위메이드, '오딘' 투자금 4년만에 57배 '잭팟'</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 10:52</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>위메이드, 라이온하트 주식 1주당 9만원에 매입해 534만원에 처분2만2209주 1187억원에 팔아…처분 후 소유 주식 3만1369주
+장현국 위메이드 대표 2022.5.25/뉴스1 © News1 박세연 기자(서울=뉴스1) 김근욱 기자 = 위메이드가 모바일 게임 '오딘:발할라 라이징' 개발사 투자로 4년 만에 57배에 달하는 수익을 냈다. 그야말로 '잭팟'이다.1일 위메이드는 주식회사 라이온하트 스튜디오 주식 2만2209주를 카카오게임즈에 양도한다고 공시했다. 양도 금액은 1187억1285만7131원이다. 이는 지난 4월 체결된 계약에 대한 확정 공시로, 위메이드는 카카오게임즈로부터 선급금 424억원을 제외한 잔금 762억원을 받게 된다.당시 위메이드는 "본 공시는 선급금 약 425억원을 기준으로 작성됐다"며 "총 처분금액은 2022년 6월 30일까지 성과를기반으로 확정시 공시로 안내하겠다"고 밝힌 바 있다. 이로써 위메이드는 유명 게임 개발사 투자로 4년 만에 57배에 달하는 시세차익을 거두게 됐다. 위메이드는 지난 2018년 8월 라이온하트 스튜디오에 전략적 투자 목적으로 50억원을 투자해, 주식 5만3578주와 지분율 7.22%를 보유하고 있었다. 당시 주당 매입가격은 9만3300원대.이날 위메이드가 처분한 주식수(2만2209주)와 처분 금액(1187억1285만원)을 기준으로 단순 계산하면, 라이온하트 스튜디오의 주당 매도가격은 534만5259만원이다. 즉, 라이온하트 스튜디오 주식이 4년만에 57배 가량 치솟은 것이다.주목할 점은 위메이드가 아직 라이온하트 스튜디오 주식 3만1369주(지분4.23%)를 소유하고 있다는 것. 아직 회수할 투자자금이 남았다는 이야기다.라이온하트 스튜디오는 지난해 대한민국 게임대상을 수상한 '오딘:발할라 라이징'(오딘)개발사다. 라이온하트스튜디오는 오딘의 성과에 힘입어 지난해 2325억 원의 매출과 2153억 원의 영업이익을 거두고 흑자전환에 성공했다.오딘은 최근 국내 뿐 아니라 글로벌 시장에서도 성과를 내고 있다. 지난 3월 대만 시장에 진출한 오딘은 출시 30여일만에 매출 500억원을 달성하는 등 '글로벌 게임'으로의 도약에 성공하기도 했다. 한편, 장현국 위메이드 대표는 라이온하트 스튜디오 투자로 회사의 자산 가치를 증대시킨 성과를 인정받아 지난해 69억원에 달하는 연봉을 받았다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>위메이드, 오픈 블록체인 게임 플랫폼 '위믹스 플레이' 글로벌 출시</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 10:39</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>위메이드는 블록체인 게임 플랫폼 '위믹스 플레이'를 글로벌 출시했다고 1일 밝혔다.  /사진제공=위메이드   위메이드는 블록체인 게임 플랫폼 '위믹스 플레이'를 1일 글로벌 출시했다.위믹스 플레이는 오픈 블록체인 게임 플랫폼을 지향한다. 이용자는 암호화폐로 게임 관련 아이템을 구입하거나 대체 불가능한 토큰(NFT)을 거래할 수 있다. 게임에서 번 자산을 게임에 다시 투자하는 'P&amp;E'(Play &amp; Earn·즐기면서 돈도 버는 게임)가 가능하다.이용자는 게임 허브, 토큰 시가 총액, 토큰 스왑, 경매, 스테이킹 프로그램 등 다양한 핵심 정보와 기능을 위믹스 플레이에서 모두 이용할 수 있다.위메이드는 이달 중 리플렉트 코인(Reflect Coin)도 선보인다. 리플렉트는 위믹스 플레이에서 서비스하는 다양한 게임 가운데 리플렉트 얼라이언스에 포함된 여러 토큰들을 융합해 받을 수 있는 유틸리티 코인이다.위메이드는 이날 위믹스3.0 테스트넷도 론칭했다. 위믹스3.0은 위메이드가 자체 개발한 블록체인 메인넷이다. 위메이드는 메인넷 프로토콜을 테스트넷 환경으로 복사해 프로토콜의 모든 잠재적 위협이나 허점을 발견하고 수정하기 위해 다양한 테스트를 진행한다. 테스트가 완료된 이후 메인넷을 오픈할 계획이다.장현국 위메이드 대표는 "게임은 블록체인과 암호화폐의 가장 핵심적인 유틸리티인데, 위믹스 플레이는 오픈 블록체인 게임 플랫폼으로 자리잡을 것"이라며 "금일 테스트를 시작한 위믹스3.0 또한 완전히 개방된 서비스와 플랫폼을 중심으로 1등 메인넷으로 성장시켜 나갈 것"이라고 말했다.위메이드는 스테이블코인 위믹스달러, 탈중앙금융 서비스 '위믹스 디파이 서비스(WEMIX DeFi Service)', 탈중앙화 자율조직(DAO) 프로젝트를 운영할 수 있는 플랫폼 '나일'(NILE·NFT Is Life Evolution) 등을 3분기까지 순차적으로 공개할 예정이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>위메이드, 블록체인 게임 플랫폼 '위믹스플레이' 론칭</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 10:39</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>자체 메인넷 위믹스 3.0 테스트넷도 개시
+위믹스 플레이[위메이드 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 김주환 기자 = 위메이드는 블록체인 게임 플랫폼 '위믹스 플레이'를 글로벌 시장에 출시했다고 1일 밝혔다.    위믹스플레이는 이용자들이 가상화폐로 게임 아이템이나 대체불가토큰(NFT)를 거래할 수 있는 열린 블록체인 게임 플랫폼이다.     게임 허브, 토큰 시가총액, 토큰 스왑, 경매, 스테이킹 프로그램 등 관련 정보와 기능도 지원한다.    위메이드는 위믹스플레이에서 서비스하는 게임 중 '리플렉트 얼라이언스'에 포함된 여러 토큰을 융합해 받을 수 있는 '리플렉트 코인'을 이달 중으로 선보일 예정이라고 덧붙였다.    위메이드는 자체 개발한 메인넷인 위믹스 3.0이 이날 테스트넷 단계에 들어갔다고 밝혔다.    테스트넷은 메인넷 프로토콜의 잠재적 위협이나 허점을 발견하고 수정하기 위해 시험하는 단계로, 위메이드는 테스트 완료 이후 메인넷을 오픈할 예정이다.    장현국 위메이드 대표는 "위믹스 플레이는 오픈 블록체인 게임 플랫폼으로 자리잡을 것"이라며 "위믹스 3.0 또한, 완전히 개방된 서비스와 플랫폼을 중심으로 1등 메인넷으로 성장시켜 나가겠다"고 밝혔다.    jujuk@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>박보균 문체부 장관, 게임업계 만나 정책 방향 논의</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 10:39</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1일 오후 2시 한국게임산업협회 찾아 간담회…16명 참석
+박보균 문화체육관광부 장관이 1일 오후 2시 한국게임산업협회에서 게임업계와의 간담회를 열어 업계 현장 의견을 듣고 게임산업의 지속적 성장을 위한 규제혁신과 향후 발전 방안 등을 논의한다.이날 간담회에는 강신철 한국게임산업협회 회장, 황성익 한국모바일게임협회 회장, 정석희 한국게임개발자협회 회장, 윤상규 한국VR·AR콘텐츠진흥협회 회장을 비롯해 배태근 네오위즈 대표, 이정헌 넥슨코리아 대표, 도기욱 넷마블 대표, 성준호 스마일게이트엔터테인먼트 대표, 장현국 위메이드 대표, 김태영 웹젠 대표, 조계현 카카오게임즈 대표, 이용국 컴투스홀딩스 대표, 김창한 크래프톤 대표, 허진영 펄어비스 대표, 김상호 NHN빅풋 대표, 안용균 엔씨소프트 전무까지 총 16명이 참석한다.박 장관은 취임사에서 "정책의 설계는 그 세계와 거기에 속한 분들을 알고 이해하는 것에서 출발해야 한다"며 현장의 중요성을 강조한 바 있다. 박 장관은 지난 6월 22일 관광업계에 이어 이번에 게임업계를 만나고 앞으로도 분야별 간담회를 통해 현장 목소리를 지속적으로 청취할 예정이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>연봉 일괄 1200만원 올렸던 '베스파'…전 직원 불러모아 '권고사직' 통보</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 10:32</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>김진수 대표, 전 직원 불러 모아 '권고사직' 이야기 꺼내
+1일 서울 강남구에 위치한 베스파 건물© 뉴스1(서울=뉴스1) 이정후 기자 = 지난 2월 주권매매거래 정지 종목으로 지정된 모바일게임 개발사 베스파가 전 직원을 불러 모아 권고사직을 통보했다. 일부 인원은 회사에 남아 당장 종료할 수 없는 업무를 이어갈 예정이다.1일 업계에 따르면 김진수 베스파 대표는 지난 30일 오프라인 모임을 통해 전 직원과 만나 권고사직을 통보한 것으로 알려졌다. 김 대표는 '열심히 노력했으나 회사 상황이 어려운 상황이고 신규 투자 유치에 실패했다'는 취지의 발언을 한 것으로 전해졌다. 회사에는 당분간 최소 인원만 남을 예정이다.이날 회사로 출근한 관계자는 "대표가 전 직원을 모아놓고 권고사직 통보를 한 것은 맞다"며 "어제(30일)는 직원들끼리 마지막 인사를 나누느라 뒤숭숭한 분위기였다"고 말했다.베스파의 2022년 1분기 보고서에 따르면 지난 3월31일 기준 Δ사무 Δ영업 Δ연구·개발 인력을 포함해 총 148명의 직원이 종사하고 있다.베스파는 최근 3년 연속 적자를 기록했다. 2018년 282억원의 영업이익을 기록했던 베스파는 2019년 87억원의 영업손실을 기록하면서 적자전환했고 2020년 339억원, 2021년 441억원으로 적자 폭이 점점 더 커졌다. 올해 1분기에는 28억원의 적자를 기록했다.지난 3월에는 '감사범위제한 및 계속기업 존속능력 불확실성으로 인한 의견거절'로 상장폐지 사유가 발생해 이의신청서를 제출했으며 이후 코스닥시장으로부터 2023년 4월10일까지 개선기간을 부여받았다.계속되는 적자 상황에서도 베스파는 지난해 게임 업계에 불어닥친 연봉 인상 릴레이(이어가기)에 가세해 임직원 연봉을 1200만원 일괄 인상하며 업계의 주목을 받았다. 하지만 결국 경영난이 지속되면서 지난해 12월 대대적인 인력 조정에 착수한 바 있다.한편 베스파는 모바일 역할수행게임(RPG) '킹스레이드'를 2017년 출시해 전 세계 150여개국에 서비스하고 있다. 베스파 매출의 94%를 차지할 정도로 의존도가 높은 게임이다. 지난해 8월 신작 '타임디펜더스'를 일본에 출시하고 올해 4월 글로벌 출시했으나 흥행을 거두지는 못했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>크래프톤 자회사 띵스플로우 '스플', 애플 앱스토어 1위 올라</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 10:17</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>웹소설과 게임 결합한 신개념 서비스로 인기
+[사진=띵스플로우]크래프톤(대표 김창한)은 자회사 띵스플로우(대표 이수지)의 선택형 스토리 게임 '스플: 선택형스토리(이하 스플)'가 애플 앱스토어에서 1위를 기록했다고 1일 발표했다.스플은 지난 6월 26일 애플 앱스토어 무료 게임 순위 1위에 등극한 이후 7월 1일까지 6일 연속 1위를 차지했다. 다운로드 수 또한 지속 증가하고 있어 스플의 스코어는 앞으로도 유지될 것이라고 회사 측은 전망했다.띵스플로우가 지난해 5월 출시한 스플은 이용자가 직접 이야기의 주인공이 돼 스토리를 만들어 나가는 채팅형 인터랙티브 스토리 서비스다. 스토리 진행 중에 등장하는 다양한 분기점에서 선택을 통해 이야기의 결말을 바꿀 수 있고 각각의 분기점으로 이야기를 되돌려 여러 가지 결말을 수집할 수 있다.스플은 론칭 당시부터 웹소설과 게임의 형태를 결합한 신개념 서비스로 지난해 구글 플레이의 '2021년 올해를 빛낸 베스트 앱∙게임'에서 '올해를 빛낸 엔터테인먼트 앱' 최우수상을 수상하기도 했다.스플에는 여러 작가들이 연재하고 있는 오리지널 웹소설 작품들을 비롯해 네이버 등 외부 플랫폼의 웹소설 및 웹툰을 각색한 작품 등 총 40여편이 등록돼 있다. 스플의 오리지널 작품 'MBTI 소개팅'과 '러브게임'을 비롯해 네이버 시리즈 원작 웹소설 '금혼령: 조선혼인금지령', 네이버 웹툰 원작 '철벽! 연애 시뮬레이션' 등이 대표 인기작이다.이수지 띵스플로우 대표는 "이야기 속 주인공이 된 것 같은 몰입감을 주는 특별한 경험과 재미가 MZ 세대를 중심으로 빠르게 확산되며 스플의 이용자수가 최근 급격히 늘어나고 있다"며 "스플을 성원해 주시는 이용자들에게 감사드리며 앞으로도 재미있고 다채로운 콘텐츠로 서비스를 향상시킬 것"이라고 말했다.한편 띵스플로우는 2017년 6월 설립된 콘텐츠 플랫폼 스타트업으로 작가, 디자이너 등 콘텐츠 전문가와 IT 개발자가 조화를 이루는 팀 문화를 바탕으로 서비스를 기획 및 개발하고 있다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>'상폐 기로' 게임사 베스파, 직원 대다수에 권고사직 통보</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 10:16</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>불 꺼진 베스파 사무실    (서울=연합뉴스) 김주환 기자 = 1일 서울 강남구 삼성동 소재 베스파 사무실이 불이 꺼진 채 닫혀 있다. 2022.7.1 jujuk@yna.co.kr    (서울=연합뉴스) 김주환 기자 = 경영난으로 상장폐지 기로에 선 게임사 베스파가 직원 대다수에 권고사직을 통보했다.    1일 게임업계에 따르면 김진수 베스파 대표는 전날 회사 전 직원이 모인 자리에서 "회사를 회생시키려고 많이 노력했고, 투자도 유치했지만 안타깝게 됐다"며 이같은 사실을 알린 것으로 전해졌다.    권고사직 규모는 100여 명에 달하는 것으로 알려졌다. 지난 3월 공시 기준 베스파의 직원 수는 총 148명으로, 전체 직원의 3분의 2 이상이 권고사직 대상이 된 셈이다.    2017년 출시한 '킹스레이드'가 히트하면서 2018년 코스닥 시장에 상장한 베스파는 정보기술(IT) 업계 전반에서 연봉 인상 경쟁이 벌어지던 지난해 3월 전 직원 연봉 1천200만원 인상을 단행해 이목을 끌었다..    당시 베스파는 자기자본을 50% 초과하는 사업손실로 코스닥시장본부로부터 '관리종목 지정 우려' 통보를 받은 상태였던 만큼, 회사 안팎에서 우려의 목소리도 나왔다.    베스파는 이후 신작 '타임 디펜더스' 개발에 명운을 걸었고, 지난해 8월 일본에 게임을 선출시했다. 하지만 일본은 물론 올 4월 국내 출시에서도 흥행에 성공하지 못했다.     베스파는 올해 2월 상장폐지 우려를 이유로 거래정지 처분을 받았다.    jujuk@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>위메이드, 오픈 블록체인 플랫폼 ‘위믹스 플레이’ 론칭</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 10:14</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>위메이드 제공.[OSEN=고용준 기자] 플레이앤언이 가능해졌다. 위메이드가 편의성 극대화를 내세운 오픈 블록체인 게임 플랫폼 위믹스 플레이를 론칭했다. 위메이드는 1일 블록체인 게임 플랫폼 ‘위믹스 플레이’를 글로벌 시장에 론칭했다고 밝혔다. 위믹스 플레이는 오픈 블록체인 게임 플랫폼을 지향한다. 이용자는 암호화폐로 게임 관련 아이템을 구입하거나 NFT를 거래할 수 있다. 게임에서 번 자산을 게임에 재투자하는 '플레이앤언’이 가능하다.위믹스 플레이는 이용자 편의성을 극대화했다. 게임 허브, 토큰 시가 총액, 토큰 스왑, 경매, 스테이킹 프로그램 등 다양한 핵심 정보와 기능을 위믹스 플레이에서 모두 이용할 수 있다.위메이드는 7월 중 리플렉트 코인도 선보인다. 리플렉트는 위믹스 플레이에서 서비스하는 다양한 게임 중, 리플렉트 얼라이언스에 포함된 여러 토큰들을 융합해 받을 수 있는 유틸리티 코인이다.위메이드는 1일 위믹스3.0 테스트넷도 론칭했다. 위믹스3.0은 위메이드가 자체 개발한 블록체인 메인넷이다. 위메이드는 메인넷 프로토콜을 테스트넷 환경으로 복사해, 프로토콜의 모든 잠재적 위협이나 허점을 발견하고 수정하기 위해 다양한 테스트를 진행한다. 테스트가 완료된 이후 메인넷을 오픈할 계획이다.위메이드 장현국 대표는 “게임은 블록체인과 암호화폐의 가장 핵심적인 유틸리티인데, 위믹스 플레이는 오픈 블록체인 게임 플랫폼으로 자리잡을 것”이라며 “오늘 테스트를 시작한 위믹스3.0 또한, 완전히 개방된 서비스와 플랫폼을 중심으로 1등 메인넷으로 성장시켜 나갈 것”이라고 말했다.위메이드는 스테이블코인 위믹스달러, 탈중앙금융 서비스 ‘위믹스 디파이 서비스’, DAO(탈중앙화 자율조직) 프로젝트를 운영할 수 있는 플랫폼 ‘나일’ 등을 3분기까지 순차적으로 공개할 예정이다. / scrapper@osen.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>위메이드, '위믹스 플레이' 글로벌 출시…오픈 블록체인 게임 플랫폼 목표</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 10:08</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>'위믹스 플레이' 대표 이미지 /위메이드 제공위메이드는 블록체인 게임 플랫폼 '위믹스 플레이'를 1일 글로벌 출시했다고 밝혔다.위메이드에 따르면 '위믹스 플레이'는 오픈 블록체인 게임 플랫폼을 지향한다. 암호화폐로 게임 관련 아이템을 구입하거나 대체불가토큰(NFT)을 거래할 수 있다. 게임에서 번 자산을 게임에 재투자하는 플레이앤언도 가능하다.위메이드는 이달 중 리플렉트 코인도 선보인다. 리플렉트는 위믹스 플레이에서 서비스하는 게임 중 리플렉트 얼라이언스에 포함된 여러 토큰들을 융합해 받을 수 있는 유틸리티 코인이다.위메이드는 위믹스3.0 테스트넷도 출시했다. 위믹스3.0은 위메이드가 자체 개발한 블록체인 메인넷이다. 위메이드는 메인넷 프로토콜을 테스트넷 환경으로 복사해 잠재적 위협이나 허점을 발견하기 위해 테스트를 한다. 완료 후 메인넷을 정식 출시한다.장현국 위메이드 대표는 "위믹스 플레이는 오픈 블록체인 게임 플랫폼으로 자리잡을 것"이라며 "1일 테스트를 시작한 위믹스3.0도 완전히 개방된 서비스와 플랫폼을 중심으로 1등 메인넷으로 성장시켜 나갈 것"이라고 말했다.위메이드는 스테이블코인 '위믹스달러', 탈중앙금융 서비스 '위믹스 디파이 서비스', DAO(탈중앙화 자율조직) 프로젝트를 운영할 수 있는 플랫폼 '나일' 등을 3분기까지 순차 선보일 예정이다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>크래프톤 자회사 띵스플로우, ‘스플: 선택형스토리’ 앱스토어 1위</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 10:07</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>채팅형 인터랙티브 스토리6일 연속 앱스토어 1위 차지
+띵스플로우 '스플' 이미지.ⓒ띵스플로우[데일리안 = 최은수 기자] 크래프톤은 자회사 띵스플로우의 선택형 스토리 게임 ‘스플: 선택형스토리(이하 스플)’가 애플 앱스토어에서 1위를 기록했다고 1일 밝혔다.스플은 지난 6월 26일 애플 앱스토어 무료 게임 순위 1위에 등극한 이후, 이날(1일)까지 6일 연속 1위를 차지했다. 다운로드 수 또한 지속적으로 증가하고 있다.띵스플로우가 지난해 5월 출시한 스플은 이용자가 직접 이야기의 주인공이 되어 스토리를 만들어 나가는 채팅형 인터랙티브 스토리 서비스다. 스플 이용자는 스토리 진행 중에 등장하는 다양한 분기점에서 선택을 통해 이야기의 결말을 바꿀 수 있고, 각각의 분기점으로 이야기를 되돌려 여러 가지 결말을 수집할 수 있다.스플은 론칭 당시부터 웹 소설과 게임의 형태를 결합한 신개념 서비스로 주목을 받으며, 지난해 구글 플레이의 ‘2021년 올해를 빛낸 베스트 앱·게임’에서 ‘올해를 빛낸 엔터테인먼트 앱’ 최우수상을 수상하기도 했다.스플에는 여러 작가들이 연재하고 있는 오리지널 웹 소설 작품들을 비롯해, 네이버 등 외부 플랫폼의 웹 소설 및 웹툰을 각색한 작품 등 총 40여편이 등록돼 있다. 스플의 오리지널 작품 ‘MBTI 소개팅’과 ‘러브게임’을 비롯해 네이버 시리즈 원작 웹 소설 ‘금혼령: 조선혼인금지령’, 네이버 웹툰 원작 ‘철벽! 연애 시뮬레이션’ 등이 대표 인기작이다.이수지 띵스플로우 대표는 “이야기 속 주인공이 된 것 같은 몰입감을 주는 특별한 경험과 재미가 밀레니얼+Z(MZ) 세대를 중심으로 빠르게 확산되며 스플의 이용자수가 최근 급격히 늘어나고 있다”며 “스플을 성원해 주시는 이용자분들에게 감사드리며 앞으로도 재미있고 다채로운 콘텐츠로 서비스를 향상시킬 것”이라고 말했다.띵스플로우는 2017년 6월 설립된 콘텐츠 플랫폼 스타트업으로 작가, 디자이너 등 콘텐츠 전문가와 IT 개발자가 조화를 이루는 팀 문화를 바탕으로 서비스를 기획 개발하고 있다. 2018년 2월 출시된 캐릭터 지적재산권(IP) 기반의 AI 감성 챗봇 서비스 ‘헬로우봇’은 MZ세대를 중심으로 큰 인기를 끌었다.또 출시 2년여 만에 일본을 비롯한 글로벌 시장에도 진출하는 등 지속적으로 서비스를 확장해 이달 기준 누적 사용자 450만명을 돌파했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>유비소프트, ‘마리오+래비드 반짝이는 희망’ 닌텐도로 즐긴다</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 10:05</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>[디지털데일리 왕진화 기자] 유비소프트가 새로운 ‘마리오+래비드®’ 시리즈 게임을 닌텐도 스위치에 선보인다.   유비소프트엔터테인먼트(Ubisoft Entertainment)는 협업 전략 역할수행게임(RPG) ‘마리오+래비드® 반짝이는 희망’을 오는 10월20일 닌텐도 스위치(Nintendo Switch™)를 통해 독점 출시한다고 1일 밝혔다.   마리오+래비드® 반짝이는 희망은 턴제 방식 전술과 실시간 액션이 결합된 게임 플레이 및 독특한 스토리가 특징이다. 이 게임은 스탠다드, 은하계, 골드 등 총 3개의 에디션으로 출시될 예정이다. 현재 사전예약을 진행 중이다.   이 게임에는 쾌활한 마리오, 사교적인 래비드 피치, 교양 있는 래비드 로젤리나 등 저마다 독특한 특성을 가지고 있는 9명의 영웅이 등장한다. 이용자는 이들 중 3명을 선발해 함께 행성을 탐험하고 은하계를 구하는 임무를 수행하게 된다.   특히 게임 내 모든 영웅은 적에게 돌진, 팀 점프, 은폐 등 고유 특수 능력을 지니고 있다. 다양한 전술적 조합이 가능하다. 유비소프트는 게임 내 등장하는 영웅과 고유 능력을 순차적으로 공개하며 출시 기대감을 높일 예정이다.   이용자는 자신의 영웅을 직접 육성하며 개인 취향에 맞게 커스터마이징을 할 수 있다. 또한 신기하고 강력한 힘을 가지고 있는 ‘스파키’를 모아 적을 물리치고 영웅들의 새로운 능력을 잠금 해제할 수 있다.   유비소프트는 정식 출시일까지 게임과 관련된 다양한 소식을 순차적으로 공개할 예정이다.    한편, 일본의 전설적인 작곡가 요코 시모무라(Yoko Shimomura), 다양한 수상에 빛나는 가레스 코커(Gareth Coker), 영국 유명 비디오 게임 작곡가 그랜트 키르코페(Grant Kirkhope)가 게임 사운드트랙 작업에 정식 참여한다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>블리자드, 'WOW: 리치왕의 분노' 제작 비화 영상 공개</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 10:01</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>'리치왕의 분노 클래식' 출시 앞두고 추억 돌아보기
+[사진=블리자드]'월드오브워크래프트: 리치 왕의 분노 클래식' 출시를 앞둔 가운데 오리지널 '리치 왕의 분노' 제작 비화를 다룬 영상 시리즈의 첫 편 '아제로스 세우기: 노스렌드'가 1일 공개됐다.블리자드가 준비한 이번 영상에는 월드오브워크래프트 팀의 일라이 캐논 아트 디렉터와 사라 볼리안 베랄 수석 레벨 디자이너, 아론 켈러 오버워치 게임 디렉터까지 3명의 베테랑 개발자가 등장해 리치 왕의 분노 개발 시절을 회고한다.월드오브워크래프트의 세계관을 완성하는 중요한 장소이자 주요 캐릭터 '아서스 메네실'이 탄생한 곳이기도 한 '노스렌드'의 디자인 방식과 다양한 구성 요소, 당시의 기술적 도전 등을 살펴볼 수 있으며, 노스렌드의 여러 지역을 만드는 과정에서 쌓은 개발팀의 추억과 영감을 살펴볼 수 있다.이 영상은 월드오브워크래프트 공식 유튜브 채널에서 시청할 수 있으며, 첫 편을 시작으로 하반기 중 추가 시리즈가 공개될 예정이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>위메이드, 블록체인 게임 플랫폼 ‘위믹스 플레이’ 글로벌 출시</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 9:59</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>7월 중 유틸리티코인 '리플렉트 코인'도 선봬자체 메인넷 '위믹스 3.0'도 이날부터 테스트
+[서울경제] 위메이드는 블록체인 게임 플랫폼 ‘위믹스 플레이(WEMIX PLAY)’를 글로벌 시장에 출시했다고 1일 밝혔다.위믹스 플레이는 오픈 블록체인 게임 플랫폼을 지향한다. 이용자는 암호화폐로 게임 관련 아이템을 구입하거나 대체불가능토큰(NFT)를 거래할 수 있다. 게임에서 번 자산을 게임에 재투자해 돈을 벌면서 게임을 즐길 수(P&amp;E·Play&amp;Earn) 있다.위믹스 플레이는 이용자 편의성을 극대화했다. 게임 허브, 토큰 시가 총액, 토큰 스왑, 경매, 스테이킹 프로그램 등 다양한 핵심 정보와 기능을 위믹스 플레이에서 모두 이용할 수 있다.위메이드는 7월 중 리플렉트 코인(Reflect Coin)도 선보인다. 리플렉트는 위믹스 플레이에서 서비스하는 다양한 게임 중 ‘리플렉트 얼라이언스’에 포함된 여러 토큰들을 융합해 받을 수 있는 유틸리티 코인이다.위메이드는 오늘 위믹스3.0 테스트넷도 론칭했다. 위믹스3.0은 위메이드가 자체 개발한 블록체인 메인넷이다. 위메이드는 메인넷 프로토콜을 테스트넷 환경으로 복사해, 프로토콜의 모든 잠재적 위협이나 허점을 발견하고 수정하기 위해 다양한 테스트를 진행한다. 테스트 완료 후 메인넷을 오픈할 계획이다.장현국 위메이드 대표는 “게임은 블록체인과 암호화폐의 가장 핵심적인 유틸리티인데, 위믹스 플레이는 오픈 블록체인 게임 플랫폼으로 자리잡을 것”이라며 “오늘 테스트를 시작한 위믹스3.0 또한, 완전히 개방된 서비스와 플랫폼을 중심으로 1등 메인넷으로 성장시켜 나갈 것”이라고 말했다.위메이드는 스테이블코인 위믹스달러, 탈중앙금융 서비스 ‘위믹스 디파이 서비스(WEMIX DeFi Service)’,탈중앙화자율조직(DAO·Decentralized Autonomous Organization) 프로젝트를 운영할 수 있는 플랫폼 ‘나일(NILE·NFT Is Life Evolution)’ 등을 3분기까지 순차적으로 공개할 예정이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>위메이드 '위믹스 플레이' 공개…"리플렉트 코인 7월 출시"</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 9:55</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>/사진=위메이드위메이드는 블록체인 게임 플랫폼 '위믹스 플레이'를 1일 글로벌 출시했다.  위믹스 플레이는 일종의 블록체인 게임 '포털'이다. 기존에 위믹스 플랫폼이 탑재(온보딩)된 게임을 소개하는 정도였다면 위믹스 플레이는 게임별 이용자 수나 게임순위, 토큰 정보 등을 확인할 수 있다. 암호화폐로 게임 관련 아이템을 구입하거나 NFT(대체불가토큰)를 거래할 수 있다. 토큰 스왑(교환)·경매·스테이킹(예치)도 위믹스 플레이 안에서 가능하다. 위메이드는 이달 중 '리플렉트 코인'도 선보인다. 리플렉트는 위믹스 플레이에서 서비스하는 다양한 게임 중 '리플렉트 얼라이언스'에 포함된 여러 토큰을 융합해 받을 수 있는 유틸리티 코인이다. 위메이드는 위믹스3.0 테스트넷도 공개했다. 위믹스3.0은 위메이드가 자체 개발한 블록체인 메인넷이다. 위메이드는 메인넷 프로토콜을 테스트넷 환경으로 복사해 잠재적 위협이나 허점을 발견하기 위해 다양한 테스트를 진행한다. 테스트 완료 후 메인넷을 정식 출시한다.장현국 위메이드 대표는 "위믹스 플레이는 오픈 블록체인 게임 플랫폼으로 자리잡을 것"이라며 "오늘 테스트를 시작한 위믹스3.0도 완전히 개방된 서비스와 플랫폼을 중심으로 1등 메인넷으로 성장시켜 나갈 것"이라고 말했다. 위메이드는 △스테이블 코인 '위믹스달러' △탈중앙금융 서비스 '위믹스 디파이 서비스' △DAO(탈중앙화 자율조직) 프로젝트를 운영할 수 있는 플랫폼 '나일' 등을 3분기까지 순차 선보일 예정이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>위메이드, 블록체인 게임 플랫폼 '위믹스 플레이' 글로벌 출시</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 9:55</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>P&amp;E 생태계 뒷받침위믹스3.0 테스트넷도 론칭 
+블록체인 게임 플랫폼 ‘위믹스 플레이’ 론칭 이미지. 위메이드 제공[파이낸셜뉴스] 위메이드가 자체 블록체인 게임 플랫폼을 전 세계 시장에 내놓는다.   위메이드는 블록체인 게임 플랫폼 ‘위믹스 플레이(WEMIX PLAY)’를 글로벌 시장에 출시했다고 1일 밝혔다.   위믹스 플레이는 오픈 블록체인 게임 플랫폼을 지향한다. 이용자는 암호화폐로 게임 관련 아이템을 구입하거나 NFT(대체불가능한 토큰)를 거래할 수 있다. 게임에서 번 자산을 게임에 재투자하는 '플레이 앤 언(P&amp;E)’이 가능하다는 설명이다.   해당 플랫폼에서는 △게임 허브 △토큰 시가 총액 △토큰 스왑 △경매 △스테이킹 프로그램 등 다양한 핵심 정보·기능을 이용할 수 있다.   위메이드는 7월 중 리플렉트 코인(리플렉트)도 선보일 예정이다. 리플렉트는 위믹스 플레이에서 서비스하는 다양한 게임 중 리플렉트 얼라이언스에 포함된 여러 토큰들을 융합해 받을 수 있는 유틸리티 코인이다.   위메이드는 이날 위믹스3.0 테스트넷도 론칭했다고 밝혔다. 위믹스3.0은 위메이드가 자체 개발한 블록체인 메인넷이다.   위메이드는 메인넷 프로토콜을 테스트넷 환경으로 복사해 프로토콜 내 잠재적 위협이나 허점을 발견하고 수정하기 위해 다양한 테스트를 진행한다. 테스트가 완료된 이후 메인넷을 오픈할 계획이다.   장현국 위메이드 대표는 “게임은 블록체인과 암호화폐의 가장 핵심적인 유틸리티인데 위믹스 플레이는 오픈 블록체인 게임 플랫폼으로 자리잡을 것”이라며 “오늘 테스트를 시작한 위믹스3.0 또한 완전히 개방된 서비스와 플랫폼을 중심으로 1등 메인넷으로 성장시켜 나갈 것”이라고 말했다. #위메이드 #NFT #위믹스 #테스트넷</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>'킹스레이드' 베스파, 전 직원에게 권고사직 통보</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 9:50</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>경영난 등으로 올해 2월 코스닥 거래 정지
+'킹스레이드'의 개발사 베스파가 전 직원에게 권고사직을 통보한 것으로 나타났다.1일 게임업계에 따르면 베스파는 지난 30일 100여명에 이르는 직원들에게 권고사직을 통보했다. 직장인 커뮤니티 블라인드에서도 베스파 전원이 권고사직당했다는 주장이 나오기도 했다.베스파는 2017년 모바일 게임 킹스레이드 흥행에 힘입어 성장한 게임 개발사다. 2018년에는 코스닥에도 입성했으나 이후 내놓은 게임들이 부진을 겪었다. 지난해에는 게임업계 연봉 인상 릴레이에 맞춰 임직원의 연봉을 1천200만원 일괄 인상했으나 연말께 구조조정을 실시하는 등 내홍을 치루기도 했다. 올해 2월에는 주식 거래가 정지된 바 있다.한편 베스파가 이처럼 사내 구성원 전원을 내보내면서 킹스레이드와 타임디펜더스 등 현재 서비스 중인 게임들의 지속 여부도 가늠할 수 없게 됐다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>네이버 에어서치, 숨은 지역 명소·맛집 정보 담은 '로컬 스마트블록' 선봬</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 9:37</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>함께 가볼만한 장소·지역별 특색있는 맛집 정보 등 제공[서울경제] 네이버는 숨은 명소부터 맛집까지 사용자의 장소 검색을 돕는 로컬 스마트블록을 신규 제공한다고 1일 밝혔다.
+로컬 스마트블록은 ?함께 가볼만한 장소 ?지역별 로컬 맛집 ?TV 속 맛집 등으로 구성돼 사용자에게 적재적소에 맞는 장소를 추천해준다. 먼저 ‘함께 가볼만한 장소’ 블록은 사용자가 특정 장소를 검색하면, 해당 지역 근처에서 사용자가 많이 검색한 맛집, 카페, 명소 등을 알려준다. 예를 들어, 사용자가 ‘OO 골프장’을 검색한 경우, 해당 골프장과 함께 가볼만한 맛집, 근처 명소, 카페 등이 블록으로 함께 제안되는 방식이다. 블록은 사용자의 방문 데이터를 분석한 딥러닝 모델을 통해 특정 장소와 유사한 성격을 지닌 장소들로 구성된다. 네이버 관계자는 “길찾기 데이터를 활용해 실제로 특정 장소 방문 전후로 방문한 장소들을 통계적으로 분석하여 정확도를 높였다”고 강조했다. 아울러, 사용자가 잘 모르는 지역으로 여행을 갔을 때 유용한 ‘로컬 맛집 블록’도 제공된다. 해당 블록들은 '속초', '부산 여행'과 같이 검색할 경우, 지역별로 특색 있게 즐길 수 있는 메뉴와 해당 맛집을 함께 추천한다. 이 밖에도 TV에 출연한 곳의 동영상 클립과 장소 정보를 모아서 제공하는 TV 속 맛집 클립 블록도 제공된다. 한편 네이버는 지난해 인공지능(AI) 검색 ‘에어서치’를 선보이고 스마트블록을 도입, 사용자의 취향에 맞는 맞춤형 정보를 전달해 검색 편의성을 높여왔다. 연내 검색결과의 약 30%까지 스마트블록 비중을 확대할 예정이다. 최지훈 네이버 서치CIC 책임리더는 “네이버 스마트블록은 사용자의 검색 시간을 단축시키면서도 최적의 콘텐츠를 가장 빠르게 찾을 수 있도록 돕는다”며 “로컬 스마트블록을 통해 발견하기 어려운 장소를 더 쉽고 빠르게 발견하는 즐거움을 선사할 것”이라고 말했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>위메이드, '위믹스 플레이' 출시…오픈 블록체인 게임 플랫폼 목표</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 9:28</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>위믹스 디파이 서비스, 나일 등 3분기까지 순차 공개위메이드(대표 장현국)가 블록체인 게임 플랫폼 '위믹스 플레이(WEMIX PLAY)'를 1일 글로벌 출시했다고 이날 발표했다.
+  [사진=위메이드]오픈 블록체인 게임 플랫폼을 지향하는 위믹스 플레이에서 이용자는 암호화폐로 게임 관련 아이템을 구입하거나 NFT를 거래할 수 있다. 게임 허브, 토큰 시가 총액, 토큰 스왑, 경매, 스테이킹 프로그램 등의 기능도 해당 플랫폼에서 이용할 수 있다.위메이드는 7월 중 '리플렉트 코인(Reflect Coin)'도 선보인다. 리플렉트는 위믹스 플레이에서 서비스하는 게임 중 '리플렉트 얼라이언스'에 포함된 여러 토큰들을 융합해 받을 수 있는 유틸리티 코인이다.위메이드는 이날 위믹스3.0 테스트넷도 론칭했다. 위믹스3.0은 위메이드가 자체 개발한 블록체인 메인넷이다. 위메이드는 메인넷 프로토콜을 테스트넷 환경으로 복사해, 프로토콜의 모든 잠재적 위협이나 허점을 발견하고 수정하기 위해 테스트를 진행 후 메인넷을 오픈할 계획이다.장현국 위메이드 대표는 "게임은 블록체인과 암호화폐의 가장 핵심적인 유틸리티인데, 위믹스 플레이는 오픈 블록체인 게임 플랫폼으로 자리잡을 것"이라며 "오늘 테스트를 시작한 위믹스3.0 또한, 완전히 개방된 서비스와 플랫폼을 중심으로 1등 메인넷으로 성장시켜 나갈 것"이라고 말했다.위메이드는 스테이블코인 위믹스달러, 위믹스 디파이 서비스, DAO(탈중앙화 자율조직) 프로젝트를 운영할 수 있는 플랫폼 '나일(NILE, NFT Is Life Evolution)' 등을 3분기까지 순차 공개할 예정이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>네오위즈 ‘고양이와 스프’, 패션브랜드 ‘르아위’와 콜라보 의류 출시</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 9:24</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>[이데일리 김정유 기자] 네오위즈(095660)는 하이디어가 개발한 힐링 모바일 게임 ‘고양이와 스프’와 패션 브랜드 ‘르아위’가 콜라보레이션 의류를 선보인다고 1일 밝혔다.‘르아위’는 국내의 다양한 분야에 뛰어난 재능을 가진 예술가 및 혁신가들이 모여 예술과 패션의 조화로움을 토대로 새로운 문화를 제안하는 패션 브랜드다. 이번 협업을 통해 선보이는 제품은 다양한 핏의 티셔츠와 져지, 피케 티셔츠를 포함한 상의와 반바지, 다양한 색상의 볼캡 등 40여종의 여름 시즌 의류들로 구성됐다. 귀엽고 아기자기한 동화풍의 일러스트로 큰 사랑을 받고 있는 고양이와 스프 게임 캐릭터를 활용한 디자인으로 포인트를 살린 것이 특징이다. 이번 콜라보 제품들은 온라인 패션 스토어 무신사를 시작으로 지그재그와 에이블리, 아마존 등 국내외 다양한 온라인 쇼핑 플랫폼을 통해 선보일 예정이다. 또 에이랜드와 원더 플레이스 등 국내 패션 편집숍에서도 구매할 수 있도록 할 계획이다.네오위즈 관계자는 “고양이와 스프 IP를 활용해 진행하는 첫 번째 콜라보레이션인 만큼 많은 기대를 하고 있다”며 “이를 시작으로 고양이와 스프 IP를 강화할 수 있는 다양한 사업을 진행할 예정”이라고 말했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>위메이드, 블록체임 게임 플랫폼 ‘위믹스 플레이’ 론칭</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 9:21</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>[이데일리 김정유 기자] 위메이드(112040)는 블록체인 게임 플랫폼 ‘위믹스 플레이’를 글로벌 시장에 론칭했다고 1일 밝혔다.위믹스 플레이는 오픈 블록체인 게임 플랫폼을 지향한다. 이용자는 암호화폐로 게임 관련 아이템을 구입하거나 대체불가능토큰(NFT)을 거래할 수 있다. 또한 게임에서 번 자산을 게임에 재투자하는 ‘Play &amp; Earn’이 가능하다.위믹스 플레이는 편의성을 극대화했다. 게임 허브, 토큰 시가 총액, 토큰 스왑, 경매, 스테이킹 프로그램 등 다양한 핵심 정보와 기능을 위믹스 플레이에서 모두 이용할 수 있다.위메이드는 이달 중 ‘리플렉트 코인’(Reflect Coin)도 선보인다. 리플렉트는 위믹스 플레이에서 서비스하는 다양한 게임 중, 리플렉트 얼라이언스에 포함된 여러 토큰들을 융합해 받을 수 있는 유틸리티 코인이다.위메이드는 이날 위믹스3.0 테스트넷도 론칭했다. 위믹스3.0은 위메이드가 자체 개발한 블록체인 메인넷이다. 위메이드는 메인넷 프로토콜을 테스트넷 환경으로 복사해 프로토콜의 모든 잠재적 위협이나 허점을 발견하고 수정하기 위해 다양한 테스트를 진행한다. 장현국 위메이드 대표는 “게임은 블록체인과 암호화폐의 가장 핵심적인 유틸리티인데, 위믹스 플레이는 오픈 블록체인 게임 플랫폼으로 자리잡을 것”이라며 “오늘 테스트를 시작한 위믹스3.0 또한, 완전히 개방된 서비스와 플랫폼을 중심으로 1등 메인넷으로 성장시켜 나갈 것”이라고 말했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>[Oh!쎈 초점] 카카오게임즈 흥행작 MMORPG ‘오딘’, 서비스 1주년 성과</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 9:06</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>카카오게임즈 제공.[OSEN=고용준 기자] 지난 해 대한민국 게임시장을 강타한 MMORPG ‘오딘: 발할라 라이징(이하 ‘오딘’)’이 서비스 1주년을 맞았다.‘오딘’은 작년 6월 말 출시돼 내로라하는 유명 IP의 대형 게임 틈새에서 신생 개발사가 제작한 신규 IP의 모바일 게임으로 등장해 이목을 집중시켰다. 출시 직후 줄곧 국내 최상위권 순위에 자리매김하며, 국내 이용자들에게 고퀄리티의 그래픽과 탄탄한 게임성으로 폭발적인 사랑을 받고 있다.지난 3월 말에는 대만, 홍콩 등 중화권 지역에 출시돼 직후 상위권 순위에 안착하며 글로벌 시장에서의 성공적인 첫 시작을 알렸으며, 이어 일본 등 지역 서비스도 예고하며 올해 본격적인 글로벌 행보를 보이고 있다.▲ 대한민국 대표하는 새로운 IP, 웰메이드 게임의 탄생 ‘오딘’카카오게임즈는 2018년 8월 라이온하트 스튜디오에 첫 투자 단행 이후 2020년 5월 ‘오딘’의 국내 퍼블리싱 계약을 정식으로 체결했다. 작년 11월에는 카카오게임즈 유럽 법인이 추가 투자를 단행하며 글로벌 판권까지 확보하는 등 양사의 시너지를 극대화해가고 있다. 라이온하트 스튜디오의 개발력과 카카오게임즈의 마케팅, 운영 등 서비스 결합이 빛을 발했다는 평가다.‘블레이드’ 등으로 액션 모바일 RPG의 한 획을 그은 김재영 사단이 개발한 MMORPG ‘오딘’은 2020년 11월 ‘지스타 2020’에서 첫 인게임 트레일러 영상이 공개되며, 시선을 끌었다. 공개 직후 조회수 230만 회를 기록했으며, 이후 카카오게임즈는 순차적으로 ‘오딘’의 다양한 콘텐츠를 영상, 광고 등 여러 방식으로 선보이며 기대감을 높였다.사전 예약 시작 후 하루 만에 100만 명이 참여하고, 출시 전까지 400만 명이 넘는 인원이 몰리며 뜨거운 관심을 보였다. 무엇보다 게임 출시 후 콘텐츠에 대한 이용자들의 반응이 뜨거웠다. 게임을 플레이하려는 이용자들이 몰리며 일주일만에 ‘헤임달’, ‘티르’ 등 신서버를 18개 이상 오픈했으며, 출시 직후 양대 마켓 인기 및 게임 매출 순위 1위를 석권하며 대한민국을 대표하는 MMORPG로 자리 잡았다.▲ ‘오딘’이 남긴 기록‘오딘’의 성공 요인은 단연 잘 만들어진 ‘콘텐츠’였다. 3D 스캔, 모션 캡쳐 기술을 사용한 수준 높은 그래픽을 기반으로, ‘토르’, ‘로키’ 등이 등장하는 북유럽 신화의 세계관, 로딩없이 즐길 수 있는 심리스 오픈월드 배경이 호평을 받았다. 모바일 플랫폼뿐 아니라 PC 플랫폼에서도 최적화해 플레이 가능하다는 점도 인기에 한 몫했다. 여기에 게임의 지형을 활용해 수영, 암벽 등반 등 디테일한 전투 외 요소가 많은 사랑을 받고 있다.‘오딘’에 대한 뜨거운 인기는 매출로도 이어졌다. 국내에서는 서비스 시작한지 180여 일만에 누적 매출이 5,000억 원을 돌파한데 이어, 센서타워가 발표한 지난해 3분기 리포트에 따르면 한국 모바일 게임 매출 1위를 차지하기도 했다. 또 ‘오딘’은 올해 대만 시장에 출시한지 약 한 달 만에 500억 원의 매출을 달성해 그 위세를 가늠케 했다.이에 더해, 지난해 11월, ‘2021 대한민국 게임대상’에서 대통령상인 ‘대상’을 비롯해 4관왕을 차지하고 ‘2021 구글 플레이 어워즈’에서 ‘올해를 빛낸 게임 최우수상’을 수상하는 등 여러 국내외 시상식에서 ‘최고의 게임’으로 꼽히며, 대한민국을 대표하는 게임으로 자리매김 했다.▲ 대만, 일본 등 글로벌 시장 행보 ‘주목’서비스 시작 후 1년이 지난 지금, ‘오딘’의 목표는 안정적인 국내 서비스 운영과 글로벌 시장 확장이다.‘오딘’은 주기적이고 지속적인 콘텐츠, 편의성 업데이트를 통해 2030대부터 중. 장년층까지 다양한 이용자들에게 쾌적한 환경을 제공하는 부분에 주안점을 준다는 계획이다. 여기에, ‘성장’과 ‘경쟁’ 콘텐츠를 지속적으로 공개하며, 이용자들이 성장시킨 캐릭터를 다채로운 콘텐츠로 충분히 즐길 수 있게, 또 길드나 파티를 통해 함께 즐기는 협동 플레이로 보다 박진감 넘치는 재미를 제공할 예정이다.글로벌 시장 확장 역시 ‘오딘’의 성장 동력이다. ‘오딘’은 지난 3월 중화권 지역 출시 직후 애플 앱스토어 매출 및 인기 순위 1위, 구글 플레이 인기 순위 1위 및 상위권에 오르며 시장에 안착했다. ‘오딘’의 중화권 성적은 뛰어난 게임성과 차별화된 현지화에 대한 결과로 평가되고 있다.첫 글로벌 시장 진출에서 긍정적인 성적을 거둔 만큼, 다음 출시 지역인 일본을 비롯해 차기 글로벌 진출 행보에 시장의 관심이 쏠리고 있다. 카카오게임즈는 지난 1년간의 성공적인 국내 출시 및 노하우를 바탕으로 안정적인 국내 서비스 운영뿐만 아니라 일본과 이후 글로벌 출시 지역 현지화에 만반을 기한다는 계획이다. / scrapper@osen.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>'오딘 개발사 지분 매각' 위메이드, 수익률 23배 거둬...총 1187억 회수</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 9:03</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>위메이드가 라이온하트스튜디오 일부 지분을 매각하고 큰 차익을 거뒀다. /사진제공=위메이드   위메이드가 라이온하트스튜디오 지분 일부를 매각하면서 또 한 번의 투자 성공신화를 썼다. 2018년 라이온하트스튜디오에 약 50억원을 투자한 지 4년 만에 무려 23배에 달하는 수익을 올린 셈이다. 위메이드는 카카오게임즈에 '오딘: 발할라 라이징'(오딘) 개발사 라이온하트스튜디오 주식 2만2209주를 1187억원에 양도하기로 결정했다고 지난달 30일 공시했다. 앞서 위메이드는 지난 5월 22일 선급금으로 424억원을 받았다. 이번 1187억원은 이 금액이 포함된 액수다. 양도 목적은 공동매도권 행사를 통한 투자자금 회수다. 위메이드의 라이온하트 지분은 7.22%에서 4.23%(3만1369주)로 줄어든다. 위메이드는 2018년 50억원을 투자해 라이온하트 지분을 확보했다. 절반에 못 미치는 지분을 팔았음에도 막대한 수익을 올렸다. 그동안 위메이드는 수차례 투자에 성공해 큰 수익을 냈다. 지난 2011년과 2012년 카카오 유상증자에 참여해 250억원을 투자했고, 5년 만에 지분 전부를 처분해 약 8배에 달하는 1936억원을 수익으로 남겼다. 여기에 시프트업, 엑스엘게임즈 등 여러 회사에도 투자해 이익을 거뒀다.  라이온하트스튜디오는 카카오게임즈 대표 효자 게임인 오딘을 개발했다. 오딘은 지난해 11월 국내에 출시된 이후 1년이 넘도록 매출 상위권을 유지하며 카카오게임즈와 라이온하트스튜디오의 가파른 성장을 견인했다는 평가다. 이번 양도계약으로 카카오게임즈의 라이온하트 지분은 24.57%가 됐다. 유럽법인(Kakao Games Europe B.V.) 지분까지 더하면 총 54.95%를 보유하게 된다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>10돌 맞은 '애니팡'…위메이드플레이가 말하는 장수 비결은</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 9:01</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>리마스터 비롯한 업데이트로 인기 견인…NFT 접목해 새 물꼬 튼다
+10주년을 맞이한 '애니팡' 시리즈. [사진=위메이드플레이]
+옛 '애니팡2(좌측)'와 리마스터된 '애니팡2'의 모습. [사진=위메이드플레이]'국민게임' 호칭을 얻은 '애니팡'이 올해로 출시 10주년을 맞았다. 모바일 게임 대중화의 시작을 알린 애니팡은 누적 다운로드 3천700만건, 최고 일일이용자(DAU) 1천만명, 동시접속자 300만명 등의 진기록을 남긴 게임이다.위메이드플레이(옛 선데이토즈)는 2012년 선보인 애니팡을 시작으로 2014년 '애니팡2', 2016년 '애니팡3', 2020년 '애니팡4'를 출시하며 시리즈화를 꾀했다. 애니팡 시리즈는 같은 모양의 블록을 가로나 세로로 3개 이상 연달아 배치하는 '3매치' 방식을 기본으로 하되 매편 차별화를 둬 독자적인 인기를 얻는데 성공했다.이들 애니팡 시리즈가 수년 넘게 인기를 끌고 있다는 점도 눈여겨볼 대목이다. 위메이드플레이는 리마스터를 비롯한 다양한 업데이트로 제품수명주기(PLC)를 늘려 나가며 애니팡 시리즈의 인기를 지속해서 견인하고 있다.가장 먼저 리마스터 버전 업데이트를 진행한 게임은 '애니팡3'였다. 2019년 3월 선보인 애니팡3 리마스터 버전은 6개월 동안 기획, 개발, 테스트를 거쳤으며 메뉴와 시스템 간결화에 중점을 뒀다. 이를 통해 스마트폰 자원 사용 최적화로 로딩과 플레이 속도가 최대 30%가량 단축됐고 블록 격파 시 연출되는 이펙트를 개선해 보다 역동적인 그래픽 효과를 선보였다.애니팡2는 두 차례에 걸쳐 리마스터 업데이트를 진행했다. 2020년 1월 리마스터 업데이트가 적용된 애니팡2는 기존 플래시 기반의 '에어 엔진'을 '유니티 엔진'으로 바꾸고 프레임을 개선해 화려하고 다채로운 연출 등 시각적인 재미를 업그레이드했다. 2021년에는 리마스터 2.0이라는 이름으로 게임의 그래픽과 디자인 요소들을 전면 개편하기도 했다.애니팡 시리즈는 퍼즐 본연의 재미에 집중하면서도, 퍼즐 플레이와 연계한 색다른 서브 콘텐츠를 운영하면서 다양한 즐길거리를 제공한다. 애니팡2는 사탕공장, 스피드 그랑프리 등 주간 이벤트 5개와 과일농장, 그림일기 등 주말 이벤트 2개로 총 7개의 이벤트를 정기적으로 열고 있다. 애니팡3는 10개, 애니팡4는 9개로 수수께끼, 빙고, 별자리, 운동회, 낚시 등 다양한 소재로 미니 게임 형태의 이벤트를 선보이고 있다.신규 콘텐츠 외에도 기존 이벤트를 대대적으로 개편한 점도 눈길을 끈다. 특히 애니팡2의 경우 '낚시왕' 콘텐츠의 포획 어종을 12종으로 확대하고 한국 바다에서 서식하는 어종을 조사, 반영해 사실감을 높이는 한편 계절, 날씨 등 환경 요소에 따라 바뀌는 배경과 화면의 직관성을 높여 호응을 얻었다.위메이드플레이는 IT 및 게임업계 핫 키워드로 부상한 NFT를 애니팡 시리즈에 접목한다는 방침이다. 이 회사는 지난 5월 애니팡 IP를 활용한 NFT 사업 진출 소식을 전한 바 있다. 특히 NFT 보유에 따른 멤버십 서비스인 '애니팡 클럽(가칭)'은 소유자와 다양한 디지털 콘텐츠, 서비스를 연결하는 플랫폼을 목표로 하고 있다.위메이드플레이는 "향후 NFT 사업과 함께 '애니팡 매치', '애니팡 블라스트' 등 애니팡 시리즈에 블록체인 기술을 결합한 다양한 신작을 준비하고 있다"며 "새롭게 선보일 블록체인 기반 신작들과 그 안에서 소유와 유통, 다양한 혜택 등을 제공할 '애니팡 클럽'이 어떤 시너지를 낼지가 관전 포인트"라고 강조했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>삼성전자, '게이밍 허브' 서비스 출시</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 8:50</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>(서울=연합뉴스) 삼성전자가 네오(Neo) QLED 8K를 비롯한 2022년형 스마트 TV와 스마트 모니터에서 스트리밍 게임 플랫폼 연동 서비스 '삼성 게이밍 허브'를 시작했다고 1일 밝혔다. 사진은 삼성 Neo QLED 8K로 '게이밍 허브'를 실행한 모습. 2022.7.1 [삼성전자 제공. 재판매 및 DB 금지]    photo@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>카카오게임즈, '오딘' 개발사 라이온하트 1.2조에 지분 인수</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 8:35</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>카카오게임즈는 지난달 30일 유럽법인(카카오게임즈유럽)을 통해 라이온하트스튜디오의 주식 22만5260주(30.37%)를 1조2040억7304만원에 취득했다고 공시했다. /사진제공=카카오게임즈  카카오게임즈는 유럽 법인을 통해 계열사 '라이온하트 스튜디오' 주식 22만5260주(지분율 30.37%)를 약 1조2041억원에 취득했다고 지난달 30일 알렸다. 아울러 취득액 중 선급금 4500억원을 제외한 잔금 7541억원을 취득예정일인 이날 추가로 지급한다고 했다. 이로써 카카오게임즈와 유럽 법인은 라이온하트 지분 총 54.95%를 보유하게 된다.라이온하트 스튜디오는 유명 개발자 김재영 대표가 2018년에 설립한 회사다. 기업공개(IPO)를 추진 중이며 인기작 '오딘: 발할라 라이징'(오딘)을 개발해, 이를 발판으로 크게 성장했다. 오딘은 지난해 11월 국내에 출시된 이후 1년이 넘도록 매출 상위권을 유지하며 카카오게임즈와 라이온하트스튜디오의 성장을 동시에 이끌었다는 평가가 나온다. 카카오게임즈는 오딘의 국내외 서비스를 담당하고 있다. 카카오게임즈는 라이온하트 주식 취득 목적을 '글로벌 사업 경쟁력 강화'라고 설명했다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>삼성 스마트TV로 스트리밍 게임을…'게이밍 허브' 서비스 출시</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 8:32</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>TV 업계 최초 '엑스박스 게임 패스' 서비스 지원
+삼성전자 '게이밍 허브' 서비스[삼성전자 제공. DB 및 재판매 금지](서울=연합뉴스) 김철선 기자 = 삼성전자가 별도 게임기 없이도 스마트 TV로 스트리밍 게임을 즐길 수 있는 서비스를 선보였다.    삼성전자는 네오(Neo) QLED 8K를 비롯한 2022년형 스마트 TV와 스마트 모니터에서 스트리밍 게임 플랫폼 연동 서비스 '삼성 게이밍 허브'를 시작했다고 1일 밝혔다.    사용자들은 스마트폰에서 동영상 스트리밍 서비스 앱을 이용하는 것처럼 별도 게임기 연결이나 다운로드 없이 스마트 TV와 모니터에서 삼성전자와 파트너십을 체결한 여러 스트리밍 게임을 즐길 수 있다.    삼성 게이밍 허브를 통해 국내에서 지원하는 게임 스트리밍 서비스는 마이크로소프트(MS) '엑스박스 게임 패스'(Xbox Game Pass), 엔비디아 '지포스나우'(GeForce NOW) 등이다.    특히 인기 구독형 게임 서비스인 '엑스박스 게임 패스'를 지원하는 것은 TV 업계에서 삼성전자가 처음이다.    구독 서비스를 가입한 사용자들은 '포르자 호라이즌5'와 '헤일로 인피니트', '사이버펑크 2077' 등 100여개의 클라우드 게임을 스마트 TV에서 플레이할 수 있다.    삼성전자는 올해 출시한 2022년형 네오 QLED TV가 고주사율과 빠른 반응 속도, 입체적 사운드를 구현해 한층 강화된 게이밍 경험을 선사할 수 있다고 강조했다.    삼성전자 영상디스플레이사업부 이원진 사장은 "삼성 게이밍 허브는 삼성전자의 독보적인 TV 기술력과 글로벌 파트너사들의 게임 콘텐츠가 결합돼 만들어졌다"며 "주요 게임 서비스 업체와의 파트너십을 확장하고 사용자 맞춤형 기능과 서비스를 개발해 다양한 게임을 편리하게 이용할 수 있게 될 것"이라고 말했다.    kcs@yna.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>삼성 반도체, 세계 최초 3나노로 차세대 파운드리 역공</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 7:00</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>[일간스포츠 정길준]   
+삼성전자 파운드리사업부 정원철 상무(왼쪽부터), 구자흠 부사장, 강상범 상무가 화성캠퍼스 3나노 양산라인에서 3나노 웨이퍼를 보여주는 모습. 삼성전자 제공     삼성전자가 메모리에 이어 전 산업에서 수요가 급증한 차세대 파운드리(반도체 위탁생산) 시장에서도 초격차 전략을 앞세워 리더십을 가져간다.    삼성전자는 세계 최초 GAA 기술을 적용한 3나노(㎚, 1나노미터는 10억분의 1m) 파운드리 공정 기반의 초도 양산을 시작했다고 30일 밝혔다. GAA 기술은 반도체를 구성하는 트랜지스터에서 전류가 흐르는 채널 4개 면을 게이트가 둘러싸는 형태다.    채널 3개 면을 감싸는 기존 핀펫 구조 대비 성능과 효율을 크게 개선할 수 있다. 채널을 얇고 넓은 모양의 나노시트 형태로 구현한 독자 MBCFET GAA 구조도 적용했다.    삼성전자 3나노 GAA 1세대 공정은 5나노 핀펫 공정과 비교해 전력 45% 절감·성능 23% 향상·면적 16% 축소를 보장한다. GAA 2세대 공정은 전력 50% 절감·성능 30% 향상·면적 35% 축소가 기대된다.    회사는 이미 고성능 컴퓨팅(HPC)용 시스템 반도체를 초도 생산했다. 모바일용으로도 확대할 예정이다. 연초 출시한 '갤럭시S22'가 업계에서 처음으로 4나노 칩을 탑재한 바 있다.      
+이재용 삼성전자 부회장이 14일(현지시간) 네덜란드 에인트호번에 위치한 ASML 본사에서 피터 베닝크 ASML CEO, 마틴 반 덴 브링크 ASML CTO 등과 함께 반도체 장비를 점검하는 모습. 삼성전자 제공     삼성전자는 여기에 만족하지 않고 기술 초격차 유지 차원에서 반도체 인프라를 공고히 하기 위한 아웃리치(대외 접촉)에 총력을 기울이고 있다.    이달 7일 유럽행 비행기에 탑승한 이재용 부회장은 약 2주간의 출장 일정을 소화했다. 특히 지난 14일 네덜란드 방문이 가장 큰 주목을 받았다.    이 부회장은 ASML 본사를 방문해 피터 베닝크 CEO(최고경영자)를 직접 만나 EUV(극자외선) 노광장비의 수급 방안을 논의했다.    EUV 노광장비는 7나노 이하 초미세 공정 구현에 필수적인 장비로, ASML이 독점 생산한다. 최신 장비인 '하이 NA(뉴메리컬 어퍼처)'는 대당 5000억원이 넘는 것으로 알려졌다.    글로벌 파운드리 시장 1위 대만 TSMC와의 점유율 격차가 벌어지는 상황에서 이번 추격 전략은 순위에 반전을 줄 수 있는 한방이 될 것이라는 분석이다.    시장조사업체 트렌드포스의 2022년 1분기 전 세계 파운드리 시장 현황에서 TSMC는 점유율 53.6%로 선두를 굳건히 지켰다. 삼성전자가 16.3%로 뒤를 이었지만 전 분기보다 격차가 3.5%포인트 더 벌어졌다.    김양팽 산업연구원 연구원은 "각국 정부의 지원 정책과 주요 반도체 기업의 투자 계획 등을 종합하면 2025년을 기점으로 글로벌 반도체 공급망이 재편될 전망"이라며 "이후 중심국이 되기 위해서는 국내 생태계를 강화해 종합 반도체 강국으로 도약해야 한다"고 말했다.    정길준 기자 kjkj@edaily.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>"유료 회원 100만·매출 5000억" LG, SM과 홈 피트니스 확 키운다</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 7:00</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>[일간스포츠 정길준]   
+30일 서울 여의도 콘래드호텔에서 열린 LG전자-SM 합작법인 피트니스캔디 출범 보고회에서 앰버서더로 선정된 모델 한혜진·댄서 아이키·방송인 최여진이 포토타임을 갖는 모습. 정시종 기자     LG전자가 자사 디바이스 역량에 K콘텐츠를 더해 홈 피트니스 사업을 확 키운다. 스포츠를 넘어 라이프스타일로 영역을 넓힌 골프만큼 잠재력이 무궁무진하다는 이유에서다. 3년 뒤 매출 5000억원을 달성하겠다는 공격적인 목표도 제시했다.    LG전자는 30일 서울 여의도 콘래드호텔에서 SM엔터테인먼트(이하 SM)와 홈 피트니스 합작법인 '피트니스캔디' 출범을 공식화했다.    이날 조주완 LG전자 CEO(최고경영자) 사장은 "그동안 가전 패러다임이 기능과 성능 중심의 제품을 만드는 데 집중했다면, LG전자는 고객 경험 중심의 스마트 가전 패러다임으로 선도해 나가고자 한다"고 말했다. 이어 "내 삶을 위한 '스마트 라이프 솔루션'을 제공하는 기업으로 변모해 나가고자 한다"고 했다.      
+조주완 LG전자 사장이 30일 서울 여의도 콘래드호텔에서 열린 LG전자-SM 홈 피트니스 합작법인 피트니스캔디 출범 보고회에서 사업 비전을 발표하는 모습. LG전자 제공     피트니스캔디는 단순히 TV에서 트레이닝 영상을 틀어주는 것을 벗어나 올바른 자세를 알려주는 인공지능(AI) 카메라 등 보조 디바이스를 도입해 실질적인 운동 효과 증대에 주력한다.    더 나아가 오프라인 모임·커뮤니티까지 포괄해 홈 피트니스 생태계를 활성화한다.    피트니스캔디는 이르면 오는 9월 앱을 출시할 계획이다. 다양한 스마트폰·스마트TV OS(운영체제)에 탑재한다. 스마트밴드·카메라·운동기기와 데이터를 연동하는 양방향 개인 맞춤형 서비스로 선보인다.    근력 운동·코어 강화·댄스·고강도 인터벌 트레이닝·스트레칭·명상 등 6개 카테고리로 콘텐츠를 구성한다. 각 콘텐츠는 10~40분 분량으로 매주 업데이트한다.    향후에는 AI·빅데이터·디스플레이·모터 등 혁신 기술을 활용한 근력 강화 기구·실내용 자전거·스마트밴드 등의 개발을 검토할 방침이다.   
+이성수 SM엔터테인먼트 공동대표(왼쪽부터)와 조주완 LG전자 사장, 탁영준 SM엔터테인먼트 공동대표가 30일 서울 여의도 콘래드호텔에서 열린 홈 피트니스 합작법인 피트니스캔디 출범식에서 기념촬영을 하는 모습. 정시종 기자     피트니스캔디는 월 2만~3만원을 내는 구독형 서비스로 나올 전망이다. 대표 경쟁 서비스는 애플의 '피트니스플러스'(월 9900원)다. 애플이 운동하는 방법을 알려주는 데 집중한다면, 피트니스캔디는 K팝과 댄스를 결합한 전에 없던 콘텐츠를 보장한다.    심우택 피트니스캔디 대표는 "애플과 펠로톤을 어떻게 이길 거냐는 질문을 많이 한다. 우리가 가진 디바이스와 콘텐츠의 결합으로 충분히 이겨낼 수 있다. 가장 큰 목표는 온라인과 오프라인을 끊임없이 연결하는 것"이라고 말했다.    오프라인 이벤트는 클래스별로 과금하는 형태로 진화할 예정이다. 정기구독한 고객에게는 전용 스마트밴드를 뒷받침한다.    피트니스캔디는 매년 5배 이상의 성장을 자신했다.    김비오 피트니스캔디 부대표는 "유료 회원·매출은 2023년 5만명·100억원에서 2024년 30만명·1000억원, 2025년 100만명·5000억원을 목표로 하고 있다"고 말했다.    당연히 해외 진출도 염두에 두고 있다.    심 대표는 "K컬처가 이미 글로벌로 음악·드라마·영화에 이르기까지 광범위하게 퍼져 있다. 우리가 만드는 콘텐츠도 국내에 제한할 생각은 없다"며 "LG전자가 현지화 작업에 많은 도움을 줄 것"이라고 말했다.      
+트레이너들이 30일 서울 여의도 콘래드호텔에서 열린 LG전자-SM 합작법인 피트니스캔디 출범 보고회에서 포토타임을 갖는 모습. 정시종 기자     피트니스캔디의 핵심 요소는 K팝과 K댄스다.    보아부터 에스파까지 SM의 IP(지식재산권)를 적극적으로 활용해 재미있는 운동을 유도한다. 여러 아티스트·프로듀서가 참여하는 오리지널 음원도 준비 중이다.    복잡하고 전문적인 K팝 댄스는 시그니처 동작과 포인트 안무 위주로 누구나 재미있게 따라 할 수 있도록 돕는다. 피트니스 요소도 놓치지 않고 가미한다. 이 과정에서 피트니스캔디만의 정체성을 확립한다.    심우택 대표는 "골프가 의류와 라이프스타일 등 여러 면에서 생활에 큰 영향을 미치고 있다. 지금은 체육관과 용품 등에 국한됐지만 피트니스 시장도 지금보다 5~10배 규모가 커질 것"이라고 강조했다.    정길준 기자 kjkj@edaily.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>구글 쏠림 부추기는 포털 뉴스 역차별 규제</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 5:46</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>이상우 연세대 교수. /사진=연세대영국 옥스퍼드대 로이터저널리즘연구소의 디지털 뉴스 리포트 2021에 따르면, 한국 인터넷 이용자들 중 유튜브를 통해 뉴스를 이용하는 비율은 44%로 다른 플랫폼에 비해 두드러지게 높았다. 2008년 유튜브가 국내에 진출할 당시 판도라TV, 곰TV, 아프리카TV, 네이버비디오 등 다양한 토종 동영상 서비스들이 경쟁했고, 아프리카TV는 이들 중 가장 먼저 1인 방송서비스를 시작했다.  문제는 당시 한국의 갈라파고스적 규제인 '인터넷 실명제'로 인해 유튜브가 급속도로 성장하는 계기가 마련됐다는 것이다. 2009년 유튜브가 인터넷 실명제 대상이 되자, 구글은 한국 국적의 사용자들에 한해 업로드 기능을 차단하는 방식으로 법 적용을 피했고, 2010년부터는 유튜브코리아를 없애고 국외도메인으로 바로 접속되도록 만들어 인터넷 실명제 대상 사이트에서 유튜브가 제외됐다. 수많은 이용자들은 실명 인증을 거치지 않아도 되는 유튜브로 이동했고, 이에 힘입어 2%대에 불과했던 유튜브의 국내 시장 점유율은 인터넷실명제 시행을 기점으로 15%, 2013년부터는 74%의 점유율을 차지하며 1위 사업자 자리를 차지하게 됐다.결국 인터넷 실명제는 이용자의 표현의 자유, 개인정보 자기결정권, 정보통신서비스 제공자의 언론의 자유를 침해하면서도 명예훼손이나 모욕을 유의미하게 감소시키는 효과도 없었다는 이유로 위헌 판결이 나며 폐지됐다. 인터넷 실명제는 규제의 실익도 얻지 못한 채 동영상 시장의 해외 사업자에 대한 종속만을 초래한 시대착오적 법이었다.해외사업자들은 인터넷 실명제 외에도 각종 국내 규제의 허점에 힘입어 성장하고 있다. 국내 사업자들은 개인정보 수집 시 필수동의 항목을 최소화해 위치정보 등을 선택 동의사항으로 수집하고 있는 반면, 구글과 페이스북 등은 필수와 선택의 구분 없이 약 50개 이상의 개인정보를 한두번의 클릭으로 포괄적 동의를 받고 있다온라인 시장의 글로벌 경쟁이 이루어지는 상황에서, 포털의 기사배열을 제한하는 등 획일적인 서비스를 강제하는 법안이 당론으로 발의됐고 새정부에서도 방통위 포털뉴스협의체가 구성되는 등 포털 뉴스 규제 정책이 논의되고 있다. 그러나 포털 뉴스에 대한 규제는 다른 인터넷 규제와 마찬가지로 인터넷뉴스서비스사업자로 등록돼 있지 않은 구글을 비롯한 해외사업자들에게는 집행력이 없다. 국내 사업자의 기사배열이 제한되면 이용자들은 관심 뉴스를 추천해주는 구글과 유튜브로 옮겨갈 것이다. 동영상 시장에서 경험했듯이 뉴스마저 모두 해외 사업자에게 종속돼 국내 인터넷 뉴스 시장이 사라지는 현실을 지켜만 볼 것인가?요즈음 논의되고 있는 소위 언론 개혁 법안들, 특히 기사 배열 등 특정 형태의 뉴스 서비스를 제한하는 획일적이고 시대 흐름에 역행하는 법안들이 숙고 없이 처리되지 않기를 바란다. 포털 뉴스에 대한 정책을 도입하려면 현실에 대한 과학적인 판단과 정책의 사회적 영향에 대한 면밀한 검토가 선행돼야 한다. 더욱이 그것이 우리 사회의 여론 형성에 영향을 미치는 언론에 관한 것이라면 포털 뉴스 법안에 대한 논의는 더욱 치열하게 이루어져야 할 것이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>'위믹스' 글로벌 가상자산 거래소 쿠코인 상장</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2022.07.01. 오전 5:30</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>위메이드의 가상자산 '위믹스(WEMIX)'가 글로벌 가상자산 거래소 쿠코인(KuCoin)에 신규 상장됐다. /사진=위메이드 위메이드의 가상자산 '위믹스(WEMIX)'가 글로벌 가상자산 거래소 쿠코인(KuCoin)에 신규 상장됐다. 1일 위메이드에 따르면 지난달 30일 오후 6시부터 쿠코인 거래소에서 위믹스 거래가 가능하고, 출금은 이날 오후 7시부터 할 수 있다.쿠코인 거래소는 글로벌 가상자산 거래소로 아시아와 유럽 등 20개 이상의 지역 커뮤니티를 설립해 현지화 서비스를 제공하고 있다. 현물 및 선물거래, 스테이킹 등 다양한 서비스를 제공 중으로 1000만명 이상의 글로벌 사용자를 보유하고 있다. 위믹스는 현재 20개 이상 국내외 거래소에서 거래 가능하다. 위메이드는 앞으로 글로벌 거래소 신규 상장을 지속 추진할 계획이다.</t>
         </is>
       </c>
     </row>
